--- a/version_oct_2023/TotalPopulationbyAge.xlsx
+++ b/version_oct_2023/TotalPopulationbyAge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3623" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C2713D3-02BD-4A05-9A56-08BC514E63F9}"/>
+  <xr:revisionPtr revIDLastSave="3648" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B367F98C-7216-406E-A12A-037E6C00A906}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="759" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11295" tabRatio="759" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Gross enrollment primary" sheetId="4" r:id="rId8"/>
     <sheet name="Gross enrolment secondary" sheetId="5" r:id="rId9"/>
     <sheet name="Gross enrolment tertiary" sheetId="6" r:id="rId10"/>
-    <sheet name="Sheet4" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="243">
   <si>
     <t>Time</t>
   </si>
@@ -770,35 +769,13 @@
   <si>
     <t>Labor Force on Economy Output Data[WestEu,unskill]</t>
   </si>
-  <si>
-    <t>Energy Demand : FeliX 2.0 with DF</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>AsiaPacific</t>
-  </si>
-  <si>
-    <t>EastEu</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>WestEu</t>
-  </si>
-  <si>
-    <t>Carbon Price : FeliX 2.0 with DF</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1490,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1723,16 +1700,12 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="196">
@@ -1946,10 +1919,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1987,7 +1964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2093,7 +2070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2235,7 +2212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2950,7 +2927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D42E3-31AE-4069-9DF9-41DA8DBFAF44}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="BB15" sqref="BB15"/>
     </sheetView>
   </sheetViews>
@@ -4957,4253 +4934,6 @@
       </c>
       <c r="I60">
         <v>0.3563923</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55B82FD-B0AB-4605-B18B-D4C419E150DF}">
-  <dimension ref="A1:GT206"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:B206"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:202">
-      <c r="A1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1">
-        <v>1900</v>
-      </c>
-      <c r="C1">
-        <v>1901</v>
-      </c>
-      <c r="D1">
-        <v>1902</v>
-      </c>
-      <c r="E1">
-        <v>1903</v>
-      </c>
-      <c r="F1">
-        <v>1904</v>
-      </c>
-      <c r="G1">
-        <v>1905</v>
-      </c>
-      <c r="H1">
-        <v>1906</v>
-      </c>
-      <c r="I1">
-        <v>1907</v>
-      </c>
-      <c r="J1">
-        <v>1908</v>
-      </c>
-      <c r="K1">
-        <v>1909</v>
-      </c>
-      <c r="L1">
-        <v>1910</v>
-      </c>
-      <c r="M1">
-        <v>1911</v>
-      </c>
-      <c r="N1">
-        <v>1912</v>
-      </c>
-      <c r="O1">
-        <v>1913</v>
-      </c>
-      <c r="P1">
-        <v>1914</v>
-      </c>
-      <c r="Q1">
-        <v>1915</v>
-      </c>
-      <c r="R1">
-        <v>1916</v>
-      </c>
-      <c r="S1">
-        <v>1917</v>
-      </c>
-      <c r="T1">
-        <v>1918</v>
-      </c>
-      <c r="U1">
-        <v>1919</v>
-      </c>
-      <c r="V1">
-        <v>1920</v>
-      </c>
-      <c r="W1">
-        <v>1921</v>
-      </c>
-      <c r="X1">
-        <v>1922</v>
-      </c>
-      <c r="Y1">
-        <v>1923</v>
-      </c>
-      <c r="Z1">
-        <v>1924</v>
-      </c>
-      <c r="AA1">
-        <v>1925</v>
-      </c>
-      <c r="AB1">
-        <v>1926</v>
-      </c>
-      <c r="AC1">
-        <v>1927</v>
-      </c>
-      <c r="AD1">
-        <v>1928</v>
-      </c>
-      <c r="AE1">
-        <v>1929</v>
-      </c>
-      <c r="AF1">
-        <v>1930</v>
-      </c>
-      <c r="AG1">
-        <v>1931</v>
-      </c>
-      <c r="AH1">
-        <v>1932</v>
-      </c>
-      <c r="AI1">
-        <v>1933</v>
-      </c>
-      <c r="AJ1">
-        <v>1934</v>
-      </c>
-      <c r="AK1">
-        <v>1935</v>
-      </c>
-      <c r="AL1">
-        <v>1936</v>
-      </c>
-      <c r="AM1">
-        <v>1937</v>
-      </c>
-      <c r="AN1">
-        <v>1938</v>
-      </c>
-      <c r="AO1">
-        <v>1939</v>
-      </c>
-      <c r="AP1">
-        <v>1940</v>
-      </c>
-      <c r="AQ1">
-        <v>1941</v>
-      </c>
-      <c r="AR1">
-        <v>1942</v>
-      </c>
-      <c r="AS1">
-        <v>1943</v>
-      </c>
-      <c r="AT1">
-        <v>1944</v>
-      </c>
-      <c r="AU1">
-        <v>1945</v>
-      </c>
-      <c r="AV1">
-        <v>1946</v>
-      </c>
-      <c r="AW1">
-        <v>1947</v>
-      </c>
-      <c r="AX1">
-        <v>1948</v>
-      </c>
-      <c r="AY1">
-        <v>1949</v>
-      </c>
-      <c r="AZ1">
-        <v>1950</v>
-      </c>
-      <c r="BA1">
-        <v>1951</v>
-      </c>
-      <c r="BB1">
-        <v>1952</v>
-      </c>
-      <c r="BC1">
-        <v>1953</v>
-      </c>
-      <c r="BD1">
-        <v>1954</v>
-      </c>
-      <c r="BE1">
-        <v>1955</v>
-      </c>
-      <c r="BF1">
-        <v>1956</v>
-      </c>
-      <c r="BG1">
-        <v>1957</v>
-      </c>
-      <c r="BH1">
-        <v>1958</v>
-      </c>
-      <c r="BI1">
-        <v>1959</v>
-      </c>
-      <c r="BJ1">
-        <v>1960</v>
-      </c>
-      <c r="BK1">
-        <v>1961</v>
-      </c>
-      <c r="BL1">
-        <v>1962</v>
-      </c>
-      <c r="BM1">
-        <v>1963</v>
-      </c>
-      <c r="BN1">
-        <v>1964</v>
-      </c>
-      <c r="BO1">
-        <v>1965</v>
-      </c>
-      <c r="BP1">
-        <v>1966</v>
-      </c>
-      <c r="BQ1">
-        <v>1967</v>
-      </c>
-      <c r="BR1">
-        <v>1968</v>
-      </c>
-      <c r="BS1">
-        <v>1969</v>
-      </c>
-      <c r="BT1">
-        <v>1970</v>
-      </c>
-      <c r="BU1">
-        <v>1971</v>
-      </c>
-      <c r="BV1">
-        <v>1972</v>
-      </c>
-      <c r="BW1">
-        <v>1973</v>
-      </c>
-      <c r="BX1">
-        <v>1974</v>
-      </c>
-      <c r="BY1">
-        <v>1975</v>
-      </c>
-      <c r="BZ1">
-        <v>1976</v>
-      </c>
-      <c r="CA1">
-        <v>1977</v>
-      </c>
-      <c r="CB1">
-        <v>1978</v>
-      </c>
-      <c r="CC1">
-        <v>1979</v>
-      </c>
-      <c r="CD1">
-        <v>1980</v>
-      </c>
-      <c r="CE1">
-        <v>1981</v>
-      </c>
-      <c r="CF1">
-        <v>1982</v>
-      </c>
-      <c r="CG1">
-        <v>1983</v>
-      </c>
-      <c r="CH1">
-        <v>1984</v>
-      </c>
-      <c r="CI1">
-        <v>1985</v>
-      </c>
-      <c r="CJ1">
-        <v>1986</v>
-      </c>
-      <c r="CK1">
-        <v>1987</v>
-      </c>
-      <c r="CL1">
-        <v>1988</v>
-      </c>
-      <c r="CM1">
-        <v>1989</v>
-      </c>
-      <c r="CN1">
-        <v>1990</v>
-      </c>
-      <c r="CO1">
-        <v>1991</v>
-      </c>
-      <c r="CP1">
-        <v>1992</v>
-      </c>
-      <c r="CQ1">
-        <v>1993</v>
-      </c>
-      <c r="CR1">
-        <v>1994</v>
-      </c>
-      <c r="CS1">
-        <v>1995</v>
-      </c>
-      <c r="CT1">
-        <v>1996</v>
-      </c>
-      <c r="CU1">
-        <v>1997</v>
-      </c>
-      <c r="CV1">
-        <v>1998</v>
-      </c>
-      <c r="CW1">
-        <v>1999</v>
-      </c>
-      <c r="CX1">
-        <v>2000</v>
-      </c>
-      <c r="CY1">
-        <v>2001</v>
-      </c>
-      <c r="CZ1">
-        <v>2002</v>
-      </c>
-      <c r="DA1">
-        <v>2003</v>
-      </c>
-      <c r="DB1">
-        <v>2004</v>
-      </c>
-      <c r="DC1">
-        <v>2005</v>
-      </c>
-      <c r="DD1">
-        <v>2006</v>
-      </c>
-      <c r="DE1">
-        <v>2007</v>
-      </c>
-      <c r="DF1">
-        <v>2008</v>
-      </c>
-      <c r="DG1">
-        <v>2009</v>
-      </c>
-      <c r="DH1">
-        <v>2010</v>
-      </c>
-      <c r="DI1">
-        <v>2011</v>
-      </c>
-      <c r="DJ1">
-        <v>2012</v>
-      </c>
-      <c r="DK1">
-        <v>2013</v>
-      </c>
-      <c r="DL1">
-        <v>2014</v>
-      </c>
-      <c r="DM1">
-        <v>2015</v>
-      </c>
-      <c r="DN1">
-        <v>2016</v>
-      </c>
-      <c r="DO1">
-        <v>2017</v>
-      </c>
-      <c r="DP1">
-        <v>2018</v>
-      </c>
-      <c r="DQ1">
-        <v>2019</v>
-      </c>
-      <c r="DR1">
-        <v>2020</v>
-      </c>
-      <c r="DS1">
-        <v>2021</v>
-      </c>
-      <c r="DT1">
-        <v>2022</v>
-      </c>
-      <c r="DU1">
-        <v>2023</v>
-      </c>
-      <c r="DV1">
-        <v>2024</v>
-      </c>
-      <c r="DW1">
-        <v>2025</v>
-      </c>
-      <c r="DX1">
-        <v>2026</v>
-      </c>
-      <c r="DY1">
-        <v>2027</v>
-      </c>
-      <c r="DZ1">
-        <v>2028</v>
-      </c>
-      <c r="EA1">
-        <v>2029</v>
-      </c>
-      <c r="EB1">
-        <v>2030</v>
-      </c>
-      <c r="EC1">
-        <v>2031</v>
-      </c>
-      <c r="ED1">
-        <v>2032</v>
-      </c>
-      <c r="EE1">
-        <v>2033</v>
-      </c>
-      <c r="EF1">
-        <v>2034</v>
-      </c>
-      <c r="EG1">
-        <v>2035</v>
-      </c>
-      <c r="EH1">
-        <v>2036</v>
-      </c>
-      <c r="EI1">
-        <v>2037</v>
-      </c>
-      <c r="EJ1">
-        <v>2038</v>
-      </c>
-      <c r="EK1">
-        <v>2039</v>
-      </c>
-      <c r="EL1">
-        <v>2040</v>
-      </c>
-      <c r="EM1">
-        <v>2041</v>
-      </c>
-      <c r="EN1">
-        <v>2042</v>
-      </c>
-      <c r="EO1">
-        <v>2043</v>
-      </c>
-      <c r="EP1">
-        <v>2044</v>
-      </c>
-      <c r="EQ1">
-        <v>2045</v>
-      </c>
-      <c r="ER1">
-        <v>2046</v>
-      </c>
-      <c r="ES1">
-        <v>2047</v>
-      </c>
-      <c r="ET1">
-        <v>2048</v>
-      </c>
-      <c r="EU1">
-        <v>2049</v>
-      </c>
-      <c r="EV1">
-        <v>2050</v>
-      </c>
-      <c r="EW1">
-        <v>2051</v>
-      </c>
-      <c r="EX1">
-        <v>2052</v>
-      </c>
-      <c r="EY1">
-        <v>2053</v>
-      </c>
-      <c r="EZ1">
-        <v>2054</v>
-      </c>
-      <c r="FA1">
-        <v>2055</v>
-      </c>
-      <c r="FB1">
-        <v>2056</v>
-      </c>
-      <c r="FC1">
-        <v>2057</v>
-      </c>
-      <c r="FD1">
-        <v>2058</v>
-      </c>
-      <c r="FE1">
-        <v>2059</v>
-      </c>
-      <c r="FF1">
-        <v>2060</v>
-      </c>
-      <c r="FG1">
-        <v>2061</v>
-      </c>
-      <c r="FH1">
-        <v>2062</v>
-      </c>
-      <c r="FI1">
-        <v>2063</v>
-      </c>
-      <c r="FJ1">
-        <v>2064</v>
-      </c>
-      <c r="FK1">
-        <v>2065</v>
-      </c>
-      <c r="FL1">
-        <v>2066</v>
-      </c>
-      <c r="FM1">
-        <v>2067</v>
-      </c>
-      <c r="FN1">
-        <v>2068</v>
-      </c>
-      <c r="FO1">
-        <v>2069</v>
-      </c>
-      <c r="FP1">
-        <v>2070</v>
-      </c>
-      <c r="FQ1">
-        <v>2071</v>
-      </c>
-      <c r="FR1">
-        <v>2072</v>
-      </c>
-      <c r="FS1">
-        <v>2073</v>
-      </c>
-      <c r="FT1">
-        <v>2074</v>
-      </c>
-      <c r="FU1">
-        <v>2075</v>
-      </c>
-      <c r="FV1">
-        <v>2076</v>
-      </c>
-      <c r="FW1">
-        <v>2077</v>
-      </c>
-      <c r="FX1">
-        <v>2078</v>
-      </c>
-      <c r="FY1">
-        <v>2079</v>
-      </c>
-      <c r="FZ1">
-        <v>2080</v>
-      </c>
-      <c r="GA1">
-        <v>2081</v>
-      </c>
-      <c r="GB1">
-        <v>2082</v>
-      </c>
-      <c r="GC1">
-        <v>2083</v>
-      </c>
-      <c r="GD1">
-        <v>2084</v>
-      </c>
-      <c r="GE1">
-        <v>2085</v>
-      </c>
-      <c r="GF1">
-        <v>2086</v>
-      </c>
-      <c r="GG1">
-        <v>2087</v>
-      </c>
-      <c r="GH1">
-        <v>2088</v>
-      </c>
-      <c r="GI1">
-        <v>2089</v>
-      </c>
-      <c r="GJ1">
-        <v>2090</v>
-      </c>
-      <c r="GK1">
-        <v>2091</v>
-      </c>
-      <c r="GL1">
-        <v>2092</v>
-      </c>
-      <c r="GM1">
-        <v>2093</v>
-      </c>
-      <c r="GN1">
-        <v>2094</v>
-      </c>
-      <c r="GO1">
-        <v>2095</v>
-      </c>
-      <c r="GP1">
-        <v>2096</v>
-      </c>
-      <c r="GQ1">
-        <v>2097</v>
-      </c>
-      <c r="GR1">
-        <v>2098</v>
-      </c>
-      <c r="GS1">
-        <v>2099</v>
-      </c>
-      <c r="GT1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:202">
-      <c r="A2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DH2">
-        <v>0</v>
-      </c>
-      <c r="DI2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
-      </c>
-      <c r="DK2">
-        <v>0</v>
-      </c>
-      <c r="DL2">
-        <v>0</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DO2">
-        <v>0</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2">
-        <v>0</v>
-      </c>
-      <c r="DR2">
-        <v>0</v>
-      </c>
-      <c r="DS2">
-        <v>5</v>
-      </c>
-      <c r="DT2">
-        <v>10</v>
-      </c>
-      <c r="DU2">
-        <v>15</v>
-      </c>
-      <c r="DV2">
-        <v>20</v>
-      </c>
-      <c r="DW2">
-        <v>25</v>
-      </c>
-      <c r="DX2">
-        <v>30</v>
-      </c>
-      <c r="DY2">
-        <v>35</v>
-      </c>
-      <c r="DZ2">
-        <v>40</v>
-      </c>
-      <c r="EA2">
-        <v>45</v>
-      </c>
-      <c r="EB2">
-        <v>50</v>
-      </c>
-      <c r="EC2">
-        <v>55</v>
-      </c>
-      <c r="ED2">
-        <v>60</v>
-      </c>
-      <c r="EE2">
-        <v>65</v>
-      </c>
-      <c r="EF2">
-        <v>70</v>
-      </c>
-      <c r="EG2">
-        <v>75</v>
-      </c>
-      <c r="EH2">
-        <v>80</v>
-      </c>
-      <c r="EI2">
-        <v>85</v>
-      </c>
-      <c r="EJ2">
-        <v>90</v>
-      </c>
-      <c r="EK2">
-        <v>95</v>
-      </c>
-      <c r="EL2">
-        <v>100</v>
-      </c>
-      <c r="EM2">
-        <v>105</v>
-      </c>
-      <c r="EN2">
-        <v>110</v>
-      </c>
-      <c r="EO2">
-        <v>115</v>
-      </c>
-      <c r="EP2">
-        <v>120</v>
-      </c>
-      <c r="EQ2">
-        <v>125</v>
-      </c>
-      <c r="ER2">
-        <v>130</v>
-      </c>
-      <c r="ES2">
-        <v>135</v>
-      </c>
-      <c r="ET2">
-        <v>140</v>
-      </c>
-      <c r="EU2">
-        <v>145</v>
-      </c>
-      <c r="EV2">
-        <v>150</v>
-      </c>
-      <c r="EW2">
-        <v>155</v>
-      </c>
-      <c r="EX2">
-        <v>160</v>
-      </c>
-      <c r="EY2">
-        <v>165</v>
-      </c>
-      <c r="EZ2">
-        <v>170</v>
-      </c>
-      <c r="FA2">
-        <v>175</v>
-      </c>
-      <c r="FB2">
-        <v>180</v>
-      </c>
-      <c r="FC2">
-        <v>185</v>
-      </c>
-      <c r="FD2">
-        <v>190</v>
-      </c>
-      <c r="FE2">
-        <v>195</v>
-      </c>
-      <c r="FF2">
-        <v>200</v>
-      </c>
-      <c r="FG2">
-        <v>205</v>
-      </c>
-      <c r="FH2">
-        <v>210</v>
-      </c>
-      <c r="FI2">
-        <v>215</v>
-      </c>
-      <c r="FJ2">
-        <v>220</v>
-      </c>
-      <c r="FK2">
-        <v>225</v>
-      </c>
-      <c r="FL2">
-        <v>230</v>
-      </c>
-      <c r="FM2">
-        <v>235</v>
-      </c>
-      <c r="FN2">
-        <v>240</v>
-      </c>
-      <c r="FO2">
-        <v>245</v>
-      </c>
-      <c r="FP2">
-        <v>250</v>
-      </c>
-      <c r="FQ2">
-        <v>255</v>
-      </c>
-      <c r="FR2">
-        <v>260</v>
-      </c>
-      <c r="FS2">
-        <v>265</v>
-      </c>
-      <c r="FT2">
-        <v>270</v>
-      </c>
-      <c r="FU2">
-        <v>275</v>
-      </c>
-      <c r="FV2">
-        <v>280</v>
-      </c>
-      <c r="FW2">
-        <v>285</v>
-      </c>
-      <c r="FX2">
-        <v>290</v>
-      </c>
-      <c r="FY2">
-        <v>295</v>
-      </c>
-      <c r="FZ2">
-        <v>300</v>
-      </c>
-      <c r="GA2">
-        <v>305</v>
-      </c>
-      <c r="GB2">
-        <v>310</v>
-      </c>
-      <c r="GC2">
-        <v>315</v>
-      </c>
-      <c r="GD2">
-        <v>320</v>
-      </c>
-      <c r="GE2">
-        <v>325</v>
-      </c>
-      <c r="GF2">
-        <v>330</v>
-      </c>
-      <c r="GG2">
-        <v>335</v>
-      </c>
-      <c r="GH2">
-        <v>340</v>
-      </c>
-      <c r="GI2">
-        <v>345</v>
-      </c>
-      <c r="GJ2">
-        <v>350</v>
-      </c>
-      <c r="GK2">
-        <v>355</v>
-      </c>
-      <c r="GL2">
-        <v>360</v>
-      </c>
-      <c r="GM2">
-        <v>365</v>
-      </c>
-      <c r="GN2">
-        <v>370</v>
-      </c>
-      <c r="GO2">
-        <v>375</v>
-      </c>
-      <c r="GP2">
-        <v>380</v>
-      </c>
-      <c r="GQ2">
-        <v>385</v>
-      </c>
-      <c r="GR2">
-        <v>390</v>
-      </c>
-      <c r="GS2">
-        <v>395</v>
-      </c>
-      <c r="GT2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="1:202">
-      <c r="A5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" t="s">
-        <v>249</v>
-      </c>
-      <c r="J5" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:202">
-      <c r="A6">
-        <v>1900</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1900</v>
-      </c>
-      <c r="K6">
-        <v>209.44200000000001</v>
-      </c>
-      <c r="M6">
-        <f>K96/K6</f>
-        <v>33.933260759542023</v>
-      </c>
-      <c r="N6">
-        <f>K206/K126</f>
-        <v>1.4716823510931498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:202">
-      <c r="A7">
-        <v>1901</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1901</v>
-      </c>
-      <c r="K7">
-        <v>212.477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:202">
-      <c r="A8">
-        <v>1902</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1902</v>
-      </c>
-      <c r="K8">
-        <v>219.34399999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:202">
-      <c r="A9">
-        <v>1903</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1903</v>
-      </c>
-      <c r="K9">
-        <v>227.786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:202">
-      <c r="A10">
-        <v>1904</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1904</v>
-      </c>
-      <c r="K10">
-        <v>236.905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:202">
-      <c r="A11">
-        <v>1905</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1905</v>
-      </c>
-      <c r="K11">
-        <v>246.26</v>
-      </c>
-      <c r="N11">
-        <v>1900</v>
-      </c>
-      <c r="P11">
-        <v>1990</v>
-      </c>
-      <c r="R11">
-        <v>2020</v>
-      </c>
-      <c r="T11">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:202">
-      <c r="A12">
-        <v>1906</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1906</v>
-      </c>
-      <c r="K12">
-        <v>255.61699999999999</v>
-      </c>
-      <c r="M12" t="s">
-        <v>244</v>
-      </c>
-      <c r="N12" s="4">
-        <v>13.24934562540013</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12">
-        <v>449.59350000000001</v>
-      </c>
-      <c r="R12" s="5">
-        <v>961.43783807999989</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="4">
-        <v>1414.9310979754894</v>
-      </c>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:202">
-      <c r="A13">
-        <v>1907</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1907</v>
-      </c>
-      <c r="K13">
-        <v>264.86099999999999</v>
-      </c>
-      <c r="M13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N13" s="4">
-        <v>59.825102408678703</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13">
-        <v>2030.0608</v>
-      </c>
-      <c r="R13" s="5">
-        <v>5564.7094280399997</v>
-      </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="4">
-        <v>8189.4846542081241</v>
-      </c>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:202">
-      <c r="A14">
-        <v>1908</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1908</v>
-      </c>
-      <c r="K14">
-        <v>273.95299999999997</v>
-      </c>
-      <c r="M14" t="s">
-        <v>246</v>
-      </c>
-      <c r="N14" s="4">
-        <v>23.961950069044114</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14">
-        <v>813.10709999999995</v>
-      </c>
-      <c r="R14" s="5">
-        <v>645.58572263999997</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="4">
-        <v>950.09711412700528</v>
-      </c>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:202">
-      <c r="A15">
-        <v>1909</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1909</v>
-      </c>
-      <c r="K15">
-        <v>282.90199999999999</v>
-      </c>
-      <c r="M15" t="s">
-        <v>247</v>
-      </c>
-      <c r="N15" s="4">
-        <v>8.7802938276781504</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15">
-        <v>297.94400000000002</v>
-      </c>
-      <c r="R15" s="5">
-        <v>487.5207072</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="4">
-        <v>717.47562057869106</v>
-      </c>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:202">
-      <c r="A16">
-        <v>1910</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1910</v>
-      </c>
-      <c r="K16">
-        <v>291.74099999999999</v>
-      </c>
-      <c r="M16" t="s">
-        <v>248</v>
-      </c>
-      <c r="N16" s="4">
-        <v>63.944582731850765</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16">
-        <v>2169.8481999999999</v>
-      </c>
-      <c r="R16" s="5">
-        <v>2339.33260776</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="4">
-        <v>3442.7545121771059</v>
-      </c>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17">
-        <v>1911</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1911</v>
-      </c>
-      <c r="K17">
-        <v>300.52199999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18">
-        <v>1912</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1912</v>
-      </c>
-      <c r="K18">
-        <v>309.30200000000002</v>
-      </c>
-      <c r="N18" t="s">
-        <v>244</v>
-      </c>
-      <c r="P18" t="s">
-        <v>245</v>
-      </c>
-      <c r="R18" t="s">
-        <v>246</v>
-      </c>
-      <c r="T18" t="s">
-        <v>247</v>
-      </c>
-      <c r="V18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19">
-        <v>1913</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1913</v>
-      </c>
-      <c r="K19">
-        <v>318.13900000000001</v>
-      </c>
-      <c r="M19">
-        <v>1900</v>
-      </c>
-      <c r="N19" s="4">
-        <v>13.24934562540013</v>
-      </c>
-      <c r="O19">
-        <v>1900</v>
-      </c>
-      <c r="P19" s="4">
-        <v>59.825102408678703</v>
-      </c>
-      <c r="Q19">
-        <v>1900</v>
-      </c>
-      <c r="R19" s="4">
-        <v>23.961950069044114</v>
-      </c>
-      <c r="S19">
-        <v>1900</v>
-      </c>
-      <c r="T19" s="4">
-        <v>8.7802938276781504</v>
-      </c>
-      <c r="U19">
-        <v>1900</v>
-      </c>
-      <c r="V19" s="4">
-        <v>63.944582731850765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20">
-        <v>1914</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1914</v>
-      </c>
-      <c r="K20">
-        <v>327.09300000000002</v>
-      </c>
-      <c r="M20">
-        <v>2100</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1414.9310979754894</v>
-      </c>
-      <c r="O20">
-        <v>2100</v>
-      </c>
-      <c r="P20" s="4">
-        <v>8189.4846542081241</v>
-      </c>
-      <c r="Q20">
-        <v>2100</v>
-      </c>
-      <c r="R20" s="4">
-        <v>950.09711412700528</v>
-      </c>
-      <c r="S20">
-        <v>2100</v>
-      </c>
-      <c r="T20" s="4">
-        <v>717.47562057869106</v>
-      </c>
-      <c r="U20">
-        <v>2100</v>
-      </c>
-      <c r="V20" s="4">
-        <v>3442.7545121771059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21">
-        <v>1915</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1915</v>
-      </c>
-      <c r="K21">
-        <v>336.22399999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22">
-        <v>1916</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1916</v>
-      </c>
-      <c r="K22">
-        <v>345.589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23">
-        <v>1917</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1917</v>
-      </c>
-      <c r="K23">
-        <v>355.24700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24">
-        <v>1918</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1918</v>
-      </c>
-      <c r="K24">
-        <v>365.25700000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25">
-        <v>1919</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1919</v>
-      </c>
-      <c r="K25">
-        <v>375.68599999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26">
-        <v>1920</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1920</v>
-      </c>
-      <c r="K26">
-        <v>386.60500000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="A27">
-        <v>1921</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1921</v>
-      </c>
-      <c r="K27">
-        <v>398.08800000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28">
-        <v>1922</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1922</v>
-      </c>
-      <c r="K28">
-        <v>410.21699999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29">
-        <v>1923</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1923</v>
-      </c>
-      <c r="K29">
-        <v>423.08100000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30">
-        <v>1924</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>1924</v>
-      </c>
-      <c r="K30">
-        <v>436.92399999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31">
-        <v>1925</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>1925</v>
-      </c>
-      <c r="K31">
-        <v>451.822</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32">
-        <v>1926</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1926</v>
-      </c>
-      <c r="K32">
-        <v>467.82499999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>1927</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1927</v>
-      </c>
-      <c r="K33">
-        <v>485.01799999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>1928</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>1928</v>
-      </c>
-      <c r="K34">
-        <v>503.49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>1929</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1929</v>
-      </c>
-      <c r="K35">
-        <v>523.32799999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>1930</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1930</v>
-      </c>
-      <c r="K36">
-        <v>544.61599999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>1931</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1931</v>
-      </c>
-      <c r="K37">
-        <v>567.43499999999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>1932</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1932</v>
-      </c>
-      <c r="K38">
-        <v>591.86400000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>1933</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1933</v>
-      </c>
-      <c r="K39">
-        <v>617.97900000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>1934</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1934</v>
-      </c>
-      <c r="K40">
-        <v>645.85699999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>1935</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>1935</v>
-      </c>
-      <c r="K41">
-        <v>675.57899999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>1936</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>1936</v>
-      </c>
-      <c r="K42">
-        <v>707.22699999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>1937</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1937</v>
-      </c>
-      <c r="K43">
-        <v>740.88800000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>1938</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>1938</v>
-      </c>
-      <c r="K44">
-        <v>776.65800000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>1939</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>1939</v>
-      </c>
-      <c r="K45">
-        <v>814.65599999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>1940</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>1940</v>
-      </c>
-      <c r="K46">
-        <v>854.99099999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>1941</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1941</v>
-      </c>
-      <c r="K47">
-        <v>897.76499999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>1942</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>1942</v>
-      </c>
-      <c r="K48">
-        <v>943.077</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>1943</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>1943</v>
-      </c>
-      <c r="K49">
-        <v>991.024</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>1944</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1944</v>
-      </c>
-      <c r="K50">
-        <v>1041.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>1945</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1945</v>
-      </c>
-      <c r="K51">
-        <v>1095.21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>1946</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1946</v>
-      </c>
-      <c r="K52">
-        <v>1151.6300000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <v>1947</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>1947</v>
-      </c>
-      <c r="K53">
-        <v>1211.07</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>1948</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>1948</v>
-      </c>
-      <c r="K54">
-        <v>1273.6099999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>1949</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>1949</v>
-      </c>
-      <c r="K55">
-        <v>1339.33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>1950</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>1950</v>
-      </c>
-      <c r="K56">
-        <v>1408.31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>1951</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>1951</v>
-      </c>
-      <c r="K57">
-        <v>1480.61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>1952</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>1952</v>
-      </c>
-      <c r="K58">
-        <v>1556.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>1953</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>1953</v>
-      </c>
-      <c r="K59">
-        <v>1635.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>1954</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>1954</v>
-      </c>
-      <c r="K60">
-        <v>1718.02</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>1955</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1955</v>
-      </c>
-      <c r="K61">
-        <v>1804.14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>1956</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>1956</v>
-      </c>
-      <c r="K62">
-        <v>1893.81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>1957</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>1957</v>
-      </c>
-      <c r="K63">
-        <v>1987.07</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64">
-        <v>1958</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1958</v>
-      </c>
-      <c r="K64">
-        <v>2083.9499999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65">
-        <v>1959</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>1959</v>
-      </c>
-      <c r="K65">
-        <v>2184.4899999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66">
-        <v>1960</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>1960</v>
-      </c>
-      <c r="K66">
-        <v>2288.7399999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67">
-        <v>1961</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>1961</v>
-      </c>
-      <c r="K67">
-        <v>2396.7399999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68">
-        <v>1962</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>1962</v>
-      </c>
-      <c r="K68">
-        <v>2508.52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69">
-        <v>1963</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>1963</v>
-      </c>
-      <c r="K69">
-        <v>2624.12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70">
-        <v>1964</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>1964</v>
-      </c>
-      <c r="K70">
-        <v>2743.58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71">
-        <v>1965</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>1965</v>
-      </c>
-      <c r="K71">
-        <v>2866.94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72">
-        <v>1966</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1966</v>
-      </c>
-      <c r="K72">
-        <v>2994.23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73">
-        <v>1967</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>1967</v>
-      </c>
-      <c r="K73">
-        <v>3124.95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74">
-        <v>1968</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>1968</v>
-      </c>
-      <c r="K74">
-        <v>3257.53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75">
-        <v>1969</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>1969</v>
-      </c>
-      <c r="K75">
-        <v>3393.09</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76">
-        <v>1970</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1970</v>
-      </c>
-      <c r="K76">
-        <v>3532.17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77">
-        <v>1971</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>1971</v>
-      </c>
-      <c r="K77">
-        <v>3674.99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78">
-        <v>1972</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>1972</v>
-      </c>
-      <c r="K78">
-        <v>3821.62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79">
-        <v>1973</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>1973</v>
-      </c>
-      <c r="K79">
-        <v>3972.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80">
-        <v>1974</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>1974</v>
-      </c>
-      <c r="K80">
-        <v>4126.32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>1975</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>1975</v>
-      </c>
-      <c r="K81">
-        <v>4284.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>1976</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>1976</v>
-      </c>
-      <c r="K82">
-        <v>4446.0600000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>1977</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>1977</v>
-      </c>
-      <c r="K83">
-        <v>4611.6000000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>1978</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>1978</v>
-      </c>
-      <c r="K84">
-        <v>4780.92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>1979</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1979</v>
-      </c>
-      <c r="K85">
-        <v>4954.03</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>1980</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>1980</v>
-      </c>
-      <c r="K86">
-        <v>5130.95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>1981</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>1981</v>
-      </c>
-      <c r="K87">
-        <v>5311.67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>1982</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>1982</v>
-      </c>
-      <c r="K88">
-        <v>5496.2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89">
-        <v>1983</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1983</v>
-      </c>
-      <c r="K89">
-        <v>5684.53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
-        <v>1984</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>1984</v>
-      </c>
-      <c r="K90">
-        <v>5876.67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
-        <v>1985</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1985</v>
-      </c>
-      <c r="K91">
-        <v>6072.57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92">
-        <v>1986</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>1986</v>
-      </c>
-      <c r="K92">
-        <v>6272.18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93">
-        <v>1987</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1987</v>
-      </c>
-      <c r="K93">
-        <v>6475.47</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>1988</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>1988</v>
-      </c>
-      <c r="K94">
-        <v>6682.39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>1989</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1989</v>
-      </c>
-      <c r="K95">
-        <v>6892.93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96">
-        <v>1990</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>1990</v>
-      </c>
-      <c r="K96">
-        <v>7107.05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
-        <v>1991</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>1991</v>
-      </c>
-      <c r="K97">
-        <v>7324.69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98">
-        <v>1992</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>1992</v>
-      </c>
-      <c r="K98">
-        <v>7545.84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
-        <v>1993</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>1993</v>
-      </c>
-      <c r="K99">
-        <v>7770.42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
-        <v>1994</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>1994</v>
-      </c>
-      <c r="K100">
-        <v>7998.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
-        <v>1995</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>1995</v>
-      </c>
-      <c r="K101">
-        <v>8229.31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
-        <v>1996</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>1996</v>
-      </c>
-      <c r="K102">
-        <v>8463.2900000000009</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
-        <v>1997</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>1997</v>
-      </c>
-      <c r="K103">
-        <v>8700.07</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104">
-        <v>1998</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="J104">
-        <v>1998</v>
-      </c>
-      <c r="K104">
-        <v>8939.41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105">
-        <v>1999</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="J105">
-        <v>1999</v>
-      </c>
-      <c r="K105">
-        <v>9181.06</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106">
-        <v>2000</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="J106">
-        <v>2000</v>
-      </c>
-      <c r="K106">
-        <v>9424.7800000000007</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107">
-        <v>2001</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>2001</v>
-      </c>
-      <c r="K107">
-        <v>9670.27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>2002</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>2002</v>
-      </c>
-      <c r="K108">
-        <v>9917.0400000000009</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>2003</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>2003</v>
-      </c>
-      <c r="K109">
-        <v>10164.799999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>2004</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>2004</v>
-      </c>
-      <c r="K110">
-        <v>10413.299999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>2005</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>2005</v>
-      </c>
-      <c r="K111">
-        <v>10662.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>2006</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>2006</v>
-      </c>
-      <c r="K112">
-        <v>10911.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>2007</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>2007</v>
-      </c>
-      <c r="K113">
-        <v>11160.6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>2008</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>2008</v>
-      </c>
-      <c r="K114">
-        <v>11409.4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>2009</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>2009</v>
-      </c>
-      <c r="K115">
-        <v>11657.7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>2010</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>2010</v>
-      </c>
-      <c r="K116">
-        <v>11905</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>2011</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>2011</v>
-      </c>
-      <c r="K117">
-        <v>12146.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>2012</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>2012</v>
-      </c>
-      <c r="K118">
-        <v>12368.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>2013</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>2013</v>
-      </c>
-      <c r="K119">
-        <v>12581</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>2014</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>2014</v>
-      </c>
-      <c r="K120">
-        <v>12790.2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>2015</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>2015</v>
-      </c>
-      <c r="K121">
-        <v>12997.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>2016</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>2016</v>
-      </c>
-      <c r="K122">
-        <v>13202.7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>2017</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>2017</v>
-      </c>
-      <c r="K123">
-        <v>13406.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>2018</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>2018</v>
-      </c>
-      <c r="K124">
-        <v>13608.2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>2019</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>2019</v>
-      </c>
-      <c r="K125">
-        <v>13807.9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>2020</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>2020</v>
-      </c>
-      <c r="K126">
-        <v>14005.4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>2021</v>
-      </c>
-      <c r="B127">
-        <v>5</v>
-      </c>
-      <c r="J127">
-        <v>2021</v>
-      </c>
-      <c r="K127">
-        <v>14201.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>2022</v>
-      </c>
-      <c r="B128">
-        <v>10</v>
-      </c>
-      <c r="J128">
-        <v>2022</v>
-      </c>
-      <c r="K128">
-        <v>14396.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>2023</v>
-      </c>
-      <c r="B129">
-        <v>15</v>
-      </c>
-      <c r="J129">
-        <v>2023</v>
-      </c>
-      <c r="K129">
-        <v>14590.8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>2024</v>
-      </c>
-      <c r="B130">
-        <v>20</v>
-      </c>
-      <c r="J130">
-        <v>2024</v>
-      </c>
-      <c r="K130">
-        <v>14783.1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>2025</v>
-      </c>
-      <c r="B131">
-        <v>25</v>
-      </c>
-      <c r="J131">
-        <v>2025</v>
-      </c>
-      <c r="K131">
-        <v>14973.6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>2026</v>
-      </c>
-      <c r="B132">
-        <v>30</v>
-      </c>
-      <c r="J132">
-        <v>2026</v>
-      </c>
-      <c r="K132">
-        <v>15162</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>2027</v>
-      </c>
-      <c r="B133">
-        <v>35</v>
-      </c>
-      <c r="J133">
-        <v>2027</v>
-      </c>
-      <c r="K133">
-        <v>15348.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>2028</v>
-      </c>
-      <c r="B134">
-        <v>40</v>
-      </c>
-      <c r="J134">
-        <v>2028</v>
-      </c>
-      <c r="K134">
-        <v>15532.1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>2029</v>
-      </c>
-      <c r="B135">
-        <v>45</v>
-      </c>
-      <c r="J135">
-        <v>2029</v>
-      </c>
-      <c r="K135">
-        <v>15713.3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>2030</v>
-      </c>
-      <c r="B136">
-        <v>50</v>
-      </c>
-      <c r="J136">
-        <v>2030</v>
-      </c>
-      <c r="K136">
-        <v>15891.6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>2031</v>
-      </c>
-      <c r="B137">
-        <v>55</v>
-      </c>
-      <c r="J137">
-        <v>2031</v>
-      </c>
-      <c r="K137">
-        <v>16067</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>2032</v>
-      </c>
-      <c r="B138">
-        <v>60</v>
-      </c>
-      <c r="J138">
-        <v>2032</v>
-      </c>
-      <c r="K138">
-        <v>16239</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>2033</v>
-      </c>
-      <c r="B139">
-        <v>65</v>
-      </c>
-      <c r="J139">
-        <v>2033</v>
-      </c>
-      <c r="K139">
-        <v>16407.3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>2034</v>
-      </c>
-      <c r="B140">
-        <v>70</v>
-      </c>
-      <c r="J140">
-        <v>2034</v>
-      </c>
-      <c r="K140">
-        <v>16571.599999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>2035</v>
-      </c>
-      <c r="B141">
-        <v>75</v>
-      </c>
-      <c r="J141">
-        <v>2035</v>
-      </c>
-      <c r="K141">
-        <v>16731.900000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>2036</v>
-      </c>
-      <c r="B142">
-        <v>80</v>
-      </c>
-      <c r="J142">
-        <v>2036</v>
-      </c>
-      <c r="K142">
-        <v>16888.099999999999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>2037</v>
-      </c>
-      <c r="B143">
-        <v>85</v>
-      </c>
-      <c r="J143">
-        <v>2037</v>
-      </c>
-      <c r="K143">
-        <v>17039.900000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>2038</v>
-      </c>
-      <c r="B144">
-        <v>90</v>
-      </c>
-      <c r="J144">
-        <v>2038</v>
-      </c>
-      <c r="K144">
-        <v>17187.400000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>2039</v>
-      </c>
-      <c r="B145">
-        <v>95</v>
-      </c>
-      <c r="J145">
-        <v>2039</v>
-      </c>
-      <c r="K145">
-        <v>17330.599999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>2040</v>
-      </c>
-      <c r="B146">
-        <v>100</v>
-      </c>
-      <c r="J146">
-        <v>2040</v>
-      </c>
-      <c r="K146">
-        <v>17469.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>2041</v>
-      </c>
-      <c r="B147">
-        <v>105</v>
-      </c>
-      <c r="J147">
-        <v>2041</v>
-      </c>
-      <c r="K147">
-        <v>17604.099999999999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>2042</v>
-      </c>
-      <c r="B148">
-        <v>110</v>
-      </c>
-      <c r="J148">
-        <v>2042</v>
-      </c>
-      <c r="K148">
-        <v>17734.900000000001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>2043</v>
-      </c>
-      <c r="B149">
-        <v>115</v>
-      </c>
-      <c r="J149">
-        <v>2043</v>
-      </c>
-      <c r="K149">
-        <v>17862.099999999999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>2044</v>
-      </c>
-      <c r="B150">
-        <v>120</v>
-      </c>
-      <c r="J150">
-        <v>2044</v>
-      </c>
-      <c r="K150">
-        <v>17988.099999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>2045</v>
-      </c>
-      <c r="B151">
-        <v>125</v>
-      </c>
-      <c r="J151">
-        <v>2045</v>
-      </c>
-      <c r="K151">
-        <v>18116.3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>2046</v>
-      </c>
-      <c r="B152">
-        <v>130</v>
-      </c>
-      <c r="J152">
-        <v>2046</v>
-      </c>
-      <c r="K152">
-        <v>18243</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>2047</v>
-      </c>
-      <c r="B153">
-        <v>135</v>
-      </c>
-      <c r="J153">
-        <v>2047</v>
-      </c>
-      <c r="K153">
-        <v>18366.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>2048</v>
-      </c>
-      <c r="B154">
-        <v>140</v>
-      </c>
-      <c r="J154">
-        <v>2048</v>
-      </c>
-      <c r="K154">
-        <v>18486.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>2049</v>
-      </c>
-      <c r="B155">
-        <v>145</v>
-      </c>
-      <c r="J155">
-        <v>2049</v>
-      </c>
-      <c r="K155">
-        <v>18602.7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>2050</v>
-      </c>
-      <c r="B156">
-        <v>150</v>
-      </c>
-      <c r="J156">
-        <v>2050</v>
-      </c>
-      <c r="K156">
-        <v>18715.099999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>2051</v>
-      </c>
-      <c r="B157">
-        <v>155</v>
-      </c>
-      <c r="J157">
-        <v>2051</v>
-      </c>
-      <c r="K157">
-        <v>18823.7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>2052</v>
-      </c>
-      <c r="B158">
-        <v>160</v>
-      </c>
-      <c r="J158">
-        <v>2052</v>
-      </c>
-      <c r="K158">
-        <v>18928.7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>2053</v>
-      </c>
-      <c r="B159">
-        <v>165</v>
-      </c>
-      <c r="J159">
-        <v>2053</v>
-      </c>
-      <c r="K159">
-        <v>19030.099999999999</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>2054</v>
-      </c>
-      <c r="B160">
-        <v>170</v>
-      </c>
-      <c r="J160">
-        <v>2054</v>
-      </c>
-      <c r="K160">
-        <v>19127.900000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>2055</v>
-      </c>
-      <c r="B161">
-        <v>175</v>
-      </c>
-      <c r="J161">
-        <v>2055</v>
-      </c>
-      <c r="K161">
-        <v>19222.099999999999</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>2056</v>
-      </c>
-      <c r="B162">
-        <v>180</v>
-      </c>
-      <c r="J162">
-        <v>2056</v>
-      </c>
-      <c r="K162">
-        <v>19312.900000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>2057</v>
-      </c>
-      <c r="B163">
-        <v>185</v>
-      </c>
-      <c r="J163">
-        <v>2057</v>
-      </c>
-      <c r="K163">
-        <v>19400.3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>2058</v>
-      </c>
-      <c r="B164">
-        <v>190</v>
-      </c>
-      <c r="J164">
-        <v>2058</v>
-      </c>
-      <c r="K164">
-        <v>19484.3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>2059</v>
-      </c>
-      <c r="B165">
-        <v>195</v>
-      </c>
-      <c r="J165">
-        <v>2059</v>
-      </c>
-      <c r="K165">
-        <v>19565.099999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>2060</v>
-      </c>
-      <c r="B166">
-        <v>200</v>
-      </c>
-      <c r="J166">
-        <v>2060</v>
-      </c>
-      <c r="K166">
-        <v>19642.599999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>2061</v>
-      </c>
-      <c r="B167">
-        <v>205</v>
-      </c>
-      <c r="J167">
-        <v>2061</v>
-      </c>
-      <c r="K167">
-        <v>19716.8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>2062</v>
-      </c>
-      <c r="B168">
-        <v>210</v>
-      </c>
-      <c r="J168">
-        <v>2062</v>
-      </c>
-      <c r="K168">
-        <v>19787.7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>2063</v>
-      </c>
-      <c r="B169">
-        <v>215</v>
-      </c>
-      <c r="J169">
-        <v>2063</v>
-      </c>
-      <c r="K169">
-        <v>19854.7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>2064</v>
-      </c>
-      <c r="B170">
-        <v>220</v>
-      </c>
-      <c r="J170">
-        <v>2064</v>
-      </c>
-      <c r="K170">
-        <v>19918</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>2065</v>
-      </c>
-      <c r="B171">
-        <v>225</v>
-      </c>
-      <c r="J171">
-        <v>2065</v>
-      </c>
-      <c r="K171">
-        <v>19978.2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>2066</v>
-      </c>
-      <c r="B172">
-        <v>230</v>
-      </c>
-      <c r="J172">
-        <v>2066</v>
-      </c>
-      <c r="K172">
-        <v>20035.3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
-      <c r="A173">
-        <v>2067</v>
-      </c>
-      <c r="B173">
-        <v>235</v>
-      </c>
-      <c r="J173">
-        <v>2067</v>
-      </c>
-      <c r="K173">
-        <v>20089.400000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>2068</v>
-      </c>
-      <c r="B174">
-        <v>240</v>
-      </c>
-      <c r="J174">
-        <v>2068</v>
-      </c>
-      <c r="K174">
-        <v>20140.599999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175">
-        <v>2069</v>
-      </c>
-      <c r="B175">
-        <v>245</v>
-      </c>
-      <c r="J175">
-        <v>2069</v>
-      </c>
-      <c r="K175">
-        <v>20188.900000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>2070</v>
-      </c>
-      <c r="B176">
-        <v>250</v>
-      </c>
-      <c r="J176">
-        <v>2070</v>
-      </c>
-      <c r="K176">
-        <v>20234.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
-      <c r="A177">
-        <v>2071</v>
-      </c>
-      <c r="B177">
-        <v>255</v>
-      </c>
-      <c r="J177">
-        <v>2071</v>
-      </c>
-      <c r="K177">
-        <v>20277.2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>2072</v>
-      </c>
-      <c r="B178">
-        <v>260</v>
-      </c>
-      <c r="J178">
-        <v>2072</v>
-      </c>
-      <c r="K178">
-        <v>20317.2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
-      <c r="A179">
-        <v>2073</v>
-      </c>
-      <c r="B179">
-        <v>265</v>
-      </c>
-      <c r="J179">
-        <v>2073</v>
-      </c>
-      <c r="K179">
-        <v>20354.400000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
-      <c r="A180">
-        <v>2074</v>
-      </c>
-      <c r="B180">
-        <v>270</v>
-      </c>
-      <c r="J180">
-        <v>2074</v>
-      </c>
-      <c r="K180">
-        <v>20389</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
-      <c r="A181">
-        <v>2075</v>
-      </c>
-      <c r="B181">
-        <v>275</v>
-      </c>
-      <c r="J181">
-        <v>2075</v>
-      </c>
-      <c r="K181">
-        <v>20421.099999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
-      <c r="A182">
-        <v>2076</v>
-      </c>
-      <c r="B182">
-        <v>280</v>
-      </c>
-      <c r="J182">
-        <v>2076</v>
-      </c>
-      <c r="K182">
-        <v>20450.7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
-      <c r="A183">
-        <v>2077</v>
-      </c>
-      <c r="B183">
-        <v>285</v>
-      </c>
-      <c r="J183">
-        <v>2077</v>
-      </c>
-      <c r="K183">
-        <v>20477.900000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184">
-        <v>2078</v>
-      </c>
-      <c r="B184">
-        <v>290</v>
-      </c>
-      <c r="J184">
-        <v>2078</v>
-      </c>
-      <c r="K184">
-        <v>20502.7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185">
-        <v>2079</v>
-      </c>
-      <c r="B185">
-        <v>295</v>
-      </c>
-      <c r="J185">
-        <v>2079</v>
-      </c>
-      <c r="K185">
-        <v>20525.2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
-      <c r="A186">
-        <v>2080</v>
-      </c>
-      <c r="B186">
-        <v>300</v>
-      </c>
-      <c r="J186">
-        <v>2080</v>
-      </c>
-      <c r="K186">
-        <v>20545.400000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
-      <c r="A187">
-        <v>2081</v>
-      </c>
-      <c r="B187">
-        <v>305</v>
-      </c>
-      <c r="J187">
-        <v>2081</v>
-      </c>
-      <c r="K187">
-        <v>20564.7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188">
-        <v>2082</v>
-      </c>
-      <c r="B188">
-        <v>310</v>
-      </c>
-      <c r="J188">
-        <v>2082</v>
-      </c>
-      <c r="K188">
-        <v>20584.099999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189">
-        <v>2083</v>
-      </c>
-      <c r="B189">
-        <v>315</v>
-      </c>
-      <c r="J189">
-        <v>2083</v>
-      </c>
-      <c r="K189">
-        <v>20602.099999999999</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
-      <c r="A190">
-        <v>2084</v>
-      </c>
-      <c r="B190">
-        <v>320</v>
-      </c>
-      <c r="J190">
-        <v>2084</v>
-      </c>
-      <c r="K190">
-        <v>20618.2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
-      <c r="A191">
-        <v>2085</v>
-      </c>
-      <c r="B191">
-        <v>325</v>
-      </c>
-      <c r="J191">
-        <v>2085</v>
-      </c>
-      <c r="K191">
-        <v>20632.2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
-      <c r="A192">
-        <v>2086</v>
-      </c>
-      <c r="B192">
-        <v>330</v>
-      </c>
-      <c r="J192">
-        <v>2086</v>
-      </c>
-      <c r="K192">
-        <v>20644.099999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
-      <c r="A193">
-        <v>2087</v>
-      </c>
-      <c r="B193">
-        <v>335</v>
-      </c>
-      <c r="J193">
-        <v>2087</v>
-      </c>
-      <c r="K193">
-        <v>20654</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
-      <c r="A194">
-        <v>2088</v>
-      </c>
-      <c r="B194">
-        <v>340</v>
-      </c>
-      <c r="J194">
-        <v>2088</v>
-      </c>
-      <c r="K194">
-        <v>20661.8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
-      <c r="A195">
-        <v>2089</v>
-      </c>
-      <c r="B195">
-        <v>345</v>
-      </c>
-      <c r="J195">
-        <v>2089</v>
-      </c>
-      <c r="K195">
-        <v>20667.7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
-      <c r="A196">
-        <v>2090</v>
-      </c>
-      <c r="B196">
-        <v>350</v>
-      </c>
-      <c r="J196">
-        <v>2090</v>
-      </c>
-      <c r="K196">
-        <v>20671.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197">
-        <v>2091</v>
-      </c>
-      <c r="B197">
-        <v>355</v>
-      </c>
-      <c r="J197">
-        <v>2091</v>
-      </c>
-      <c r="K197">
-        <v>20673.400000000001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
-      <c r="A198">
-        <v>2092</v>
-      </c>
-      <c r="B198">
-        <v>360</v>
-      </c>
-      <c r="J198">
-        <v>2092</v>
-      </c>
-      <c r="K198">
-        <v>20673.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
-      <c r="A199">
-        <v>2093</v>
-      </c>
-      <c r="B199">
-        <v>365</v>
-      </c>
-      <c r="J199">
-        <v>2093</v>
-      </c>
-      <c r="K199">
-        <v>20671.599999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
-      <c r="A200">
-        <v>2094</v>
-      </c>
-      <c r="B200">
-        <v>370</v>
-      </c>
-      <c r="J200">
-        <v>2094</v>
-      </c>
-      <c r="K200">
-        <v>20668</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
-      <c r="A201">
-        <v>2095</v>
-      </c>
-      <c r="B201">
-        <v>375</v>
-      </c>
-      <c r="J201">
-        <v>2095</v>
-      </c>
-      <c r="K201">
-        <v>20662.7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202">
-        <v>2096</v>
-      </c>
-      <c r="B202">
-        <v>380</v>
-      </c>
-      <c r="J202">
-        <v>2096</v>
-      </c>
-      <c r="K202">
-        <v>20655.599999999999</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203">
-        <v>2097</v>
-      </c>
-      <c r="B203">
-        <v>385</v>
-      </c>
-      <c r="J203">
-        <v>2097</v>
-      </c>
-      <c r="K203">
-        <v>20647</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204">
-        <v>2098</v>
-      </c>
-      <c r="B204">
-        <v>390</v>
-      </c>
-      <c r="J204">
-        <v>2098</v>
-      </c>
-      <c r="K204">
-        <v>20636.7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205">
-        <v>2099</v>
-      </c>
-      <c r="B205">
-        <v>395</v>
-      </c>
-      <c r="J205">
-        <v>2099</v>
-      </c>
-      <c r="K205">
-        <v>20624.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
-      <c r="A206">
-        <v>2100</v>
-      </c>
-      <c r="B206">
-        <v>400</v>
-      </c>
-      <c r="J206">
-        <v>2100</v>
-      </c>
-      <c r="K206">
-        <v>20611.5</v>
       </c>
     </row>
   </sheetData>

--- a/version_oct_2023/TotalPopulationbyAge.xlsx
+++ b/version_oct_2023/TotalPopulationbyAge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3648" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B367F98C-7216-406E-A12A-037E6C00A906}"/>
+  <xr:revisionPtr revIDLastSave="3669" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF98604-CD02-4E48-B224-E427293133A4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11295" tabRatio="759" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2928,7 +2928,7 @@
   <dimension ref="A1:AZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BB15" sqref="BB15"/>
+      <selection activeCell="AL46" sqref="AL46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/version_oct_2023/TotalPopulationbyAge.xlsx
+++ b/version_oct_2023/TotalPopulationbyAge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/vn73vs_plan_aau_dk/Documents/Research Postdoc RU/Felix-Model/version_oct_2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiasahub-my.sharepoint.com/personal/yequanliang_iiasa_ac_at/Documents/research_iiasa/Felix-Model/version_oct_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3669" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEF98604-CD02-4E48-B224-E427293133A4}"/>
+  <xr:revisionPtr revIDLastSave="3770" documentId="13_ncr:1_{FE6EE77C-DE09-4F18-A09F-03FA1D28A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C546F660-7C89-4520-B6A5-A56D86690FA7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -775,7 +775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -1467,7 +1467,7 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1919,10 +1919,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2226,10 +2222,10 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -2927,11 +2923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D42E3-31AE-4069-9DF9-41DA8DBFAF44}">
   <dimension ref="A1:AZ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AL46" sqref="AL46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
@@ -4952,9 +4948,9 @@
       <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:202">
@@ -11654,16 +11650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E59E882-B849-40B5-8A7C-732F77C9EF42}">
   <dimension ref="A1:EV121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="DT92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="EJ117" sqref="EJ117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152">
@@ -12311,6 +12308,114 @@
       <c r="BW2">
         <v>0.17316230199999999</v>
       </c>
+      <c r="BX2">
+        <f>-0.006039*(BX$1-2023)+$BW2</f>
+        <v>0.167123302</v>
+      </c>
+      <c r="BY2">
+        <f t="shared" ref="BY2:CX3" si="0">-0.006039*(BY$1-2023)+$BW2</f>
+        <v>0.16108430199999998</v>
+      </c>
+      <c r="BZ2">
+        <f t="shared" si="0"/>
+        <v>0.155045302</v>
+      </c>
+      <c r="CA2">
+        <f t="shared" si="0"/>
+        <v>0.14900630199999998</v>
+      </c>
+      <c r="CB2">
+        <f t="shared" si="0"/>
+        <v>0.14296730199999999</v>
+      </c>
+      <c r="CC2">
+        <f t="shared" si="0"/>
+        <v>0.136928302</v>
+      </c>
+      <c r="CD2">
+        <f t="shared" si="0"/>
+        <v>0.13088930199999999</v>
+      </c>
+      <c r="CE2">
+        <f t="shared" si="0"/>
+        <v>0.124850302</v>
+      </c>
+      <c r="CF2">
+        <f t="shared" si="0"/>
+        <v>0.11881130199999998</v>
+      </c>
+      <c r="CG2">
+        <f t="shared" si="0"/>
+        <v>0.11277230199999999</v>
+      </c>
+      <c r="CH2">
+        <f t="shared" si="0"/>
+        <v>0.10673330199999999</v>
+      </c>
+      <c r="CI2">
+        <f t="shared" si="0"/>
+        <v>0.10069430199999999</v>
+      </c>
+      <c r="CJ2">
+        <f t="shared" si="0"/>
+        <v>9.4655301999999983E-2</v>
+      </c>
+      <c r="CK2">
+        <f t="shared" si="0"/>
+        <v>8.8616301999999994E-2</v>
+      </c>
+      <c r="CL2">
+        <f t="shared" si="0"/>
+        <v>8.2577301999999991E-2</v>
+      </c>
+      <c r="CM2">
+        <f t="shared" si="0"/>
+        <v>7.6538301999999989E-2</v>
+      </c>
+      <c r="CN2">
+        <f t="shared" si="0"/>
+        <v>7.0499301999999986E-2</v>
+      </c>
+      <c r="CO2">
+        <f t="shared" si="0"/>
+        <v>6.4460301999999983E-2</v>
+      </c>
+      <c r="CP2">
+        <f t="shared" si="0"/>
+        <v>5.8421301999999994E-2</v>
+      </c>
+      <c r="CQ2">
+        <f t="shared" si="0"/>
+        <v>5.2382301999999992E-2</v>
+      </c>
+      <c r="CR2">
+        <f t="shared" si="0"/>
+        <v>4.6343301999999975E-2</v>
+      </c>
+      <c r="CS2">
+        <f t="shared" si="0"/>
+        <v>4.0304301999999986E-2</v>
+      </c>
+      <c r="CT2">
+        <f t="shared" si="0"/>
+        <v>3.4265301999999997E-2</v>
+      </c>
+      <c r="CU2">
+        <f t="shared" si="0"/>
+        <v>2.8226301999999981E-2</v>
+      </c>
+      <c r="CV2">
+        <f t="shared" si="0"/>
+        <v>2.2187301999999992E-2</v>
+      </c>
+      <c r="CW2">
+        <f t="shared" si="0"/>
+        <v>1.6148301999999976E-2</v>
+      </c>
+      <c r="CX2">
+        <f t="shared" si="0"/>
+        <v>1.0109301999999987E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:152">
       <c r="A3" t="s">
@@ -12502,6 +12607,306 @@
       <c r="BW3">
         <v>0.55512824800000005</v>
       </c>
+      <c r="BX3">
+        <f>-0.006039*(BX$1-2023)+$BW3</f>
+        <v>0.54908924800000003</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" si="0"/>
+        <v>0.54305024800000001</v>
+      </c>
+      <c r="BZ3">
+        <f t="shared" si="0"/>
+        <v>0.537011248</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" si="0"/>
+        <v>0.53097224800000009</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" si="0"/>
+        <v>0.52493324800000007</v>
+      </c>
+      <c r="CC3">
+        <f t="shared" si="0"/>
+        <v>0.51889424800000006</v>
+      </c>
+      <c r="CD3">
+        <f t="shared" si="0"/>
+        <v>0.51285524800000004</v>
+      </c>
+      <c r="CE3">
+        <f t="shared" si="0"/>
+        <v>0.50681624800000002</v>
+      </c>
+      <c r="CF3">
+        <f t="shared" si="0"/>
+        <v>0.50077724800000001</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" si="0"/>
+        <v>0.49473824800000005</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" si="0"/>
+        <v>0.48869924800000003</v>
+      </c>
+      <c r="CI3">
+        <f t="shared" si="0"/>
+        <v>0.48266024800000007</v>
+      </c>
+      <c r="CJ3">
+        <f t="shared" si="0"/>
+        <v>0.47662124800000005</v>
+      </c>
+      <c r="CK3">
+        <f t="shared" si="0"/>
+        <v>0.47058224800000004</v>
+      </c>
+      <c r="CL3">
+        <f t="shared" si="0"/>
+        <v>0.46454324800000002</v>
+      </c>
+      <c r="CM3">
+        <f t="shared" si="0"/>
+        <v>0.45850424800000006</v>
+      </c>
+      <c r="CN3">
+        <f t="shared" si="0"/>
+        <v>0.45246524800000004</v>
+      </c>
+      <c r="CO3">
+        <f t="shared" si="0"/>
+        <v>0.44642624800000003</v>
+      </c>
+      <c r="CP3">
+        <f t="shared" si="0"/>
+        <v>0.44038724800000006</v>
+      </c>
+      <c r="CQ3">
+        <f t="shared" si="0"/>
+        <v>0.43434824800000005</v>
+      </c>
+      <c r="CR3">
+        <f t="shared" si="0"/>
+        <v>0.42830924800000003</v>
+      </c>
+      <c r="CS3">
+        <f t="shared" si="0"/>
+        <v>0.42227024800000001</v>
+      </c>
+      <c r="CT3">
+        <f t="shared" si="0"/>
+        <v>0.41623124800000005</v>
+      </c>
+      <c r="CU3">
+        <f t="shared" si="0"/>
+        <v>0.41019224800000004</v>
+      </c>
+      <c r="CV3">
+        <f t="shared" si="0"/>
+        <v>0.40415324800000008</v>
+      </c>
+      <c r="CW3">
+        <f t="shared" si="0"/>
+        <v>0.39811424800000006</v>
+      </c>
+      <c r="CX3">
+        <f t="shared" si="0"/>
+        <v>0.39207524800000004</v>
+      </c>
+      <c r="CY3">
+        <f t="shared" ref="CY3:DL3" si="1">-0.006039*(CY$1-2023)+$BW3</f>
+        <v>0.38603624800000003</v>
+      </c>
+      <c r="CZ3">
+        <f t="shared" si="1"/>
+        <v>0.37999724800000001</v>
+      </c>
+      <c r="DA3">
+        <f t="shared" si="1"/>
+        <v>0.37395824800000005</v>
+      </c>
+      <c r="DB3">
+        <f t="shared" si="1"/>
+        <v>0.36791924800000003</v>
+      </c>
+      <c r="DC3">
+        <f t="shared" si="1"/>
+        <v>0.36188024800000007</v>
+      </c>
+      <c r="DD3">
+        <f t="shared" si="1"/>
+        <v>0.35584124800000005</v>
+      </c>
+      <c r="DE3">
+        <f t="shared" si="1"/>
+        <v>0.34980224800000004</v>
+      </c>
+      <c r="DF3">
+        <f t="shared" si="1"/>
+        <v>0.34376324800000002</v>
+      </c>
+      <c r="DG3">
+        <f t="shared" si="1"/>
+        <v>0.337724248</v>
+      </c>
+      <c r="DH3">
+        <f t="shared" si="1"/>
+        <v>0.33168524800000004</v>
+      </c>
+      <c r="DI3">
+        <f t="shared" si="1"/>
+        <v>0.32564624800000008</v>
+      </c>
+      <c r="DJ3">
+        <f t="shared" si="1"/>
+        <v>0.31960724800000007</v>
+      </c>
+      <c r="DK3">
+        <f t="shared" si="1"/>
+        <v>0.31356824800000005</v>
+      </c>
+      <c r="DL3">
+        <f t="shared" si="1"/>
+        <v>0.30752924800000003</v>
+      </c>
+      <c r="DM3">
+        <f>-0.006039*(DM$1-2023)+$BW3</f>
+        <v>0.30149024800000002</v>
+      </c>
+      <c r="DN3">
+        <f t="shared" ref="DN3:EV3" si="2">-0.006039*(DN$1-2023)+$BW3</f>
+        <v>0.29545124800000006</v>
+      </c>
+      <c r="DO3">
+        <f t="shared" si="2"/>
+        <v>0.28941224800000004</v>
+      </c>
+      <c r="DP3">
+        <f t="shared" si="2"/>
+        <v>0.28337324800000002</v>
+      </c>
+      <c r="DQ3">
+        <f t="shared" si="2"/>
+        <v>0.27733424800000006</v>
+      </c>
+      <c r="DR3">
+        <f t="shared" si="2"/>
+        <v>0.27129524800000004</v>
+      </c>
+      <c r="DS3">
+        <f t="shared" si="2"/>
+        <v>0.26525624800000003</v>
+      </c>
+      <c r="DT3">
+        <f t="shared" si="2"/>
+        <v>0.25921724800000007</v>
+      </c>
+      <c r="DU3">
+        <f t="shared" si="2"/>
+        <v>0.25317824800000005</v>
+      </c>
+      <c r="DV3">
+        <f t="shared" si="2"/>
+        <v>0.24713924800000003</v>
+      </c>
+      <c r="DW3">
+        <f t="shared" si="2"/>
+        <v>0.24110024800000002</v>
+      </c>
+      <c r="DX3">
+        <f t="shared" si="2"/>
+        <v>0.23506124800000006</v>
+      </c>
+      <c r="DY3">
+        <f t="shared" si="2"/>
+        <v>0.22902224800000004</v>
+      </c>
+      <c r="DZ3">
+        <f t="shared" si="2"/>
+        <v>0.22298324800000002</v>
+      </c>
+      <c r="EA3">
+        <f t="shared" si="2"/>
+        <v>0.21694424800000006</v>
+      </c>
+      <c r="EB3">
+        <f t="shared" si="2"/>
+        <v>0.21090524800000005</v>
+      </c>
+      <c r="EC3">
+        <f t="shared" si="2"/>
+        <v>0.20486624800000003</v>
+      </c>
+      <c r="ED3">
+        <f t="shared" si="2"/>
+        <v>0.19882724800000007</v>
+      </c>
+      <c r="EE3">
+        <f t="shared" si="2"/>
+        <v>0.19278824800000005</v>
+      </c>
+      <c r="EF3">
+        <f t="shared" si="2"/>
+        <v>0.18674924800000003</v>
+      </c>
+      <c r="EG3">
+        <f t="shared" si="2"/>
+        <v>0.18071024800000002</v>
+      </c>
+      <c r="EH3">
+        <f t="shared" si="2"/>
+        <v>0.17467124800000006</v>
+      </c>
+      <c r="EI3">
+        <f t="shared" si="2"/>
+        <v>0.16863224800000004</v>
+      </c>
+      <c r="EJ3">
+        <f t="shared" si="2"/>
+        <v>0.16259324800000002</v>
+      </c>
+      <c r="EK3">
+        <f t="shared" si="2"/>
+        <v>0.15655424800000006</v>
+      </c>
+      <c r="EL3">
+        <f t="shared" si="2"/>
+        <v>0.15051524800000005</v>
+      </c>
+      <c r="EM3">
+        <f t="shared" si="2"/>
+        <v>0.14447624800000003</v>
+      </c>
+      <c r="EN3">
+        <f t="shared" si="2"/>
+        <v>0.13843724800000001</v>
+      </c>
+      <c r="EO3">
+        <f t="shared" si="2"/>
+        <v>0.13239824800000005</v>
+      </c>
+      <c r="EP3">
+        <f t="shared" si="2"/>
+        <v>0.12635924800000004</v>
+      </c>
+      <c r="EQ3">
+        <f t="shared" si="2"/>
+        <v>0.12032024800000002</v>
+      </c>
+      <c r="ER3">
+        <f t="shared" si="2"/>
+        <v>0.11428124800000006</v>
+      </c>
+      <c r="ES3">
+        <f t="shared" si="2"/>
+        <v>0.10824224800000004</v>
+      </c>
+      <c r="ET3">
+        <f t="shared" si="2"/>
+        <v>0.10220324800000002</v>
+      </c>
     </row>
     <row r="4" spans="1:152">
       <c r="A4" t="s">
@@ -14155,6 +14560,34 @@
       <c r="BW12">
         <v>0.14236933800000001</v>
       </c>
+      <c r="BX12">
+        <f>-0.005743*(BX$1-2023)+$BW12</f>
+        <v>0.13662633800000001</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" ref="BY12:CN13" si="3">-0.005743*(BY$1-2023)+$BW12</f>
+        <v>0.13088333800000002</v>
+      </c>
+      <c r="BZ12">
+        <f t="shared" si="3"/>
+        <v>0.12514033800000002</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="3"/>
+        <v>0.11939733800000002</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" si="3"/>
+        <v>0.11365433800000002</v>
+      </c>
+      <c r="CC12">
+        <f t="shared" si="3"/>
+        <v>0.10791133800000001</v>
+      </c>
+      <c r="CD12">
+        <f t="shared" si="3"/>
+        <v>0.10216833800000001</v>
+      </c>
     </row>
     <row r="13" spans="1:152">
       <c r="A13" t="s">
@@ -14346,6 +14779,250 @@
       <c r="BW13">
         <v>0.45253311899999998</v>
       </c>
+      <c r="BX13">
+        <f>-0.005743*(BX$1-2023)+$BW13</f>
+        <v>0.44679011899999999</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="3"/>
+        <v>0.44104711899999999</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="3"/>
+        <v>0.43530411899999999</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="3"/>
+        <v>0.42956111899999999</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="3"/>
+        <v>0.42381811899999999</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="3"/>
+        <v>0.418075119</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="3"/>
+        <v>0.412332119</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" ref="CE12:CW13" si="4">-0.005743*(CE$1-2023)+$BW13</f>
+        <v>0.406589119</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="4"/>
+        <v>0.400846119</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="4"/>
+        <v>0.395103119</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="4"/>
+        <v>0.389360119</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="4"/>
+        <v>0.38361711899999995</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="3"/>
+        <v>0.37787411900000001</v>
+      </c>
+      <c r="CK13">
+        <f t="shared" si="4"/>
+        <v>0.37213111899999995</v>
+      </c>
+      <c r="CL13">
+        <f t="shared" si="4"/>
+        <v>0.36638811900000001</v>
+      </c>
+      <c r="CM13">
+        <f t="shared" si="4"/>
+        <v>0.36064511899999996</v>
+      </c>
+      <c r="CN13">
+        <f t="shared" si="4"/>
+        <v>0.35490211900000002</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="4"/>
+        <v>0.34915911899999996</v>
+      </c>
+      <c r="CP13">
+        <f t="shared" si="4"/>
+        <v>0.34341611900000002</v>
+      </c>
+      <c r="CQ13">
+        <f t="shared" si="4"/>
+        <v>0.33767311899999997</v>
+      </c>
+      <c r="CR13">
+        <f t="shared" si="4"/>
+        <v>0.33193011899999997</v>
+      </c>
+      <c r="CS13">
+        <f t="shared" si="4"/>
+        <v>0.32618711899999997</v>
+      </c>
+      <c r="CT13">
+        <f t="shared" si="4"/>
+        <v>0.32044411900000003</v>
+      </c>
+      <c r="CU13">
+        <f t="shared" si="4"/>
+        <v>0.31470111899999997</v>
+      </c>
+      <c r="CV13">
+        <f t="shared" si="4"/>
+        <v>0.30895811899999998</v>
+      </c>
+      <c r="CW13">
+        <f t="shared" si="4"/>
+        <v>0.30321511899999998</v>
+      </c>
+      <c r="CX13">
+        <f t="shared" ref="CX13:EV13" si="5">-0.005743*(CX$1-2023)+$BW13</f>
+        <v>0.29747211899999998</v>
+      </c>
+      <c r="CY13">
+        <f t="shared" si="5"/>
+        <v>0.29172911899999998</v>
+      </c>
+      <c r="CZ13">
+        <f t="shared" si="5"/>
+        <v>0.28598611899999998</v>
+      </c>
+      <c r="DA13">
+        <f t="shared" si="5"/>
+        <v>0.28024311899999998</v>
+      </c>
+      <c r="DB13">
+        <f t="shared" si="5"/>
+        <v>0.27450011899999999</v>
+      </c>
+      <c r="DC13">
+        <f t="shared" si="5"/>
+        <v>0.26875711899999999</v>
+      </c>
+      <c r="DD13">
+        <f t="shared" si="5"/>
+        <v>0.26301411899999999</v>
+      </c>
+      <c r="DE13">
+        <f t="shared" si="5"/>
+        <v>0.25727111899999999</v>
+      </c>
+      <c r="DF13">
+        <f t="shared" si="5"/>
+        <v>0.25152811899999999</v>
+      </c>
+      <c r="DG13">
+        <f t="shared" si="5"/>
+        <v>0.245785119</v>
+      </c>
+      <c r="DH13">
+        <f t="shared" si="5"/>
+        <v>0.240042119</v>
+      </c>
+      <c r="DI13">
+        <f t="shared" si="5"/>
+        <v>0.234299119</v>
+      </c>
+      <c r="DJ13">
+        <f t="shared" si="5"/>
+        <v>0.228556119</v>
+      </c>
+      <c r="DK13">
+        <f t="shared" si="5"/>
+        <v>0.222813119</v>
+      </c>
+      <c r="DL13">
+        <f t="shared" si="5"/>
+        <v>0.21707011899999998</v>
+      </c>
+      <c r="DM13">
+        <f t="shared" si="5"/>
+        <v>0.21132711899999998</v>
+      </c>
+      <c r="DN13">
+        <f t="shared" si="5"/>
+        <v>0.20558411899999998</v>
+      </c>
+      <c r="DO13">
+        <f t="shared" si="5"/>
+        <v>0.19984111900000001</v>
+      </c>
+      <c r="DP13">
+        <f t="shared" si="5"/>
+        <v>0.19409811900000001</v>
+      </c>
+      <c r="DQ13">
+        <f t="shared" si="5"/>
+        <v>0.18835511900000002</v>
+      </c>
+      <c r="DR13">
+        <f t="shared" si="5"/>
+        <v>0.18261211900000002</v>
+      </c>
+      <c r="DS13">
+        <f t="shared" si="5"/>
+        <v>0.17686911899999996</v>
+      </c>
+      <c r="DT13">
+        <f t="shared" si="5"/>
+        <v>0.17112611899999997</v>
+      </c>
+      <c r="DU13">
+        <f t="shared" si="5"/>
+        <v>0.16538311899999997</v>
+      </c>
+      <c r="DV13">
+        <f t="shared" si="5"/>
+        <v>0.15964011899999997</v>
+      </c>
+      <c r="DW13">
+        <f t="shared" si="5"/>
+        <v>0.15389711899999997</v>
+      </c>
+      <c r="DX13">
+        <f t="shared" si="5"/>
+        <v>0.14815411899999997</v>
+      </c>
+      <c r="DY13">
+        <f t="shared" si="5"/>
+        <v>0.14241111899999997</v>
+      </c>
+      <c r="DZ13">
+        <f t="shared" si="5"/>
+        <v>0.13666811899999998</v>
+      </c>
+      <c r="EA13">
+        <f t="shared" si="5"/>
+        <v>0.13092511899999998</v>
+      </c>
+      <c r="EB13">
+        <f t="shared" si="5"/>
+        <v>0.12518211899999998</v>
+      </c>
+      <c r="EC13">
+        <f t="shared" si="5"/>
+        <v>0.11943911899999998</v>
+      </c>
+      <c r="ED13">
+        <f t="shared" si="5"/>
+        <v>0.11369611899999998</v>
+      </c>
+      <c r="EE13">
+        <f t="shared" si="5"/>
+        <v>0.10795311899999999</v>
+      </c>
+      <c r="EF13">
+        <f t="shared" si="5"/>
+        <v>0.10221011899999999</v>
+      </c>
     </row>
     <row r="14" spans="1:152">
       <c r="A14" t="s">
@@ -14899,7 +15576,7 @@
         <v>0.68293651300000002</v>
       </c>
     </row>
-    <row r="17" spans="1:75">
+    <row r="17" spans="1:152">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -15063,7 +15740,7 @@
         <v>0.67000332600000001</v>
       </c>
     </row>
-    <row r="18" spans="1:75">
+    <row r="18" spans="1:152">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -15242,7 +15919,7 @@
         <v>0.63546794500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:75">
+    <row r="19" spans="1:152">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -15430,7 +16107,7 @@
         <v>0.59442627800000003</v>
       </c>
     </row>
-    <row r="20" spans="1:75">
+    <row r="20" spans="1:152">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -15620,8 +16297,156 @@
       <c r="BW20">
         <v>0.479985259</v>
       </c>
+      <c r="BX20">
+        <f>0.003743*(BX$1-2023)+$BW20</f>
+        <v>0.48372825899999999</v>
+      </c>
+      <c r="BY20">
+        <f t="shared" ref="BY20:CY21" si="6">0.003743*(BY$1-2023)+$BW20</f>
+        <v>0.48747125899999999</v>
+      </c>
+      <c r="BZ20">
+        <f t="shared" si="6"/>
+        <v>0.49121425899999999</v>
+      </c>
+      <c r="CA20">
+        <f t="shared" si="6"/>
+        <v>0.49495725899999998</v>
+      </c>
+      <c r="CB20">
+        <f t="shared" si="6"/>
+        <v>0.49870025899999998</v>
+      </c>
+      <c r="CC20">
+        <f t="shared" si="6"/>
+        <v>0.50244325899999998</v>
+      </c>
+      <c r="CD20">
+        <f t="shared" si="6"/>
+        <v>0.50618625900000003</v>
+      </c>
+      <c r="CE20">
+        <f t="shared" si="6"/>
+        <v>0.50992925899999997</v>
+      </c>
+      <c r="CF20">
+        <f t="shared" si="6"/>
+        <v>0.51367225900000002</v>
+      </c>
+      <c r="CG20">
+        <f t="shared" si="6"/>
+        <v>0.51741525899999996</v>
+      </c>
+      <c r="CH20">
+        <f t="shared" si="6"/>
+        <v>0.52115825900000001</v>
+      </c>
+      <c r="CI20">
+        <f t="shared" si="6"/>
+        <v>0.52490125899999995</v>
+      </c>
+      <c r="CJ20">
+        <f t="shared" si="6"/>
+        <v>0.52864425900000001</v>
+      </c>
+      <c r="CK20">
+        <f t="shared" si="6"/>
+        <v>0.53238725899999995</v>
+      </c>
+      <c r="CL20">
+        <f t="shared" si="6"/>
+        <v>0.536130259</v>
+      </c>
+      <c r="CM20">
+        <f t="shared" si="6"/>
+        <v>0.53987325899999994</v>
+      </c>
+      <c r="CN20">
+        <f t="shared" si="6"/>
+        <v>0.54361625899999999</v>
+      </c>
+      <c r="CO20">
+        <f t="shared" si="6"/>
+        <v>0.54735925900000004</v>
+      </c>
+      <c r="CP20">
+        <f t="shared" si="6"/>
+        <v>0.55110225899999998</v>
+      </c>
+      <c r="CQ20">
+        <f t="shared" si="6"/>
+        <v>0.55484525900000004</v>
+      </c>
+      <c r="CR20">
+        <f t="shared" si="6"/>
+        <v>0.55858825899999998</v>
+      </c>
+      <c r="CS20">
+        <f t="shared" si="6"/>
+        <v>0.56233125900000003</v>
+      </c>
+      <c r="CT20">
+        <f t="shared" si="6"/>
+        <v>0.56607425899999997</v>
+      </c>
+      <c r="CU20">
+        <f t="shared" si="6"/>
+        <v>0.56981725900000002</v>
+      </c>
+      <c r="CV20">
+        <f t="shared" si="6"/>
+        <v>0.57356025899999996</v>
+      </c>
+      <c r="CW20">
+        <f t="shared" si="6"/>
+        <v>0.57730325900000001</v>
+      </c>
+      <c r="CX20">
+        <f>0.003743*(CX$1-2023)+$BW20</f>
+        <v>0.58104625899999995</v>
+      </c>
+      <c r="CY20">
+        <f t="shared" si="6"/>
+        <v>0.58478925900000001</v>
+      </c>
+      <c r="CZ20">
+        <f t="shared" ref="CY20:DG21" si="7">0.003743*(CZ$1-2023)+$BW20</f>
+        <v>0.58853225899999995</v>
+      </c>
+      <c r="DA20">
+        <f t="shared" si="7"/>
+        <v>0.592275259</v>
+      </c>
+      <c r="DB20">
+        <f t="shared" si="7"/>
+        <v>0.59601825900000005</v>
+      </c>
+      <c r="DC20">
+        <f t="shared" si="7"/>
+        <v>0.59976125899999999</v>
+      </c>
+      <c r="DD20">
+        <f t="shared" si="7"/>
+        <v>0.60350425899999993</v>
+      </c>
+      <c r="DE20">
+        <f t="shared" si="7"/>
+        <v>0.60724725899999998</v>
+      </c>
+      <c r="DF20">
+        <f t="shared" si="7"/>
+        <v>0.61099025900000004</v>
+      </c>
+      <c r="DG20">
+        <f t="shared" si="7"/>
+        <v>0.61473325899999998</v>
+      </c>
+      <c r="DH20">
+        <f>0.003743*(DH$1-2023)+$BW20</f>
+        <v>0.61847625900000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:75">
+    <row r="21" spans="1:152">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -15808,8 +16633,316 @@
       <c r="BW21">
         <v>0.27986301800000002</v>
       </c>
+      <c r="BX21">
+        <f>0.003743*(BX$1-2023)+$BW21</f>
+        <v>0.28360601800000002</v>
+      </c>
+      <c r="BY21">
+        <f t="shared" si="6"/>
+        <v>0.28734901800000001</v>
+      </c>
+      <c r="BZ21">
+        <f t="shared" si="6"/>
+        <v>0.29109201800000001</v>
+      </c>
+      <c r="CA21">
+        <f t="shared" si="6"/>
+        <v>0.294835018</v>
+      </c>
+      <c r="CB21">
+        <f t="shared" si="6"/>
+        <v>0.298578018</v>
+      </c>
+      <c r="CC21">
+        <f t="shared" si="6"/>
+        <v>0.302321018</v>
+      </c>
+      <c r="CD21">
+        <f t="shared" si="6"/>
+        <v>0.30606401799999999</v>
+      </c>
+      <c r="CE21">
+        <f t="shared" si="6"/>
+        <v>0.30980701799999999</v>
+      </c>
+      <c r="CF21">
+        <f t="shared" si="6"/>
+        <v>0.31355001800000004</v>
+      </c>
+      <c r="CG21">
+        <f t="shared" si="6"/>
+        <v>0.31729301800000004</v>
+      </c>
+      <c r="CH21">
+        <f t="shared" si="6"/>
+        <v>0.32103601800000003</v>
+      </c>
+      <c r="CI21">
+        <f t="shared" si="6"/>
+        <v>0.32477901800000003</v>
+      </c>
+      <c r="CJ21">
+        <f t="shared" si="6"/>
+        <v>0.32852201800000003</v>
+      </c>
+      <c r="CK21">
+        <f t="shared" si="6"/>
+        <v>0.33226501800000002</v>
+      </c>
+      <c r="CL21">
+        <f t="shared" si="6"/>
+        <v>0.33600801800000002</v>
+      </c>
+      <c r="CM21">
+        <f t="shared" si="6"/>
+        <v>0.33975101800000002</v>
+      </c>
+      <c r="CN21">
+        <f t="shared" si="6"/>
+        <v>0.34349401800000001</v>
+      </c>
+      <c r="CO21">
+        <f t="shared" si="6"/>
+        <v>0.34723701800000001</v>
+      </c>
+      <c r="CP21">
+        <f t="shared" si="6"/>
+        <v>0.350980018</v>
+      </c>
+      <c r="CQ21">
+        <f t="shared" si="6"/>
+        <v>0.354723018</v>
+      </c>
+      <c r="CR21">
+        <f t="shared" si="6"/>
+        <v>0.358466018</v>
+      </c>
+      <c r="CS21">
+        <f t="shared" si="6"/>
+        <v>0.36220901800000005</v>
+      </c>
+      <c r="CT21">
+        <f t="shared" si="6"/>
+        <v>0.36595201799999999</v>
+      </c>
+      <c r="CU21">
+        <f t="shared" si="6"/>
+        <v>0.36969501800000004</v>
+      </c>
+      <c r="CV21">
+        <f t="shared" si="6"/>
+        <v>0.37343801799999998</v>
+      </c>
+      <c r="CW21">
+        <f t="shared" si="6"/>
+        <v>0.37718101800000003</v>
+      </c>
+      <c r="CX21">
+        <f>0.003743*(CX$1-2023)+$BW21</f>
+        <v>0.38092401800000003</v>
+      </c>
+      <c r="CY21">
+        <f t="shared" si="7"/>
+        <v>0.38466701800000003</v>
+      </c>
+      <c r="CZ21">
+        <f t="shared" si="7"/>
+        <v>0.38841001800000002</v>
+      </c>
+      <c r="DA21">
+        <f t="shared" si="7"/>
+        <v>0.39215301800000002</v>
+      </c>
+      <c r="DB21">
+        <f t="shared" si="7"/>
+        <v>0.39589601800000002</v>
+      </c>
+      <c r="DC21">
+        <f t="shared" si="7"/>
+        <v>0.39963901800000001</v>
+      </c>
+      <c r="DD21">
+        <f t="shared" si="7"/>
+        <v>0.40338201800000001</v>
+      </c>
+      <c r="DE21">
+        <f t="shared" si="7"/>
+        <v>0.40712501800000001</v>
+      </c>
+      <c r="DF21">
+        <f t="shared" si="7"/>
+        <v>0.410868018</v>
+      </c>
+      <c r="DG21">
+        <f t="shared" si="7"/>
+        <v>0.414611018</v>
+      </c>
+      <c r="DH21">
+        <f>0.003743*(DH$1-2023)+$BW21</f>
+        <v>0.41835401800000005</v>
+      </c>
+      <c r="DI21">
+        <f t="shared" ref="DI20:DX21" si="8">0.003743*(DI$1-2023)+$BW21</f>
+        <v>0.42209701799999999</v>
+      </c>
+      <c r="DJ21">
+        <f t="shared" si="8"/>
+        <v>0.42584001800000004</v>
+      </c>
+      <c r="DK21">
+        <f t="shared" si="8"/>
+        <v>0.42958301799999998</v>
+      </c>
+      <c r="DL21">
+        <f t="shared" si="8"/>
+        <v>0.43332601800000004</v>
+      </c>
+      <c r="DM21">
+        <f t="shared" si="8"/>
+        <v>0.43706901799999998</v>
+      </c>
+      <c r="DN21">
+        <f t="shared" si="8"/>
+        <v>0.44081201800000003</v>
+      </c>
+      <c r="DO21">
+        <f t="shared" si="8"/>
+        <v>0.44455501800000002</v>
+      </c>
+      <c r="DP21">
+        <f t="shared" si="8"/>
+        <v>0.44829801800000002</v>
+      </c>
+      <c r="DQ21">
+        <f t="shared" si="8"/>
+        <v>0.45204101800000002</v>
+      </c>
+      <c r="DR21">
+        <f t="shared" si="8"/>
+        <v>0.45578401800000001</v>
+      </c>
+      <c r="DS21">
+        <f t="shared" si="8"/>
+        <v>0.45952701800000001</v>
+      </c>
+      <c r="DT21">
+        <f t="shared" si="8"/>
+        <v>0.46327001800000001</v>
+      </c>
+      <c r="DU21">
+        <f t="shared" si="8"/>
+        <v>0.467013018</v>
+      </c>
+      <c r="DV21">
+        <f t="shared" si="8"/>
+        <v>0.470756018</v>
+      </c>
+      <c r="DW21">
+        <f t="shared" si="8"/>
+        <v>0.47449901799999999</v>
+      </c>
+      <c r="DX21">
+        <f t="shared" si="8"/>
+        <v>0.47824201799999999</v>
+      </c>
+      <c r="DY21">
+        <f t="shared" ref="DY21:EW21" si="9">0.003743*(DY$1-2023)+$BW21</f>
+        <v>0.48198501800000004</v>
+      </c>
+      <c r="DZ21">
+        <f t="shared" si="9"/>
+        <v>0.48572801799999998</v>
+      </c>
+      <c r="EA21">
+        <f t="shared" si="9"/>
+        <v>0.48947101800000004</v>
+      </c>
+      <c r="EB21">
+        <f t="shared" si="9"/>
+        <v>0.49321401799999998</v>
+      </c>
+      <c r="EC21">
+        <f t="shared" si="9"/>
+        <v>0.49695701800000003</v>
+      </c>
+      <c r="ED21">
+        <f t="shared" si="9"/>
+        <v>0.50070001799999997</v>
+      </c>
+      <c r="EE21">
+        <f t="shared" si="9"/>
+        <v>0.50444301800000002</v>
+      </c>
+      <c r="EF21">
+        <f t="shared" si="9"/>
+        <v>0.50818601799999996</v>
+      </c>
+      <c r="EG21">
+        <f t="shared" si="9"/>
+        <v>0.51192901800000001</v>
+      </c>
+      <c r="EH21">
+        <f t="shared" si="9"/>
+        <v>0.51567201800000007</v>
+      </c>
+      <c r="EI21">
+        <f t="shared" si="9"/>
+        <v>0.51941501800000001</v>
+      </c>
+      <c r="EJ21">
+        <f t="shared" si="9"/>
+        <v>0.52315801799999995</v>
+      </c>
+      <c r="EK21">
+        <f t="shared" si="9"/>
+        <v>0.526901018</v>
+      </c>
+      <c r="EL21">
+        <f t="shared" si="9"/>
+        <v>0.53064401800000005</v>
+      </c>
+      <c r="EM21">
+        <f t="shared" si="9"/>
+        <v>0.53438701799999999</v>
+      </c>
+      <c r="EN21">
+        <f t="shared" si="9"/>
+        <v>0.53813001799999993</v>
+      </c>
+      <c r="EO21">
+        <f t="shared" si="9"/>
+        <v>0.54187301799999998</v>
+      </c>
+      <c r="EP21">
+        <f t="shared" si="9"/>
+        <v>0.54561601800000004</v>
+      </c>
+      <c r="EQ21">
+        <f t="shared" si="9"/>
+        <v>0.54935901799999998</v>
+      </c>
+      <c r="ER21">
+        <f t="shared" si="9"/>
+        <v>0.55310201800000003</v>
+      </c>
+      <c r="ES21">
+        <f t="shared" si="9"/>
+        <v>0.55684501799999997</v>
+      </c>
+      <c r="ET21">
+        <f t="shared" si="9"/>
+        <v>0.56058801800000002</v>
+      </c>
+      <c r="EU21">
+        <f t="shared" si="9"/>
+        <v>0.56433101800000007</v>
+      </c>
+      <c r="EV21">
+        <f t="shared" si="9"/>
+        <v>0.56807401800000001</v>
+      </c>
     </row>
-    <row r="22" spans="1:75">
+    <row r="22" spans="1:152">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -16008,8 +17141,92 @@
       <c r="BW22">
         <v>0.23035313299999999</v>
       </c>
+      <c r="BX22">
+        <f>-0.006039*(BX$1-2023)+$BW22</f>
+        <v>0.224314133</v>
+      </c>
+      <c r="BY22">
+        <f t="shared" ref="BY22:EJ23" si="10">-0.006039*(BY$1-2023)+$BW22</f>
+        <v>0.21827513299999998</v>
+      </c>
+      <c r="BZ22">
+        <f t="shared" si="10"/>
+        <v>0.21223613299999999</v>
+      </c>
+      <c r="CA22">
+        <f t="shared" si="10"/>
+        <v>0.20619713299999998</v>
+      </c>
+      <c r="CB22">
+        <f t="shared" si="10"/>
+        <v>0.20015813299999999</v>
+      </c>
+      <c r="CC22">
+        <f t="shared" si="10"/>
+        <v>0.194119133</v>
+      </c>
+      <c r="CD22">
+        <f t="shared" si="10"/>
+        <v>0.18808013299999998</v>
+      </c>
+      <c r="CE22">
+        <f t="shared" si="10"/>
+        <v>0.18204113299999999</v>
+      </c>
+      <c r="CF22">
+        <f t="shared" si="10"/>
+        <v>0.17600213299999998</v>
+      </c>
+      <c r="CG22">
+        <f t="shared" si="10"/>
+        <v>0.16996313299999999</v>
+      </c>
+      <c r="CH22">
+        <f t="shared" si="10"/>
+        <v>0.16392413299999997</v>
+      </c>
+      <c r="CI22">
+        <f t="shared" si="10"/>
+        <v>0.15788513299999998</v>
+      </c>
+      <c r="CJ22">
+        <f t="shared" si="10"/>
+        <v>0.15184613299999999</v>
+      </c>
+      <c r="CK22">
+        <f t="shared" si="10"/>
+        <v>0.14580713299999998</v>
+      </c>
+      <c r="CL22">
+        <f t="shared" si="10"/>
+        <v>0.13976813299999999</v>
+      </c>
+      <c r="CM22">
+        <f t="shared" si="10"/>
+        <v>0.133729133</v>
+      </c>
+      <c r="CN22">
+        <f t="shared" si="10"/>
+        <v>0.12769013299999998</v>
+      </c>
+      <c r="CO22">
+        <f t="shared" si="10"/>
+        <v>0.12165113299999998</v>
+      </c>
+      <c r="CP22">
+        <f t="shared" si="10"/>
+        <v>0.11561213299999999</v>
+      </c>
+      <c r="CQ22">
+        <f t="shared" si="10"/>
+        <v>0.10957313299999999</v>
+      </c>
+      <c r="CR22">
+        <f t="shared" si="10"/>
+        <v>0.10353413299999997</v>
+      </c>
     </row>
-    <row r="23" spans="1:75">
+    <row r="23" spans="1:152">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -16211,8 +17428,316 @@
       <c r="BW23">
         <v>0.70914756700000003</v>
       </c>
+      <c r="BX23">
+        <f>-0.006039*(BX$1-2023)+$BW23</f>
+        <v>0.70310856700000002</v>
+      </c>
+      <c r="BY23">
+        <f t="shared" si="10"/>
+        <v>0.697069567</v>
+      </c>
+      <c r="BZ23">
+        <f t="shared" si="10"/>
+        <v>0.69103056699999998</v>
+      </c>
+      <c r="CA23">
+        <f t="shared" si="10"/>
+        <v>0.68499156700000008</v>
+      </c>
+      <c r="CB23">
+        <f t="shared" si="10"/>
+        <v>0.67895256700000006</v>
+      </c>
+      <c r="CC23">
+        <f t="shared" si="10"/>
+        <v>0.67291356700000005</v>
+      </c>
+      <c r="CD23">
+        <f t="shared" si="10"/>
+        <v>0.66687456700000003</v>
+      </c>
+      <c r="CE23">
+        <f t="shared" si="10"/>
+        <v>0.66083556700000001</v>
+      </c>
+      <c r="CF23">
+        <f t="shared" si="10"/>
+        <v>0.654796567</v>
+      </c>
+      <c r="CG23">
+        <f t="shared" si="10"/>
+        <v>0.64875756700000009</v>
+      </c>
+      <c r="CH23">
+        <f t="shared" si="10"/>
+        <v>0.64271856700000007</v>
+      </c>
+      <c r="CI23">
+        <f t="shared" si="10"/>
+        <v>0.63667956700000006</v>
+      </c>
+      <c r="CJ23">
+        <f t="shared" si="10"/>
+        <v>0.63064056700000004</v>
+      </c>
+      <c r="CK23">
+        <f t="shared" si="10"/>
+        <v>0.62460156700000002</v>
+      </c>
+      <c r="CL23">
+        <f t="shared" si="10"/>
+        <v>0.61856256700000001</v>
+      </c>
+      <c r="CM23">
+        <f t="shared" si="10"/>
+        <v>0.61252356699999999</v>
+      </c>
+      <c r="CN23">
+        <f t="shared" si="10"/>
+        <v>0.60648456700000009</v>
+      </c>
+      <c r="CO23">
+        <f t="shared" si="10"/>
+        <v>0.60044556700000007</v>
+      </c>
+      <c r="CP23">
+        <f t="shared" si="10"/>
+        <v>0.59440656700000005</v>
+      </c>
+      <c r="CQ23">
+        <f t="shared" si="10"/>
+        <v>0.58836756700000004</v>
+      </c>
+      <c r="CR23">
+        <f t="shared" si="10"/>
+        <v>0.58232856700000002</v>
+      </c>
+      <c r="CS23">
+        <f t="shared" si="10"/>
+        <v>0.576289567</v>
+      </c>
+      <c r="CT23">
+        <f t="shared" si="10"/>
+        <v>0.57025056699999999</v>
+      </c>
+      <c r="CU23">
+        <f t="shared" si="10"/>
+        <v>0.56421156700000008</v>
+      </c>
+      <c r="CV23">
+        <f t="shared" si="10"/>
+        <v>0.55817256700000006</v>
+      </c>
+      <c r="CW23">
+        <f t="shared" si="10"/>
+        <v>0.55213356700000005</v>
+      </c>
+      <c r="CX23">
+        <f t="shared" si="10"/>
+        <v>0.54609456700000003</v>
+      </c>
+      <c r="CY23">
+        <f t="shared" si="10"/>
+        <v>0.54005556700000001</v>
+      </c>
+      <c r="CZ23">
+        <f t="shared" si="10"/>
+        <v>0.534016567</v>
+      </c>
+      <c r="DA23">
+        <f t="shared" si="10"/>
+        <v>0.52797756699999998</v>
+      </c>
+      <c r="DB23">
+        <f t="shared" si="10"/>
+        <v>0.52193856700000008</v>
+      </c>
+      <c r="DC23">
+        <f t="shared" si="10"/>
+        <v>0.51589956700000006</v>
+      </c>
+      <c r="DD23">
+        <f t="shared" si="10"/>
+        <v>0.50986056700000004</v>
+      </c>
+      <c r="DE23">
+        <f t="shared" si="10"/>
+        <v>0.50382156700000003</v>
+      </c>
+      <c r="DF23">
+        <f t="shared" si="10"/>
+        <v>0.49778256700000001</v>
+      </c>
+      <c r="DG23">
+        <f t="shared" si="10"/>
+        <v>0.49174356699999999</v>
+      </c>
+      <c r="DH23">
+        <f t="shared" si="10"/>
+        <v>0.48570456700000003</v>
+      </c>
+      <c r="DI23">
+        <f t="shared" si="10"/>
+        <v>0.47966556700000007</v>
+      </c>
+      <c r="DJ23">
+        <f t="shared" si="10"/>
+        <v>0.47362656700000005</v>
+      </c>
+      <c r="DK23">
+        <f t="shared" si="10"/>
+        <v>0.46758756700000004</v>
+      </c>
+      <c r="DL23">
+        <f t="shared" si="10"/>
+        <v>0.46154856700000002</v>
+      </c>
+      <c r="DM23">
+        <f t="shared" si="10"/>
+        <v>0.455509567</v>
+      </c>
+      <c r="DN23">
+        <f t="shared" si="10"/>
+        <v>0.44947056700000004</v>
+      </c>
+      <c r="DO23">
+        <f t="shared" si="10"/>
+        <v>0.44343156700000003</v>
+      </c>
+      <c r="DP23">
+        <f t="shared" si="10"/>
+        <v>0.43739256700000001</v>
+      </c>
+      <c r="DQ23">
+        <f t="shared" si="10"/>
+        <v>0.43135356700000005</v>
+      </c>
+      <c r="DR23">
+        <f t="shared" si="10"/>
+        <v>0.42531456700000003</v>
+      </c>
+      <c r="DS23">
+        <f t="shared" si="10"/>
+        <v>0.41927556700000002</v>
+      </c>
+      <c r="DT23">
+        <f t="shared" si="10"/>
+        <v>0.41323656700000005</v>
+      </c>
+      <c r="DU23">
+        <f t="shared" si="10"/>
+        <v>0.40719756700000004</v>
+      </c>
+      <c r="DV23">
+        <f t="shared" si="10"/>
+        <v>0.40115856700000002</v>
+      </c>
+      <c r="DW23">
+        <f t="shared" si="10"/>
+        <v>0.395119567</v>
+      </c>
+      <c r="DX23">
+        <f t="shared" si="10"/>
+        <v>0.38908056700000004</v>
+      </c>
+      <c r="DY23">
+        <f t="shared" si="10"/>
+        <v>0.38304156700000003</v>
+      </c>
+      <c r="DZ23">
+        <f t="shared" si="10"/>
+        <v>0.37700256700000001</v>
+      </c>
+      <c r="EA23">
+        <f t="shared" si="10"/>
+        <v>0.37096356700000005</v>
+      </c>
+      <c r="EB23">
+        <f t="shared" si="10"/>
+        <v>0.36492456700000003</v>
+      </c>
+      <c r="EC23">
+        <f t="shared" si="10"/>
+        <v>0.35888556700000002</v>
+      </c>
+      <c r="ED23">
+        <f t="shared" si="10"/>
+        <v>0.35284656700000006</v>
+      </c>
+      <c r="EE23">
+        <f t="shared" si="10"/>
+        <v>0.34680756700000004</v>
+      </c>
+      <c r="EF23">
+        <f t="shared" si="10"/>
+        <v>0.34076856700000002</v>
+      </c>
+      <c r="EG23">
+        <f t="shared" si="10"/>
+        <v>0.33472956700000001</v>
+      </c>
+      <c r="EH23">
+        <f t="shared" si="10"/>
+        <v>0.32869056700000004</v>
+      </c>
+      <c r="EI23">
+        <f t="shared" si="10"/>
+        <v>0.32265156700000003</v>
+      </c>
+      <c r="EJ23">
+        <f t="shared" si="10"/>
+        <v>0.31661256700000001</v>
+      </c>
+      <c r="EK23">
+        <f t="shared" ref="EK22:EV23" si="11">-0.006039*(EK$1-2023)+$BW23</f>
+        <v>0.31057356700000005</v>
+      </c>
+      <c r="EL23">
+        <f t="shared" si="11"/>
+        <v>0.30453456700000003</v>
+      </c>
+      <c r="EM23">
+        <f t="shared" si="11"/>
+        <v>0.29849556700000002</v>
+      </c>
+      <c r="EN23">
+        <f t="shared" si="11"/>
+        <v>0.292456567</v>
+      </c>
+      <c r="EO23">
+        <f t="shared" si="11"/>
+        <v>0.28641756700000004</v>
+      </c>
+      <c r="EP23">
+        <f t="shared" si="11"/>
+        <v>0.28037856700000002</v>
+      </c>
+      <c r="EQ23">
+        <f t="shared" si="11"/>
+        <v>0.27433956700000001</v>
+      </c>
+      <c r="ER23">
+        <f t="shared" si="11"/>
+        <v>0.26830056700000005</v>
+      </c>
+      <c r="ES23">
+        <f t="shared" si="11"/>
+        <v>0.26226156700000003</v>
+      </c>
+      <c r="ET23">
+        <f t="shared" si="11"/>
+        <v>0.25622256700000001</v>
+      </c>
+      <c r="EU23">
+        <f t="shared" si="11"/>
+        <v>0.25018356700000005</v>
+      </c>
+      <c r="EV23">
+        <f t="shared" si="11"/>
+        <v>0.24414456700000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:75">
+    <row r="24" spans="1:152">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -16415,7 +17940,7 @@
         <v>0.94411805100000001</v>
       </c>
     </row>
-    <row r="25" spans="1:75">
+    <row r="25" spans="1:152">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -16618,7 +18143,7 @@
         <v>0.96953953199999998</v>
       </c>
     </row>
-    <row r="26" spans="1:75">
+    <row r="26" spans="1:152">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -16806,7 +18331,7 @@
         <v>0.97843196799999999</v>
       </c>
     </row>
-    <row r="27" spans="1:75">
+    <row r="27" spans="1:152">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -16994,7 +18519,7 @@
         <v>0.96816624299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:75">
+    <row r="28" spans="1:152">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -17182,7 +18707,7 @@
         <v>0.96248204100000001</v>
       </c>
     </row>
-    <row r="29" spans="1:75">
+    <row r="29" spans="1:152">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -17385,7 +18910,7 @@
         <v>0.93852939700000004</v>
       </c>
     </row>
-    <row r="30" spans="1:75">
+    <row r="30" spans="1:152">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -17588,7 +19113,7 @@
         <v>0.895318214</v>
       </c>
     </row>
-    <row r="31" spans="1:75">
+    <row r="31" spans="1:152">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -17791,7 +19316,7 @@
         <v>0.70565132900000005</v>
       </c>
     </row>
-    <row r="32" spans="1:75">
+    <row r="32" spans="1:152">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -17994,7 +19519,7 @@
         <v>9.6919142E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:75">
+    <row r="33" spans="1:152">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -18196,8 +19721,148 @@
       <c r="BW33">
         <v>0.30275746399999998</v>
       </c>
+      <c r="BX33">
+        <f>-0.005743*(BX$1-2023)+$BW33</f>
+        <v>0.29701446399999998</v>
+      </c>
+      <c r="BY33">
+        <f t="shared" ref="BY32:EJ33" si="12">-0.005743*(BY$1-2023)+$BW33</f>
+        <v>0.29127146399999998</v>
+      </c>
+      <c r="BZ33">
+        <f t="shared" si="12"/>
+        <v>0.28552846399999998</v>
+      </c>
+      <c r="CA33">
+        <f t="shared" si="12"/>
+        <v>0.27978546399999998</v>
+      </c>
+      <c r="CB33">
+        <f t="shared" si="12"/>
+        <v>0.27404246399999999</v>
+      </c>
+      <c r="CC33">
+        <f t="shared" si="12"/>
+        <v>0.26829946399999999</v>
+      </c>
+      <c r="CD33">
+        <f t="shared" si="12"/>
+        <v>0.26255646399999999</v>
+      </c>
+      <c r="CE33">
+        <f t="shared" si="12"/>
+        <v>0.25681346399999999</v>
+      </c>
+      <c r="CF33">
+        <f t="shared" si="12"/>
+        <v>0.25107046399999999</v>
+      </c>
+      <c r="CG33">
+        <f t="shared" si="12"/>
+        <v>0.245327464</v>
+      </c>
+      <c r="CH33">
+        <f t="shared" si="12"/>
+        <v>0.239584464</v>
+      </c>
+      <c r="CI33">
+        <f t="shared" si="12"/>
+        <v>0.23384146399999997</v>
+      </c>
+      <c r="CJ33">
+        <f t="shared" si="12"/>
+        <v>0.22809846399999997</v>
+      </c>
+      <c r="CK33">
+        <f t="shared" si="12"/>
+        <v>0.22235546399999997</v>
+      </c>
+      <c r="CL33">
+        <f t="shared" si="12"/>
+        <v>0.21661246399999998</v>
+      </c>
+      <c r="CM33">
+        <f t="shared" si="12"/>
+        <v>0.21086946399999998</v>
+      </c>
+      <c r="CN33">
+        <f t="shared" si="12"/>
+        <v>0.20512646399999998</v>
+      </c>
+      <c r="CO33">
+        <f t="shared" si="12"/>
+        <v>0.19938346399999998</v>
+      </c>
+      <c r="CP33">
+        <f t="shared" si="12"/>
+        <v>0.19364046399999998</v>
+      </c>
+      <c r="CQ33">
+        <f t="shared" si="12"/>
+        <v>0.18789746399999999</v>
+      </c>
+      <c r="CR33">
+        <f t="shared" si="12"/>
+        <v>0.18215446399999996</v>
+      </c>
+      <c r="CS33">
+        <f t="shared" si="12"/>
+        <v>0.17641146399999999</v>
+      </c>
+      <c r="CT33">
+        <f t="shared" si="12"/>
+        <v>0.17066846399999999</v>
+      </c>
+      <c r="CU33">
+        <f t="shared" si="12"/>
+        <v>0.16492546399999997</v>
+      </c>
+      <c r="CV33">
+        <f t="shared" si="12"/>
+        <v>0.15918246399999997</v>
+      </c>
+      <c r="CW33">
+        <f t="shared" si="12"/>
+        <v>0.15343946399999997</v>
+      </c>
+      <c r="CX33">
+        <f t="shared" si="12"/>
+        <v>0.14769646399999997</v>
+      </c>
+      <c r="CY33">
+        <f t="shared" si="12"/>
+        <v>0.14195346399999997</v>
+      </c>
+      <c r="CZ33">
+        <f t="shared" si="12"/>
+        <v>0.13621046399999998</v>
+      </c>
+      <c r="DA33">
+        <f t="shared" si="12"/>
+        <v>0.13046746399999998</v>
+      </c>
+      <c r="DB33">
+        <f t="shared" si="12"/>
+        <v>0.12472446399999998</v>
+      </c>
+      <c r="DC33">
+        <f t="shared" si="12"/>
+        <v>0.11898146399999998</v>
+      </c>
+      <c r="DD33">
+        <f t="shared" si="12"/>
+        <v>0.11323846399999998</v>
+      </c>
+      <c r="DE33">
+        <f t="shared" si="12"/>
+        <v>0.10749546399999999</v>
+      </c>
+      <c r="DF33">
+        <f t="shared" si="12"/>
+        <v>0.10175246399999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:75">
+    <row r="34" spans="1:152">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -18400,7 +20065,7 @@
         <v>0.38511538699999998</v>
       </c>
     </row>
-    <row r="35" spans="1:75">
+    <row r="35" spans="1:152">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -18603,7 +20268,7 @@
         <v>0.447886917</v>
       </c>
     </row>
-    <row r="36" spans="1:75">
+    <row r="36" spans="1:152">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -18791,7 +20456,7 @@
         <v>0.529352182</v>
       </c>
     </row>
-    <row r="37" spans="1:75">
+    <row r="37" spans="1:152">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -18979,7 +20644,7 @@
         <v>0.55609125800000003</v>
       </c>
     </row>
-    <row r="38" spans="1:75">
+    <row r="38" spans="1:152">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -19167,7 +20832,7 @@
         <v>0.55328527100000002</v>
       </c>
     </row>
-    <row r="39" spans="1:75">
+    <row r="39" spans="1:152">
       <c r="A39" t="s">
         <v>144</v>
       </c>
@@ -19370,7 +21035,7 @@
         <v>0.52356035400000001</v>
       </c>
     </row>
-    <row r="40" spans="1:75">
+    <row r="40" spans="1:152">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -19572,8 +21237,184 @@
       <c r="BW40">
         <v>0.45492975099999999</v>
       </c>
+      <c r="BX40">
+        <f>0.003743*(BX$1-2023)+$BW40</f>
+        <v>0.45867275099999999</v>
+      </c>
+      <c r="BY40">
+        <f t="shared" ref="BY40:EJ41" si="13">0.003743*(BY$1-2023)+$BW40</f>
+        <v>0.46241575099999999</v>
+      </c>
+      <c r="BZ40">
+        <f t="shared" si="13"/>
+        <v>0.46615875099999998</v>
+      </c>
+      <c r="CA40">
+        <f t="shared" si="13"/>
+        <v>0.46990175099999998</v>
+      </c>
+      <c r="CB40">
+        <f t="shared" si="13"/>
+        <v>0.47364475099999997</v>
+      </c>
+      <c r="CC40">
+        <f t="shared" si="13"/>
+        <v>0.47738775099999997</v>
+      </c>
+      <c r="CD40">
+        <f t="shared" si="13"/>
+        <v>0.48113075099999997</v>
+      </c>
+      <c r="CE40">
+        <f t="shared" si="13"/>
+        <v>0.48487375099999996</v>
+      </c>
+      <c r="CF40">
+        <f t="shared" si="13"/>
+        <v>0.48861675100000002</v>
+      </c>
+      <c r="CG40">
+        <f t="shared" si="13"/>
+        <v>0.49235975100000001</v>
+      </c>
+      <c r="CH40">
+        <f t="shared" si="13"/>
+        <v>0.49610275100000001</v>
+      </c>
+      <c r="CI40">
+        <f t="shared" si="13"/>
+        <v>0.499845751</v>
+      </c>
+      <c r="CJ40">
+        <f t="shared" si="13"/>
+        <v>0.503588751</v>
+      </c>
+      <c r="CK40">
+        <f t="shared" si="13"/>
+        <v>0.50733175099999994</v>
+      </c>
+      <c r="CL40">
+        <f t="shared" si="13"/>
+        <v>0.51107475099999999</v>
+      </c>
+      <c r="CM40">
+        <f t="shared" si="13"/>
+        <v>0.51481775100000005</v>
+      </c>
+      <c r="CN40">
+        <f t="shared" si="13"/>
+        <v>0.51856075099999999</v>
+      </c>
+      <c r="CO40">
+        <f t="shared" si="13"/>
+        <v>0.52230375099999993</v>
+      </c>
+      <c r="CP40">
+        <f t="shared" si="13"/>
+        <v>0.52604675099999998</v>
+      </c>
+      <c r="CQ40">
+        <f t="shared" si="13"/>
+        <v>0.52978975100000003</v>
+      </c>
+      <c r="CR40">
+        <f t="shared" si="13"/>
+        <v>0.53353275099999997</v>
+      </c>
+      <c r="CS40">
+        <f t="shared" si="13"/>
+        <v>0.53727575100000002</v>
+      </c>
+      <c r="CT40">
+        <f t="shared" si="13"/>
+        <v>0.54101875099999996</v>
+      </c>
+      <c r="CU40">
+        <f t="shared" si="13"/>
+        <v>0.54476175100000002</v>
+      </c>
+      <c r="CV40">
+        <f t="shared" si="13"/>
+        <v>0.54850475099999996</v>
+      </c>
+      <c r="CW40">
+        <f t="shared" si="13"/>
+        <v>0.55224775100000001</v>
+      </c>
+      <c r="CX40">
+        <f t="shared" si="13"/>
+        <v>0.55599075099999995</v>
+      </c>
+      <c r="CY40">
+        <f t="shared" si="13"/>
+        <v>0.559733751</v>
+      </c>
+      <c r="CZ40">
+        <f t="shared" si="13"/>
+        <v>0.56347675099999994</v>
+      </c>
+      <c r="DA40">
+        <f t="shared" si="13"/>
+        <v>0.56721975099999999</v>
+      </c>
+      <c r="DB40">
+        <f t="shared" si="13"/>
+        <v>0.57096275099999994</v>
+      </c>
+      <c r="DC40">
+        <f t="shared" si="13"/>
+        <v>0.57470575099999999</v>
+      </c>
+      <c r="DD40">
+        <f t="shared" si="13"/>
+        <v>0.57844875100000004</v>
+      </c>
+      <c r="DE40">
+        <f t="shared" si="13"/>
+        <v>0.58219175099999998</v>
+      </c>
+      <c r="DF40">
+        <f t="shared" si="13"/>
+        <v>0.58593475099999992</v>
+      </c>
+      <c r="DG40">
+        <f t="shared" si="13"/>
+        <v>0.58967775099999997</v>
+      </c>
+      <c r="DH40">
+        <f t="shared" si="13"/>
+        <v>0.59342075100000002</v>
+      </c>
+      <c r="DI40">
+        <f t="shared" si="13"/>
+        <v>0.59716375099999996</v>
+      </c>
+      <c r="DJ40">
+        <f t="shared" si="13"/>
+        <v>0.60090675100000002</v>
+      </c>
+      <c r="DK40">
+        <f t="shared" si="13"/>
+        <v>0.60464975099999996</v>
+      </c>
+      <c r="DL40">
+        <f t="shared" si="13"/>
+        <v>0.60839275100000001</v>
+      </c>
+      <c r="DM40">
+        <f t="shared" si="13"/>
+        <v>0.61213575099999995</v>
+      </c>
+      <c r="DN40">
+        <f t="shared" si="13"/>
+        <v>0.615878751</v>
+      </c>
+      <c r="DO40">
+        <f t="shared" si="13"/>
+        <v>0.61962175099999994</v>
+      </c>
     </row>
-    <row r="41" spans="1:75">
+    <row r="41" spans="1:152">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -19775,8 +21616,316 @@
       <c r="BW41">
         <v>0.323919823</v>
       </c>
+      <c r="BX41">
+        <f>0.003743*(BX$1-2023)+$BW41</f>
+        <v>0.32766282299999999</v>
+      </c>
+      <c r="BY41">
+        <f t="shared" si="13"/>
+        <v>0.33140582299999999</v>
+      </c>
+      <c r="BZ41">
+        <f t="shared" si="13"/>
+        <v>0.33514882299999998</v>
+      </c>
+      <c r="CA41">
+        <f t="shared" si="13"/>
+        <v>0.33889182299999998</v>
+      </c>
+      <c r="CB41">
+        <f t="shared" si="13"/>
+        <v>0.34263482299999998</v>
+      </c>
+      <c r="CC41">
+        <f t="shared" si="13"/>
+        <v>0.34637782299999997</v>
+      </c>
+      <c r="CD41">
+        <f t="shared" si="13"/>
+        <v>0.35012082299999997</v>
+      </c>
+      <c r="CE41">
+        <f t="shared" si="13"/>
+        <v>0.35386382299999997</v>
+      </c>
+      <c r="CF41">
+        <f t="shared" si="13"/>
+        <v>0.35760682300000002</v>
+      </c>
+      <c r="CG41">
+        <f t="shared" si="13"/>
+        <v>0.36134982300000001</v>
+      </c>
+      <c r="CH41">
+        <f t="shared" si="13"/>
+        <v>0.36509282300000001</v>
+      </c>
+      <c r="CI41">
+        <f t="shared" si="13"/>
+        <v>0.36883582300000001</v>
+      </c>
+      <c r="CJ41">
+        <f t="shared" si="13"/>
+        <v>0.372578823</v>
+      </c>
+      <c r="CK41">
+        <f t="shared" si="13"/>
+        <v>0.376321823</v>
+      </c>
+      <c r="CL41">
+        <f t="shared" si="13"/>
+        <v>0.380064823</v>
+      </c>
+      <c r="CM41">
+        <f t="shared" si="13"/>
+        <v>0.38380782299999999</v>
+      </c>
+      <c r="CN41">
+        <f t="shared" si="13"/>
+        <v>0.38755082299999999</v>
+      </c>
+      <c r="CO41">
+        <f t="shared" si="13"/>
+        <v>0.39129382299999999</v>
+      </c>
+      <c r="CP41">
+        <f t="shared" si="13"/>
+        <v>0.39503682299999998</v>
+      </c>
+      <c r="CQ41">
+        <f t="shared" si="13"/>
+        <v>0.39877982299999998</v>
+      </c>
+      <c r="CR41">
+        <f t="shared" si="13"/>
+        <v>0.40252282299999997</v>
+      </c>
+      <c r="CS41">
+        <f t="shared" si="13"/>
+        <v>0.40626582300000003</v>
+      </c>
+      <c r="CT41">
+        <f t="shared" si="13"/>
+        <v>0.41000882299999997</v>
+      </c>
+      <c r="CU41">
+        <f t="shared" si="13"/>
+        <v>0.41375182300000002</v>
+      </c>
+      <c r="CV41">
+        <f t="shared" si="13"/>
+        <v>0.41749482299999996</v>
+      </c>
+      <c r="CW41">
+        <f t="shared" si="13"/>
+        <v>0.42123782300000001</v>
+      </c>
+      <c r="CX41">
+        <f t="shared" si="13"/>
+        <v>0.42498082300000001</v>
+      </c>
+      <c r="CY41">
+        <f t="shared" si="13"/>
+        <v>0.428723823</v>
+      </c>
+      <c r="CZ41">
+        <f t="shared" si="13"/>
+        <v>0.432466823</v>
+      </c>
+      <c r="DA41">
+        <f t="shared" si="13"/>
+        <v>0.436209823</v>
+      </c>
+      <c r="DB41">
+        <f t="shared" si="13"/>
+        <v>0.43995282299999999</v>
+      </c>
+      <c r="DC41">
+        <f t="shared" si="13"/>
+        <v>0.44369582299999999</v>
+      </c>
+      <c r="DD41">
+        <f t="shared" si="13"/>
+        <v>0.44743882299999999</v>
+      </c>
+      <c r="DE41">
+        <f t="shared" si="13"/>
+        <v>0.45118182299999998</v>
+      </c>
+      <c r="DF41">
+        <f t="shared" si="13"/>
+        <v>0.45492482299999998</v>
+      </c>
+      <c r="DG41">
+        <f t="shared" si="13"/>
+        <v>0.45866782299999997</v>
+      </c>
+      <c r="DH41">
+        <f t="shared" si="13"/>
+        <v>0.46241082300000003</v>
+      </c>
+      <c r="DI41">
+        <f t="shared" si="13"/>
+        <v>0.46615382299999997</v>
+      </c>
+      <c r="DJ41">
+        <f t="shared" si="13"/>
+        <v>0.46989682300000002</v>
+      </c>
+      <c r="DK41">
+        <f t="shared" si="13"/>
+        <v>0.47363982299999996</v>
+      </c>
+      <c r="DL41">
+        <f t="shared" si="13"/>
+        <v>0.47738282300000001</v>
+      </c>
+      <c r="DM41">
+        <f t="shared" si="13"/>
+        <v>0.48112582299999995</v>
+      </c>
+      <c r="DN41">
+        <f t="shared" si="13"/>
+        <v>0.484868823</v>
+      </c>
+      <c r="DO41">
+        <f t="shared" si="13"/>
+        <v>0.488611823</v>
+      </c>
+      <c r="DP41">
+        <f t="shared" si="13"/>
+        <v>0.492354823</v>
+      </c>
+      <c r="DQ41">
+        <f t="shared" si="13"/>
+        <v>0.49609782299999999</v>
+      </c>
+      <c r="DR41">
+        <f t="shared" si="13"/>
+        <v>0.49984082299999999</v>
+      </c>
+      <c r="DS41">
+        <f t="shared" si="13"/>
+        <v>0.50358382300000004</v>
+      </c>
+      <c r="DT41">
+        <f t="shared" si="13"/>
+        <v>0.50732682299999998</v>
+      </c>
+      <c r="DU41">
+        <f t="shared" si="13"/>
+        <v>0.51106982299999992</v>
+      </c>
+      <c r="DV41">
+        <f t="shared" si="13"/>
+        <v>0.51481282299999997</v>
+      </c>
+      <c r="DW41">
+        <f t="shared" si="13"/>
+        <v>0.51855582300000003</v>
+      </c>
+      <c r="DX41">
+        <f t="shared" si="13"/>
+        <v>0.52229882299999997</v>
+      </c>
+      <c r="DY41">
+        <f t="shared" si="13"/>
+        <v>0.52604182300000002</v>
+      </c>
+      <c r="DZ41">
+        <f t="shared" si="13"/>
+        <v>0.52978482299999996</v>
+      </c>
+      <c r="EA41">
+        <f t="shared" si="13"/>
+        <v>0.53352782300000001</v>
+      </c>
+      <c r="EB41">
+        <f t="shared" si="13"/>
+        <v>0.53727082299999995</v>
+      </c>
+      <c r="EC41">
+        <f t="shared" si="13"/>
+        <v>0.541013823</v>
+      </c>
+      <c r="ED41">
+        <f t="shared" si="13"/>
+        <v>0.54475682299999995</v>
+      </c>
+      <c r="EE41">
+        <f t="shared" si="13"/>
+        <v>0.548499823</v>
+      </c>
+      <c r="EF41">
+        <f t="shared" si="13"/>
+        <v>0.55224282300000005</v>
+      </c>
+      <c r="EG41">
+        <f t="shared" si="13"/>
+        <v>0.55598582299999999</v>
+      </c>
+      <c r="EH41">
+        <f t="shared" si="13"/>
+        <v>0.55972882299999993</v>
+      </c>
+      <c r="EI41">
+        <f t="shared" si="13"/>
+        <v>0.56347182299999998</v>
+      </c>
+      <c r="EJ41">
+        <f t="shared" si="13"/>
+        <v>0.56721482300000003</v>
+      </c>
+      <c r="EK41">
+        <f t="shared" ref="EK40:EV41" si="14">0.003743*(EK$1-2023)+$BW41</f>
+        <v>0.57095782299999998</v>
+      </c>
+      <c r="EL41">
+        <f t="shared" si="14"/>
+        <v>0.57470082299999992</v>
+      </c>
+      <c r="EM41">
+        <f t="shared" si="14"/>
+        <v>0.57844382299999997</v>
+      </c>
+      <c r="EN41">
+        <f t="shared" si="14"/>
+        <v>0.58218682300000002</v>
+      </c>
+      <c r="EO41">
+        <f t="shared" si="14"/>
+        <v>0.58592982299999996</v>
+      </c>
+      <c r="EP41">
+        <f t="shared" si="14"/>
+        <v>0.5896728229999999</v>
+      </c>
+      <c r="EQ41">
+        <f t="shared" si="14"/>
+        <v>0.59341582299999995</v>
+      </c>
+      <c r="ER41">
+        <f t="shared" si="14"/>
+        <v>0.59715882300000001</v>
+      </c>
+      <c r="ES41">
+        <f t="shared" si="14"/>
+        <v>0.60090182300000006</v>
+      </c>
+      <c r="ET41">
+        <f t="shared" si="14"/>
+        <v>0.604644823</v>
+      </c>
+      <c r="EU41">
+        <f t="shared" si="14"/>
+        <v>0.60838782299999994</v>
+      </c>
+      <c r="EV41">
+        <f t="shared" si="14"/>
+        <v>0.61213082299999999</v>
+      </c>
     </row>
-    <row r="42" spans="1:75">
+    <row r="42" spans="1:152">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -19922,7 +22071,7 @@
         <v>9.2379305999999994E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:75">
+    <row r="43" spans="1:152">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -20067,8 +22216,316 @@
       <c r="BW43">
         <v>0.59406279699999998</v>
       </c>
+      <c r="BX43">
+        <f>-0.006039*(BX$1-2023)+$BW43</f>
+        <v>0.58802379699999996</v>
+      </c>
+      <c r="BY43">
+        <f t="shared" ref="BY42:EJ43" si="15">-0.006039*(BY$1-2023)+$BW43</f>
+        <v>0.58198479699999994</v>
+      </c>
+      <c r="BZ43">
+        <f t="shared" si="15"/>
+        <v>0.57594579699999993</v>
+      </c>
+      <c r="CA43">
+        <f t="shared" si="15"/>
+        <v>0.56990679700000002</v>
+      </c>
+      <c r="CB43">
+        <f t="shared" si="15"/>
+        <v>0.563867797</v>
+      </c>
+      <c r="CC43">
+        <f t="shared" si="15"/>
+        <v>0.55782879699999999</v>
+      </c>
+      <c r="CD43">
+        <f t="shared" si="15"/>
+        <v>0.55178979699999997</v>
+      </c>
+      <c r="CE43">
+        <f t="shared" si="15"/>
+        <v>0.54575079699999995</v>
+      </c>
+      <c r="CF43">
+        <f t="shared" si="15"/>
+        <v>0.53971179699999994</v>
+      </c>
+      <c r="CG43">
+        <f t="shared" si="15"/>
+        <v>0.53367279699999992</v>
+      </c>
+      <c r="CH43">
+        <f t="shared" si="15"/>
+        <v>0.52763379700000002</v>
+      </c>
+      <c r="CI43">
+        <f t="shared" si="15"/>
+        <v>0.521594797</v>
+      </c>
+      <c r="CJ43">
+        <f t="shared" si="15"/>
+        <v>0.51555579699999998</v>
+      </c>
+      <c r="CK43">
+        <f t="shared" si="15"/>
+        <v>0.50951679699999997</v>
+      </c>
+      <c r="CL43">
+        <f t="shared" si="15"/>
+        <v>0.50347779699999995</v>
+      </c>
+      <c r="CM43">
+        <f t="shared" si="15"/>
+        <v>0.49743879699999999</v>
+      </c>
+      <c r="CN43">
+        <f t="shared" si="15"/>
+        <v>0.49139979699999997</v>
+      </c>
+      <c r="CO43">
+        <f t="shared" si="15"/>
+        <v>0.48536079699999995</v>
+      </c>
+      <c r="CP43">
+        <f t="shared" si="15"/>
+        <v>0.47932179699999999</v>
+      </c>
+      <c r="CQ43">
+        <f t="shared" si="15"/>
+        <v>0.47328279699999998</v>
+      </c>
+      <c r="CR43">
+        <f t="shared" si="15"/>
+        <v>0.46724379699999996</v>
+      </c>
+      <c r="CS43">
+        <f t="shared" si="15"/>
+        <v>0.46120479699999994</v>
+      </c>
+      <c r="CT43">
+        <f t="shared" si="15"/>
+        <v>0.45516579699999998</v>
+      </c>
+      <c r="CU43">
+        <f t="shared" si="15"/>
+        <v>0.44912679699999997</v>
+      </c>
+      <c r="CV43">
+        <f t="shared" si="15"/>
+        <v>0.44308779700000001</v>
+      </c>
+      <c r="CW43">
+        <f t="shared" si="15"/>
+        <v>0.43704879699999999</v>
+      </c>
+      <c r="CX43">
+        <f t="shared" si="15"/>
+        <v>0.43100979699999997</v>
+      </c>
+      <c r="CY43">
+        <f t="shared" si="15"/>
+        <v>0.42497079699999996</v>
+      </c>
+      <c r="CZ43">
+        <f t="shared" si="15"/>
+        <v>0.41893179699999994</v>
+      </c>
+      <c r="DA43">
+        <f t="shared" si="15"/>
+        <v>0.41289279699999998</v>
+      </c>
+      <c r="DB43">
+        <f t="shared" si="15"/>
+        <v>0.40685379699999996</v>
+      </c>
+      <c r="DC43">
+        <f t="shared" si="15"/>
+        <v>0.400814797</v>
+      </c>
+      <c r="DD43">
+        <f t="shared" si="15"/>
+        <v>0.39477579699999998</v>
+      </c>
+      <c r="DE43">
+        <f t="shared" si="15"/>
+        <v>0.38873679699999997</v>
+      </c>
+      <c r="DF43">
+        <f t="shared" si="15"/>
+        <v>0.38269779699999995</v>
+      </c>
+      <c r="DG43">
+        <f t="shared" si="15"/>
+        <v>0.37665879699999993</v>
+      </c>
+      <c r="DH43">
+        <f t="shared" si="15"/>
+        <v>0.37061979699999997</v>
+      </c>
+      <c r="DI43">
+        <f t="shared" si="15"/>
+        <v>0.36458079700000001</v>
+      </c>
+      <c r="DJ43">
+        <f t="shared" si="15"/>
+        <v>0.358541797</v>
+      </c>
+      <c r="DK43">
+        <f t="shared" si="15"/>
+        <v>0.35250279699999998</v>
+      </c>
+      <c r="DL43">
+        <f t="shared" si="15"/>
+        <v>0.34646379699999996</v>
+      </c>
+      <c r="DM43">
+        <f t="shared" si="15"/>
+        <v>0.34042479699999995</v>
+      </c>
+      <c r="DN43">
+        <f t="shared" si="15"/>
+        <v>0.33438579699999998</v>
+      </c>
+      <c r="DO43">
+        <f t="shared" si="15"/>
+        <v>0.32834679699999997</v>
+      </c>
+      <c r="DP43">
+        <f t="shared" si="15"/>
+        <v>0.32230779699999995</v>
+      </c>
+      <c r="DQ43">
+        <f t="shared" si="15"/>
+        <v>0.31626879699999999</v>
+      </c>
+      <c r="DR43">
+        <f t="shared" si="15"/>
+        <v>0.31022979699999997</v>
+      </c>
+      <c r="DS43">
+        <f t="shared" si="15"/>
+        <v>0.30419079699999996</v>
+      </c>
+      <c r="DT43">
+        <f t="shared" si="15"/>
+        <v>0.298151797</v>
+      </c>
+      <c r="DU43">
+        <f t="shared" si="15"/>
+        <v>0.29211279699999998</v>
+      </c>
+      <c r="DV43">
+        <f t="shared" si="15"/>
+        <v>0.28607379699999996</v>
+      </c>
+      <c r="DW43">
+        <f t="shared" si="15"/>
+        <v>0.28003479699999995</v>
+      </c>
+      <c r="DX43">
+        <f t="shared" si="15"/>
+        <v>0.27399579699999999</v>
+      </c>
+      <c r="DY43">
+        <f t="shared" si="15"/>
+        <v>0.26795679699999997</v>
+      </c>
+      <c r="DZ43">
+        <f t="shared" si="15"/>
+        <v>0.26191779699999995</v>
+      </c>
+      <c r="EA43">
+        <f t="shared" si="15"/>
+        <v>0.25587879699999999</v>
+      </c>
+      <c r="EB43">
+        <f t="shared" si="15"/>
+        <v>0.24983979699999997</v>
+      </c>
+      <c r="EC43">
+        <f t="shared" si="15"/>
+        <v>0.24380079699999996</v>
+      </c>
+      <c r="ED43">
+        <f t="shared" si="15"/>
+        <v>0.237761797</v>
+      </c>
+      <c r="EE43">
+        <f t="shared" si="15"/>
+        <v>0.23172279699999998</v>
+      </c>
+      <c r="EF43">
+        <f t="shared" si="15"/>
+        <v>0.22568379699999996</v>
+      </c>
+      <c r="EG43">
+        <f t="shared" si="15"/>
+        <v>0.21964479699999995</v>
+      </c>
+      <c r="EH43">
+        <f t="shared" si="15"/>
+        <v>0.21360579699999999</v>
+      </c>
+      <c r="EI43">
+        <f t="shared" si="15"/>
+        <v>0.20756679699999997</v>
+      </c>
+      <c r="EJ43">
+        <f t="shared" si="15"/>
+        <v>0.20152779699999995</v>
+      </c>
+      <c r="EK43">
+        <f t="shared" ref="EK42:EV43" si="16">-0.006039*(EK$1-2023)+$BW43</f>
+        <v>0.19548879699999999</v>
+      </c>
+      <c r="EL43">
+        <f t="shared" si="16"/>
+        <v>0.18944979699999998</v>
+      </c>
+      <c r="EM43">
+        <f t="shared" si="16"/>
+        <v>0.18341079699999996</v>
+      </c>
+      <c r="EN43">
+        <f t="shared" si="16"/>
+        <v>0.17737179699999994</v>
+      </c>
+      <c r="EO43">
+        <f t="shared" si="16"/>
+        <v>0.17133279699999998</v>
+      </c>
+      <c r="EP43">
+        <f t="shared" si="16"/>
+        <v>0.16529379699999996</v>
+      </c>
+      <c r="EQ43">
+        <f t="shared" si="16"/>
+        <v>0.15925479699999995</v>
+      </c>
+      <c r="ER43">
+        <f t="shared" si="16"/>
+        <v>0.15321579699999999</v>
+      </c>
+      <c r="ES43">
+        <f t="shared" si="16"/>
+        <v>0.14717679699999997</v>
+      </c>
+      <c r="ET43">
+        <f t="shared" si="16"/>
+        <v>0.14113779699999995</v>
+      </c>
+      <c r="EU43">
+        <f t="shared" si="16"/>
+        <v>0.13509879699999999</v>
+      </c>
+      <c r="EV43">
+        <f t="shared" si="16"/>
+        <v>0.12905979699999998</v>
+      </c>
     </row>
-    <row r="44" spans="1:75">
+    <row r="44" spans="1:152">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -20211,7 +22668,7 @@
         <v>0.901325869</v>
       </c>
     </row>
-    <row r="45" spans="1:75">
+    <row r="45" spans="1:152">
       <c r="A45" t="s">
         <v>150</v>
       </c>
@@ -20357,7 +22814,7 @@
         <v>0.93703571399999996</v>
       </c>
     </row>
-    <row r="46" spans="1:75">
+    <row r="46" spans="1:152">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -20491,7 +22948,7 @@
         <v>0.93824640599999998</v>
       </c>
     </row>
-    <row r="47" spans="1:75">
+    <row r="47" spans="1:152">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -20628,7 +23085,7 @@
         <v>0.93565951199999997</v>
       </c>
     </row>
-    <row r="48" spans="1:75">
+    <row r="48" spans="1:152">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -20768,7 +23225,7 @@
         <v>0.92286112399999998</v>
       </c>
     </row>
-    <row r="49" spans="1:75">
+    <row r="49" spans="1:152">
       <c r="A49" t="s">
         <v>154</v>
       </c>
@@ -20914,7 +23371,7 @@
         <v>0.87705709099999996</v>
       </c>
     </row>
-    <row r="50" spans="1:75">
+    <row r="50" spans="1:152">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -21060,7 +23517,7 @@
         <v>0.82179584299999997</v>
       </c>
     </row>
-    <row r="51" spans="1:75">
+    <row r="51" spans="1:152">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -21206,7 +23663,7 @@
         <v>0.61811578700000003</v>
       </c>
     </row>
-    <row r="52" spans="1:75">
+    <row r="52" spans="1:152">
       <c r="A52" t="s">
         <v>157</v>
       </c>
@@ -21352,7 +23809,7 @@
         <v>6.1428338999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:75">
+    <row r="53" spans="1:152">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -21497,8 +23954,252 @@
       <c r="BW53">
         <v>0.45228557800000002</v>
       </c>
+      <c r="BX53">
+        <f>-0.005743*(BX$1-2023)+$BW53</f>
+        <v>0.44654257800000002</v>
+      </c>
+      <c r="BY53">
+        <f t="shared" ref="BY52:EJ53" si="17">-0.005743*(BY$1-2023)+$BW53</f>
+        <v>0.44079957800000003</v>
+      </c>
+      <c r="BZ53">
+        <f t="shared" si="17"/>
+        <v>0.43505657800000003</v>
+      </c>
+      <c r="CA53">
+        <f t="shared" si="17"/>
+        <v>0.42931357800000003</v>
+      </c>
+      <c r="CB53">
+        <f t="shared" si="17"/>
+        <v>0.42357057800000003</v>
+      </c>
+      <c r="CC53">
+        <f t="shared" si="17"/>
+        <v>0.41782757800000003</v>
+      </c>
+      <c r="CD53">
+        <f t="shared" si="17"/>
+        <v>0.41208457800000003</v>
+      </c>
+      <c r="CE53">
+        <f t="shared" si="17"/>
+        <v>0.40634157800000004</v>
+      </c>
+      <c r="CF53">
+        <f t="shared" si="17"/>
+        <v>0.40059857800000004</v>
+      </c>
+      <c r="CG53">
+        <f t="shared" si="17"/>
+        <v>0.39485557800000004</v>
+      </c>
+      <c r="CH53">
+        <f t="shared" si="17"/>
+        <v>0.38911257800000004</v>
+      </c>
+      <c r="CI53">
+        <f t="shared" si="17"/>
+        <v>0.38336957800000004</v>
+      </c>
+      <c r="CJ53">
+        <f t="shared" si="17"/>
+        <v>0.37762657799999999</v>
+      </c>
+      <c r="CK53">
+        <f t="shared" si="17"/>
+        <v>0.37188357800000005</v>
+      </c>
+      <c r="CL53">
+        <f t="shared" si="17"/>
+        <v>0.36614057799999999</v>
+      </c>
+      <c r="CM53">
+        <f t="shared" si="17"/>
+        <v>0.36039757800000005</v>
+      </c>
+      <c r="CN53">
+        <f t="shared" si="17"/>
+        <v>0.354654578</v>
+      </c>
+      <c r="CO53">
+        <f t="shared" si="17"/>
+        <v>0.34891157800000006</v>
+      </c>
+      <c r="CP53">
+        <f t="shared" si="17"/>
+        <v>0.343168578</v>
+      </c>
+      <c r="CQ53">
+        <f t="shared" si="17"/>
+        <v>0.33742557800000006</v>
+      </c>
+      <c r="CR53">
+        <f t="shared" si="17"/>
+        <v>0.33168257800000001</v>
+      </c>
+      <c r="CS53">
+        <f t="shared" si="17"/>
+        <v>0.32593957800000006</v>
+      </c>
+      <c r="CT53">
+        <f t="shared" si="17"/>
+        <v>0.32019657800000001</v>
+      </c>
+      <c r="CU53">
+        <f t="shared" si="17"/>
+        <v>0.31445357800000001</v>
+      </c>
+      <c r="CV53">
+        <f t="shared" si="17"/>
+        <v>0.30871057800000001</v>
+      </c>
+      <c r="CW53">
+        <f t="shared" si="17"/>
+        <v>0.30296757800000002</v>
+      </c>
+      <c r="CX53">
+        <f t="shared" si="17"/>
+        <v>0.29722457800000002</v>
+      </c>
+      <c r="CY53">
+        <f t="shared" si="17"/>
+        <v>0.29148157800000002</v>
+      </c>
+      <c r="CZ53">
+        <f t="shared" si="17"/>
+        <v>0.28573857800000002</v>
+      </c>
+      <c r="DA53">
+        <f t="shared" si="17"/>
+        <v>0.27999557800000002</v>
+      </c>
+      <c r="DB53">
+        <f t="shared" si="17"/>
+        <v>0.27425257800000002</v>
+      </c>
+      <c r="DC53">
+        <f t="shared" si="17"/>
+        <v>0.26850957800000003</v>
+      </c>
+      <c r="DD53">
+        <f t="shared" si="17"/>
+        <v>0.26276657800000003</v>
+      </c>
+      <c r="DE53">
+        <f t="shared" si="17"/>
+        <v>0.25702357800000003</v>
+      </c>
+      <c r="DF53">
+        <f t="shared" si="17"/>
+        <v>0.25128057800000003</v>
+      </c>
+      <c r="DG53">
+        <f t="shared" si="17"/>
+        <v>0.24553757800000003</v>
+      </c>
+      <c r="DH53">
+        <f t="shared" si="17"/>
+        <v>0.23979457800000004</v>
+      </c>
+      <c r="DI53">
+        <f t="shared" si="17"/>
+        <v>0.23405157800000004</v>
+      </c>
+      <c r="DJ53">
+        <f t="shared" si="17"/>
+        <v>0.22830857800000004</v>
+      </c>
+      <c r="DK53">
+        <f t="shared" si="17"/>
+        <v>0.22256557800000004</v>
+      </c>
+      <c r="DL53">
+        <f t="shared" si="17"/>
+        <v>0.21682257800000002</v>
+      </c>
+      <c r="DM53">
+        <f t="shared" si="17"/>
+        <v>0.21107957800000002</v>
+      </c>
+      <c r="DN53">
+        <f t="shared" si="17"/>
+        <v>0.20533657800000002</v>
+      </c>
+      <c r="DO53">
+        <f t="shared" si="17"/>
+        <v>0.19959357800000005</v>
+      </c>
+      <c r="DP53">
+        <f t="shared" si="17"/>
+        <v>0.19385057800000005</v>
+      </c>
+      <c r="DQ53">
+        <f t="shared" si="17"/>
+        <v>0.18810757800000005</v>
+      </c>
+      <c r="DR53">
+        <f t="shared" si="17"/>
+        <v>0.18236457800000005</v>
+      </c>
+      <c r="DS53">
+        <f t="shared" si="17"/>
+        <v>0.176621578</v>
+      </c>
+      <c r="DT53">
+        <f t="shared" si="17"/>
+        <v>0.170878578</v>
+      </c>
+      <c r="DU53">
+        <f t="shared" si="17"/>
+        <v>0.16513557800000001</v>
+      </c>
+      <c r="DV53">
+        <f t="shared" si="17"/>
+        <v>0.15939257800000001</v>
+      </c>
+      <c r="DW53">
+        <f t="shared" si="17"/>
+        <v>0.15364957800000001</v>
+      </c>
+      <c r="DX53">
+        <f t="shared" si="17"/>
+        <v>0.14790657800000001</v>
+      </c>
+      <c r="DY53">
+        <f t="shared" si="17"/>
+        <v>0.14216357800000001</v>
+      </c>
+      <c r="DZ53">
+        <f t="shared" si="17"/>
+        <v>0.13642057800000001</v>
+      </c>
+      <c r="EA53">
+        <f t="shared" si="17"/>
+        <v>0.13067757800000002</v>
+      </c>
+      <c r="EB53">
+        <f t="shared" si="17"/>
+        <v>0.12493457800000002</v>
+      </c>
+      <c r="EC53">
+        <f t="shared" si="17"/>
+        <v>0.11919157800000002</v>
+      </c>
+      <c r="ED53">
+        <f t="shared" si="17"/>
+        <v>0.11344857800000002</v>
+      </c>
+      <c r="EE53">
+        <f t="shared" si="17"/>
+        <v>0.10770557800000002</v>
+      </c>
+      <c r="EF53">
+        <f t="shared" si="17"/>
+        <v>0.10196257800000003</v>
+      </c>
     </row>
-    <row r="54" spans="1:75">
+    <row r="54" spans="1:152">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -21641,7 +24342,7 @@
         <v>0.75707424599999995</v>
       </c>
     </row>
-    <row r="55" spans="1:75">
+    <row r="55" spans="1:152">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -21787,7 +24488,7 @@
         <v>0.78386483399999995</v>
       </c>
     </row>
-    <row r="56" spans="1:75">
+    <row r="56" spans="1:152">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -21921,7 +24622,7 @@
         <v>0.81822290200000003</v>
       </c>
     </row>
-    <row r="57" spans="1:75">
+    <row r="57" spans="1:152">
       <c r="A57" t="s">
         <v>162</v>
       </c>
@@ -22058,7 +24759,7 @@
         <v>0.85546973299999995</v>
       </c>
     </row>
-    <row r="58" spans="1:75">
+    <row r="58" spans="1:152">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -22198,7 +24899,7 @@
         <v>0.86133321600000001</v>
       </c>
     </row>
-    <row r="59" spans="1:75">
+    <row r="59" spans="1:152">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -22344,7 +25045,7 @@
         <v>0.82700839900000001</v>
       </c>
     </row>
-    <row r="60" spans="1:75">
+    <row r="60" spans="1:152">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -22490,7 +25191,7 @@
         <v>0.74694432399999999</v>
       </c>
     </row>
-    <row r="61" spans="1:75">
+    <row r="61" spans="1:152">
       <c r="A61" t="s">
         <v>166</v>
       </c>
@@ -22635,8 +25336,276 @@
       <c r="BW61">
         <v>0.36652126000000002</v>
       </c>
+      <c r="BX61">
+        <f>0.003743*(BX$1-2023)+$BW61</f>
+        <v>0.37026426000000001</v>
+      </c>
+      <c r="BY61">
+        <f t="shared" ref="BY60:EJ61" si="18">0.003743*(BY$1-2023)+$BW61</f>
+        <v>0.37400726000000001</v>
+      </c>
+      <c r="BZ61">
+        <f t="shared" si="18"/>
+        <v>0.37775026</v>
+      </c>
+      <c r="CA61">
+        <f t="shared" si="18"/>
+        <v>0.38149326</v>
+      </c>
+      <c r="CB61">
+        <f t="shared" si="18"/>
+        <v>0.38523626</v>
+      </c>
+      <c r="CC61">
+        <f t="shared" si="18"/>
+        <v>0.38897925999999999</v>
+      </c>
+      <c r="CD61">
+        <f t="shared" si="18"/>
+        <v>0.39272225999999999</v>
+      </c>
+      <c r="CE61">
+        <f t="shared" si="18"/>
+        <v>0.39646526000000004</v>
+      </c>
+      <c r="CF61">
+        <f t="shared" si="18"/>
+        <v>0.40020825999999998</v>
+      </c>
+      <c r="CG61">
+        <f t="shared" si="18"/>
+        <v>0.40395126000000003</v>
+      </c>
+      <c r="CH61">
+        <f t="shared" si="18"/>
+        <v>0.40769426000000003</v>
+      </c>
+      <c r="CI61">
+        <f t="shared" si="18"/>
+        <v>0.41143726000000003</v>
+      </c>
+      <c r="CJ61">
+        <f t="shared" si="18"/>
+        <v>0.41518026000000002</v>
+      </c>
+      <c r="CK61">
+        <f t="shared" si="18"/>
+        <v>0.41892326000000002</v>
+      </c>
+      <c r="CL61">
+        <f t="shared" si="18"/>
+        <v>0.42266626000000002</v>
+      </c>
+      <c r="CM61">
+        <f t="shared" si="18"/>
+        <v>0.42640926000000001</v>
+      </c>
+      <c r="CN61">
+        <f t="shared" si="18"/>
+        <v>0.43015226000000001</v>
+      </c>
+      <c r="CO61">
+        <f t="shared" si="18"/>
+        <v>0.43389526</v>
+      </c>
+      <c r="CP61">
+        <f t="shared" si="18"/>
+        <v>0.43763826</v>
+      </c>
+      <c r="CQ61">
+        <f t="shared" si="18"/>
+        <v>0.44138126</v>
+      </c>
+      <c r="CR61">
+        <f t="shared" si="18"/>
+        <v>0.44512425999999999</v>
+      </c>
+      <c r="CS61">
+        <f t="shared" si="18"/>
+        <v>0.44886725999999999</v>
+      </c>
+      <c r="CT61">
+        <f t="shared" si="18"/>
+        <v>0.45261026000000004</v>
+      </c>
+      <c r="CU61">
+        <f t="shared" si="18"/>
+        <v>0.45635325999999998</v>
+      </c>
+      <c r="CV61">
+        <f t="shared" si="18"/>
+        <v>0.46009626000000003</v>
+      </c>
+      <c r="CW61">
+        <f t="shared" si="18"/>
+        <v>0.46383925999999998</v>
+      </c>
+      <c r="CX61">
+        <f t="shared" si="18"/>
+        <v>0.46758226000000003</v>
+      </c>
+      <c r="CY61">
+        <f t="shared" si="18"/>
+        <v>0.47132526000000002</v>
+      </c>
+      <c r="CZ61">
+        <f t="shared" si="18"/>
+        <v>0.47506826000000002</v>
+      </c>
+      <c r="DA61">
+        <f t="shared" si="18"/>
+        <v>0.47881126000000002</v>
+      </c>
+      <c r="DB61">
+        <f t="shared" si="18"/>
+        <v>0.48255426000000001</v>
+      </c>
+      <c r="DC61">
+        <f t="shared" si="18"/>
+        <v>0.48629726000000001</v>
+      </c>
+      <c r="DD61">
+        <f t="shared" si="18"/>
+        <v>0.49004026000000001</v>
+      </c>
+      <c r="DE61">
+        <f t="shared" si="18"/>
+        <v>0.49378326</v>
+      </c>
+      <c r="DF61">
+        <f t="shared" si="18"/>
+        <v>0.49752626</v>
+      </c>
+      <c r="DG61">
+        <f t="shared" si="18"/>
+        <v>0.50126925999999994</v>
+      </c>
+      <c r="DH61">
+        <f t="shared" si="18"/>
+        <v>0.50501225999999999</v>
+      </c>
+      <c r="DI61">
+        <f t="shared" si="18"/>
+        <v>0.50875526000000004</v>
+      </c>
+      <c r="DJ61">
+        <f t="shared" si="18"/>
+        <v>0.51249825999999998</v>
+      </c>
+      <c r="DK61">
+        <f t="shared" si="18"/>
+        <v>0.51624126000000004</v>
+      </c>
+      <c r="DL61">
+        <f t="shared" si="18"/>
+        <v>0.51998425999999998</v>
+      </c>
+      <c r="DM61">
+        <f t="shared" si="18"/>
+        <v>0.52372726000000003</v>
+      </c>
+      <c r="DN61">
+        <f t="shared" si="18"/>
+        <v>0.52747025999999997</v>
+      </c>
+      <c r="DO61">
+        <f t="shared" si="18"/>
+        <v>0.53121326000000002</v>
+      </c>
+      <c r="DP61">
+        <f t="shared" si="18"/>
+        <v>0.53495625999999996</v>
+      </c>
+      <c r="DQ61">
+        <f t="shared" si="18"/>
+        <v>0.53869926000000001</v>
+      </c>
+      <c r="DR61">
+        <f t="shared" si="18"/>
+        <v>0.54244226000000006</v>
+      </c>
+      <c r="DS61">
+        <f t="shared" si="18"/>
+        <v>0.54618526000000001</v>
+      </c>
+      <c r="DT61">
+        <f t="shared" si="18"/>
+        <v>0.54992825999999995</v>
+      </c>
+      <c r="DU61">
+        <f t="shared" si="18"/>
+        <v>0.55367126</v>
+      </c>
+      <c r="DV61">
+        <f t="shared" si="18"/>
+        <v>0.55741426000000005</v>
+      </c>
+      <c r="DW61">
+        <f t="shared" si="18"/>
+        <v>0.56115725999999999</v>
+      </c>
+      <c r="DX61">
+        <f t="shared" si="18"/>
+        <v>0.56490026000000004</v>
+      </c>
+      <c r="DY61">
+        <f t="shared" si="18"/>
+        <v>0.56864325999999998</v>
+      </c>
+      <c r="DZ61">
+        <f t="shared" si="18"/>
+        <v>0.57238626000000004</v>
+      </c>
+      <c r="EA61">
+        <f t="shared" si="18"/>
+        <v>0.57612925999999998</v>
+      </c>
+      <c r="EB61">
+        <f t="shared" si="18"/>
+        <v>0.57987226000000003</v>
+      </c>
+      <c r="EC61">
+        <f t="shared" si="18"/>
+        <v>0.58361525999999997</v>
+      </c>
+      <c r="ED61">
+        <f t="shared" si="18"/>
+        <v>0.58735826000000002</v>
+      </c>
+      <c r="EE61">
+        <f t="shared" si="18"/>
+        <v>0.59110126000000007</v>
+      </c>
+      <c r="EF61">
+        <f t="shared" si="18"/>
+        <v>0.59484426000000001</v>
+      </c>
+      <c r="EG61">
+        <f t="shared" si="18"/>
+        <v>0.59858725999999995</v>
+      </c>
+      <c r="EH61">
+        <f t="shared" si="18"/>
+        <v>0.60233026000000001</v>
+      </c>
+      <c r="EI61">
+        <f t="shared" si="18"/>
+        <v>0.60607326000000006</v>
+      </c>
+      <c r="EJ61">
+        <f t="shared" si="18"/>
+        <v>0.60981626</v>
+      </c>
+      <c r="EK61">
+        <f t="shared" ref="EK60:EV61" si="19">0.003743*(EK$1-2023)+$BW61</f>
+        <v>0.61355925999999994</v>
+      </c>
+      <c r="EL61">
+        <f t="shared" si="19"/>
+        <v>0.61730225999999999</v>
+      </c>
     </row>
-    <row r="62" spans="1:75">
+    <row r="62" spans="1:152">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -22826,8 +25795,176 @@
       <c r="BW62">
         <v>0.356643196</v>
       </c>
+      <c r="BX62">
+        <f>-0.006039*(BX$1-2023)+$BW62</f>
+        <v>0.35060419599999998</v>
+      </c>
+      <c r="BY62">
+        <f t="shared" ref="BY62:EJ63" si="20">-0.006039*(BY$1-2023)+$BW62</f>
+        <v>0.34456519600000002</v>
+      </c>
+      <c r="BZ62">
+        <f t="shared" si="20"/>
+        <v>0.338526196</v>
+      </c>
+      <c r="CA62">
+        <f t="shared" si="20"/>
+        <v>0.33248719599999998</v>
+      </c>
+      <c r="CB62">
+        <f t="shared" si="20"/>
+        <v>0.32644819599999997</v>
+      </c>
+      <c r="CC62">
+        <f t="shared" si="20"/>
+        <v>0.32040919600000001</v>
+      </c>
+      <c r="CD62">
+        <f t="shared" si="20"/>
+        <v>0.31437019599999999</v>
+      </c>
+      <c r="CE62">
+        <f t="shared" si="20"/>
+        <v>0.30833119599999997</v>
+      </c>
+      <c r="CF62">
+        <f t="shared" si="20"/>
+        <v>0.30229219600000001</v>
+      </c>
+      <c r="CG62">
+        <f t="shared" si="20"/>
+        <v>0.296253196</v>
+      </c>
+      <c r="CH62">
+        <f t="shared" si="20"/>
+        <v>0.29021419599999998</v>
+      </c>
+      <c r="CI62">
+        <f t="shared" si="20"/>
+        <v>0.28417519599999996</v>
+      </c>
+      <c r="CJ62">
+        <f t="shared" si="20"/>
+        <v>0.278136196</v>
+      </c>
+      <c r="CK62">
+        <f t="shared" si="20"/>
+        <v>0.27209719599999999</v>
+      </c>
+      <c r="CL62">
+        <f t="shared" si="20"/>
+        <v>0.26605819600000002</v>
+      </c>
+      <c r="CM62">
+        <f t="shared" si="20"/>
+        <v>0.26001919600000001</v>
+      </c>
+      <c r="CN62">
+        <f t="shared" si="20"/>
+        <v>0.25398019599999999</v>
+      </c>
+      <c r="CO62">
+        <f t="shared" si="20"/>
+        <v>0.24794119599999997</v>
+      </c>
+      <c r="CP62">
+        <f t="shared" si="20"/>
+        <v>0.24190219600000001</v>
+      </c>
+      <c r="CQ62">
+        <f t="shared" si="20"/>
+        <v>0.235863196</v>
+      </c>
+      <c r="CR62">
+        <f t="shared" si="20"/>
+        <v>0.22982419599999998</v>
+      </c>
+      <c r="CS62">
+        <f t="shared" si="20"/>
+        <v>0.22378519599999999</v>
+      </c>
+      <c r="CT62">
+        <f t="shared" si="20"/>
+        <v>0.217746196</v>
+      </c>
+      <c r="CU62">
+        <f t="shared" si="20"/>
+        <v>0.21170719599999999</v>
+      </c>
+      <c r="CV62">
+        <f t="shared" si="20"/>
+        <v>0.205668196</v>
+      </c>
+      <c r="CW62">
+        <f t="shared" si="20"/>
+        <v>0.19962919599999998</v>
+      </c>
+      <c r="CX62">
+        <f t="shared" si="20"/>
+        <v>0.19359019599999999</v>
+      </c>
+      <c r="CY62">
+        <f t="shared" si="20"/>
+        <v>0.187551196</v>
+      </c>
+      <c r="CZ62">
+        <f t="shared" si="20"/>
+        <v>0.18151219599999999</v>
+      </c>
+      <c r="DA62">
+        <f t="shared" si="20"/>
+        <v>0.175473196</v>
+      </c>
+      <c r="DB62">
+        <f t="shared" si="20"/>
+        <v>0.16943419599999998</v>
+      </c>
+      <c r="DC62">
+        <f t="shared" si="20"/>
+        <v>0.16339519599999999</v>
+      </c>
+      <c r="DD62">
+        <f t="shared" si="20"/>
+        <v>0.157356196</v>
+      </c>
+      <c r="DE62">
+        <f t="shared" si="20"/>
+        <v>0.15131719599999999</v>
+      </c>
+      <c r="DF62">
+        <f t="shared" si="20"/>
+        <v>0.145278196</v>
+      </c>
+      <c r="DG62">
+        <f t="shared" si="20"/>
+        <v>0.13923919599999998</v>
+      </c>
+      <c r="DH62">
+        <f t="shared" si="20"/>
+        <v>0.13320019599999999</v>
+      </c>
+      <c r="DI62">
+        <f t="shared" si="20"/>
+        <v>0.127161196</v>
+      </c>
+      <c r="DJ62">
+        <f t="shared" si="20"/>
+        <v>0.12112219599999999</v>
+      </c>
+      <c r="DK62">
+        <f t="shared" si="20"/>
+        <v>0.115083196</v>
+      </c>
+      <c r="DL62">
+        <f t="shared" si="20"/>
+        <v>0.10904419599999998</v>
+      </c>
+      <c r="DM62">
+        <f t="shared" si="20"/>
+        <v>0.10300519599999997</v>
+      </c>
     </row>
-    <row r="63" spans="1:75">
+    <row r="63" spans="1:152">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -23017,8 +26154,316 @@
       <c r="BW63">
         <v>0.76789887199999995</v>
       </c>
+      <c r="BX63">
+        <f>-0.006039*(BX$1-2023)+$BW63</f>
+        <v>0.76185987199999994</v>
+      </c>
+      <c r="BY63">
+        <f t="shared" si="20"/>
+        <v>0.75582087199999992</v>
+      </c>
+      <c r="BZ63">
+        <f t="shared" si="20"/>
+        <v>0.7497818719999999</v>
+      </c>
+      <c r="CA63">
+        <f t="shared" si="20"/>
+        <v>0.743742872</v>
+      </c>
+      <c r="CB63">
+        <f t="shared" si="20"/>
+        <v>0.73770387199999998</v>
+      </c>
+      <c r="CC63">
+        <f t="shared" si="20"/>
+        <v>0.73166487199999997</v>
+      </c>
+      <c r="CD63">
+        <f t="shared" si="20"/>
+        <v>0.72562587199999995</v>
+      </c>
+      <c r="CE63">
+        <f t="shared" si="20"/>
+        <v>0.71958687199999993</v>
+      </c>
+      <c r="CF63">
+        <f t="shared" si="20"/>
+        <v>0.71354787199999992</v>
+      </c>
+      <c r="CG63">
+        <f t="shared" si="20"/>
+        <v>0.70750887200000001</v>
+      </c>
+      <c r="CH63">
+        <f t="shared" si="20"/>
+        <v>0.70146987199999999</v>
+      </c>
+      <c r="CI63">
+        <f t="shared" si="20"/>
+        <v>0.69543087199999998</v>
+      </c>
+      <c r="CJ63">
+        <f t="shared" si="20"/>
+        <v>0.68939187199999996</v>
+      </c>
+      <c r="CK63">
+        <f t="shared" si="20"/>
+        <v>0.68335287199999994</v>
+      </c>
+      <c r="CL63">
+        <f t="shared" si="20"/>
+        <v>0.67731387199999993</v>
+      </c>
+      <c r="CM63">
+        <f t="shared" si="20"/>
+        <v>0.67127487199999991</v>
+      </c>
+      <c r="CN63">
+        <f t="shared" si="20"/>
+        <v>0.66523587200000001</v>
+      </c>
+      <c r="CO63">
+        <f t="shared" si="20"/>
+        <v>0.65919687199999999</v>
+      </c>
+      <c r="CP63">
+        <f t="shared" si="20"/>
+        <v>0.65315787199999997</v>
+      </c>
+      <c r="CQ63">
+        <f t="shared" si="20"/>
+        <v>0.64711887199999996</v>
+      </c>
+      <c r="CR63">
+        <f t="shared" si="20"/>
+        <v>0.64107987199999994</v>
+      </c>
+      <c r="CS63">
+        <f t="shared" si="20"/>
+        <v>0.63504087199999992</v>
+      </c>
+      <c r="CT63">
+        <f t="shared" si="20"/>
+        <v>0.62900187199999991</v>
+      </c>
+      <c r="CU63">
+        <f t="shared" si="20"/>
+        <v>0.622962872</v>
+      </c>
+      <c r="CV63">
+        <f t="shared" si="20"/>
+        <v>0.61692387199999998</v>
+      </c>
+      <c r="CW63">
+        <f t="shared" si="20"/>
+        <v>0.61088487199999997</v>
+      </c>
+      <c r="CX63">
+        <f t="shared" si="20"/>
+        <v>0.60484587199999995</v>
+      </c>
+      <c r="CY63">
+        <f t="shared" si="20"/>
+        <v>0.59880687199999993</v>
+      </c>
+      <c r="CZ63">
+        <f t="shared" si="20"/>
+        <v>0.59276787199999992</v>
+      </c>
+      <c r="DA63">
+        <f t="shared" si="20"/>
+        <v>0.5867288719999999</v>
+      </c>
+      <c r="DB63">
+        <f t="shared" si="20"/>
+        <v>0.580689872</v>
+      </c>
+      <c r="DC63">
+        <f t="shared" si="20"/>
+        <v>0.57465087199999998</v>
+      </c>
+      <c r="DD63">
+        <f t="shared" si="20"/>
+        <v>0.56861187199999996</v>
+      </c>
+      <c r="DE63">
+        <f t="shared" si="20"/>
+        <v>0.56257287199999995</v>
+      </c>
+      <c r="DF63">
+        <f t="shared" si="20"/>
+        <v>0.55653387199999993</v>
+      </c>
+      <c r="DG63">
+        <f t="shared" si="20"/>
+        <v>0.55049487199999991</v>
+      </c>
+      <c r="DH63">
+        <f t="shared" si="20"/>
+        <v>0.5444558719999999</v>
+      </c>
+      <c r="DI63">
+        <f t="shared" si="20"/>
+        <v>0.53841687199999999</v>
+      </c>
+      <c r="DJ63">
+        <f t="shared" si="20"/>
+        <v>0.53237787199999997</v>
+      </c>
+      <c r="DK63">
+        <f t="shared" si="20"/>
+        <v>0.52633887199999996</v>
+      </c>
+      <c r="DL63">
+        <f t="shared" si="20"/>
+        <v>0.52029987199999994</v>
+      </c>
+      <c r="DM63">
+        <f t="shared" si="20"/>
+        <v>0.51426087199999992</v>
+      </c>
+      <c r="DN63">
+        <f t="shared" si="20"/>
+        <v>0.50822187200000002</v>
+      </c>
+      <c r="DO63">
+        <f t="shared" si="20"/>
+        <v>0.50218287199999989</v>
+      </c>
+      <c r="DP63">
+        <f t="shared" si="20"/>
+        <v>0.49614387199999993</v>
+      </c>
+      <c r="DQ63">
+        <f t="shared" si="20"/>
+        <v>0.49010487199999997</v>
+      </c>
+      <c r="DR63">
+        <f t="shared" si="20"/>
+        <v>0.48406587199999995</v>
+      </c>
+      <c r="DS63">
+        <f t="shared" si="20"/>
+        <v>0.47802687199999994</v>
+      </c>
+      <c r="DT63">
+        <f t="shared" si="20"/>
+        <v>0.47198787199999997</v>
+      </c>
+      <c r="DU63">
+        <f t="shared" si="20"/>
+        <v>0.46594887199999996</v>
+      </c>
+      <c r="DV63">
+        <f t="shared" si="20"/>
+        <v>0.45990987199999994</v>
+      </c>
+      <c r="DW63">
+        <f t="shared" si="20"/>
+        <v>0.45387087199999993</v>
+      </c>
+      <c r="DX63">
+        <f t="shared" si="20"/>
+        <v>0.44783187199999996</v>
+      </c>
+      <c r="DY63">
+        <f t="shared" si="20"/>
+        <v>0.44179287199999995</v>
+      </c>
+      <c r="DZ63">
+        <f t="shared" si="20"/>
+        <v>0.43575387199999993</v>
+      </c>
+      <c r="EA63">
+        <f t="shared" si="20"/>
+        <v>0.42971487199999997</v>
+      </c>
+      <c r="EB63">
+        <f t="shared" si="20"/>
+        <v>0.42367587199999995</v>
+      </c>
+      <c r="EC63">
+        <f t="shared" si="20"/>
+        <v>0.41763687199999994</v>
+      </c>
+      <c r="ED63">
+        <f t="shared" si="20"/>
+        <v>0.41159787199999998</v>
+      </c>
+      <c r="EE63">
+        <f t="shared" si="20"/>
+        <v>0.40555887199999996</v>
+      </c>
+      <c r="EF63">
+        <f t="shared" si="20"/>
+        <v>0.39951987199999994</v>
+      </c>
+      <c r="EG63">
+        <f t="shared" si="20"/>
+        <v>0.39348087199999993</v>
+      </c>
+      <c r="EH63">
+        <f t="shared" si="20"/>
+        <v>0.38744187199999996</v>
+      </c>
+      <c r="EI63">
+        <f t="shared" si="20"/>
+        <v>0.38140287199999995</v>
+      </c>
+      <c r="EJ63">
+        <f t="shared" si="20"/>
+        <v>0.37536387199999993</v>
+      </c>
+      <c r="EK63">
+        <f t="shared" ref="EK62:EV63" si="21">-0.006039*(EK$1-2023)+$BW63</f>
+        <v>0.36932487199999997</v>
+      </c>
+      <c r="EL63">
+        <f t="shared" si="21"/>
+        <v>0.36328587199999995</v>
+      </c>
+      <c r="EM63">
+        <f t="shared" si="21"/>
+        <v>0.35724687199999994</v>
+      </c>
+      <c r="EN63">
+        <f t="shared" si="21"/>
+        <v>0.35120787199999992</v>
+      </c>
+      <c r="EO63">
+        <f t="shared" si="21"/>
+        <v>0.34516887199999996</v>
+      </c>
+      <c r="EP63">
+        <f t="shared" si="21"/>
+        <v>0.33912987199999994</v>
+      </c>
+      <c r="EQ63">
+        <f t="shared" si="21"/>
+        <v>0.33309087199999993</v>
+      </c>
+      <c r="ER63">
+        <f t="shared" si="21"/>
+        <v>0.32705187199999997</v>
+      </c>
+      <c r="ES63">
+        <f t="shared" si="21"/>
+        <v>0.32101287199999995</v>
+      </c>
+      <c r="ET63">
+        <f t="shared" si="21"/>
+        <v>0.31497387199999993</v>
+      </c>
+      <c r="EU63">
+        <f t="shared" si="21"/>
+        <v>0.30893487199999997</v>
+      </c>
+      <c r="EV63">
+        <f t="shared" si="21"/>
+        <v>0.30289587199999995</v>
+      </c>
     </row>
-    <row r="64" spans="1:75">
+    <row r="64" spans="1:152">
       <c r="A64" t="s">
         <v>169</v>
       </c>
@@ -23209,7 +26654,7 @@
         <v>0.90351320999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:75">
+    <row r="65" spans="1:152">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -23400,7 +26845,7 @@
         <v>0.93599764200000002</v>
       </c>
     </row>
-    <row r="66" spans="1:75">
+    <row r="66" spans="1:152">
       <c r="A66" t="s">
         <v>171</v>
       </c>
@@ -23576,7 +27021,7 @@
         <v>0.93895019800000001</v>
       </c>
     </row>
-    <row r="67" spans="1:75">
+    <row r="67" spans="1:152">
       <c r="A67" t="s">
         <v>172</v>
       </c>
@@ -23755,7 +27200,7 @@
         <v>0.93233075600000004</v>
       </c>
     </row>
-    <row r="68" spans="1:75">
+    <row r="68" spans="1:152">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -23943,7 +27388,7 @@
         <v>0.91780715099999999</v>
       </c>
     </row>
-    <row r="69" spans="1:75">
+    <row r="69" spans="1:152">
       <c r="A69" t="s">
         <v>174</v>
       </c>
@@ -24134,7 +27579,7 @@
         <v>0.88364234399999997</v>
       </c>
     </row>
-    <row r="70" spans="1:75">
+    <row r="70" spans="1:152">
       <c r="A70" t="s">
         <v>175</v>
       </c>
@@ -24325,7 +27770,7 @@
         <v>0.822095727</v>
       </c>
     </row>
-    <row r="71" spans="1:75">
+    <row r="71" spans="1:152">
       <c r="A71" t="s">
         <v>176</v>
       </c>
@@ -24516,7 +27961,7 @@
         <v>0.67202374099999995</v>
       </c>
     </row>
-    <row r="72" spans="1:75">
+    <row r="72" spans="1:152">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -24703,8 +28148,108 @@
       <c r="BW72">
         <v>0.24424915699999999</v>
       </c>
+      <c r="BX72">
+        <f>-0.005743*(BX$1-2023)+$BW72</f>
+        <v>0.238506157</v>
+      </c>
+      <c r="BY72">
+        <f t="shared" ref="BY72:EJ73" si="22">-0.005743*(BY$1-2023)+$BW72</f>
+        <v>0.232763157</v>
+      </c>
+      <c r="BZ72">
+        <f t="shared" si="22"/>
+        <v>0.227020157</v>
+      </c>
+      <c r="CA72">
+        <f t="shared" si="22"/>
+        <v>0.221277157</v>
+      </c>
+      <c r="CB72">
+        <f t="shared" si="22"/>
+        <v>0.215534157</v>
+      </c>
+      <c r="CC72">
+        <f t="shared" si="22"/>
+        <v>0.20979115700000001</v>
+      </c>
+      <c r="CD72">
+        <f t="shared" si="22"/>
+        <v>0.20404815700000001</v>
+      </c>
+      <c r="CE72">
+        <f t="shared" si="22"/>
+        <v>0.19830515700000001</v>
+      </c>
+      <c r="CF72">
+        <f t="shared" si="22"/>
+        <v>0.19256215700000001</v>
+      </c>
+      <c r="CG72">
+        <f t="shared" si="22"/>
+        <v>0.18681915700000001</v>
+      </c>
+      <c r="CH72">
+        <f t="shared" si="22"/>
+        <v>0.18107615700000002</v>
+      </c>
+      <c r="CI72">
+        <f t="shared" si="22"/>
+        <v>0.17533315699999999</v>
+      </c>
+      <c r="CJ72">
+        <f t="shared" si="22"/>
+        <v>0.16959015699999999</v>
+      </c>
+      <c r="CK72">
+        <f t="shared" si="22"/>
+        <v>0.16384715699999999</v>
+      </c>
+      <c r="CL72">
+        <f t="shared" si="22"/>
+        <v>0.158104157</v>
+      </c>
+      <c r="CM72">
+        <f t="shared" si="22"/>
+        <v>0.152361157</v>
+      </c>
+      <c r="CN72">
+        <f t="shared" si="22"/>
+        <v>0.146618157</v>
+      </c>
+      <c r="CO72">
+        <f t="shared" si="22"/>
+        <v>0.140875157</v>
+      </c>
+      <c r="CP72">
+        <f t="shared" si="22"/>
+        <v>0.135132157</v>
+      </c>
+      <c r="CQ72">
+        <f t="shared" si="22"/>
+        <v>0.129389157</v>
+      </c>
+      <c r="CR72">
+        <f t="shared" si="22"/>
+        <v>0.12364615699999999</v>
+      </c>
+      <c r="CS72">
+        <f t="shared" si="22"/>
+        <v>0.11790315700000001</v>
+      </c>
+      <c r="CT72">
+        <f t="shared" si="22"/>
+        <v>0.11216015700000001</v>
+      </c>
+      <c r="CU72">
+        <f t="shared" si="22"/>
+        <v>0.10641715699999998</v>
+      </c>
+      <c r="CV72">
+        <f t="shared" si="22"/>
+        <v>0.10067415699999999</v>
+      </c>
     </row>
-    <row r="73" spans="1:75">
+    <row r="73" spans="1:152">
       <c r="A73" t="s">
         <v>178</v>
       </c>
@@ -24891,8 +28436,316 @@
       <c r="BW73">
         <v>0.57059058500000004</v>
       </c>
+      <c r="BX73">
+        <f>-0.005743*(BX$1-2023)+$BW73</f>
+        <v>0.56484758499999999</v>
+      </c>
+      <c r="BY73">
+        <f t="shared" si="22"/>
+        <v>0.55910458500000004</v>
+      </c>
+      <c r="BZ73">
+        <f t="shared" si="22"/>
+        <v>0.55336158499999999</v>
+      </c>
+      <c r="CA73">
+        <f t="shared" si="22"/>
+        <v>0.54761858500000005</v>
+      </c>
+      <c r="CB73">
+        <f t="shared" si="22"/>
+        <v>0.54187558499999999</v>
+      </c>
+      <c r="CC73">
+        <f t="shared" si="22"/>
+        <v>0.53613258500000005</v>
+      </c>
+      <c r="CD73">
+        <f t="shared" si="22"/>
+        <v>0.530389585</v>
+      </c>
+      <c r="CE73">
+        <f t="shared" si="22"/>
+        <v>0.52464658500000005</v>
+      </c>
+      <c r="CF73">
+        <f t="shared" si="22"/>
+        <v>0.518903585</v>
+      </c>
+      <c r="CG73">
+        <f t="shared" si="22"/>
+        <v>0.51316058500000006</v>
+      </c>
+      <c r="CH73">
+        <f t="shared" si="22"/>
+        <v>0.507417585</v>
+      </c>
+      <c r="CI73">
+        <f t="shared" si="22"/>
+        <v>0.50167458500000006</v>
+      </c>
+      <c r="CJ73">
+        <f t="shared" si="22"/>
+        <v>0.49593158500000001</v>
+      </c>
+      <c r="CK73">
+        <f t="shared" si="22"/>
+        <v>0.49018858500000007</v>
+      </c>
+      <c r="CL73">
+        <f t="shared" si="22"/>
+        <v>0.48444558500000001</v>
+      </c>
+      <c r="CM73">
+        <f t="shared" si="22"/>
+        <v>0.47870258500000007</v>
+      </c>
+      <c r="CN73">
+        <f t="shared" si="22"/>
+        <v>0.47295958500000002</v>
+      </c>
+      <c r="CO73">
+        <f t="shared" si="22"/>
+        <v>0.46721658500000007</v>
+      </c>
+      <c r="CP73">
+        <f t="shared" si="22"/>
+        <v>0.46147358500000002</v>
+      </c>
+      <c r="CQ73">
+        <f t="shared" si="22"/>
+        <v>0.45573058500000008</v>
+      </c>
+      <c r="CR73">
+        <f t="shared" si="22"/>
+        <v>0.44998758500000002</v>
+      </c>
+      <c r="CS73">
+        <f t="shared" si="22"/>
+        <v>0.44424458500000008</v>
+      </c>
+      <c r="CT73">
+        <f t="shared" si="22"/>
+        <v>0.43850158500000003</v>
+      </c>
+      <c r="CU73">
+        <f t="shared" si="22"/>
+        <v>0.43275858500000003</v>
+      </c>
+      <c r="CV73">
+        <f t="shared" si="22"/>
+        <v>0.42701558500000003</v>
+      </c>
+      <c r="CW73">
+        <f t="shared" si="22"/>
+        <v>0.42127258500000003</v>
+      </c>
+      <c r="CX73">
+        <f t="shared" si="22"/>
+        <v>0.41552958500000003</v>
+      </c>
+      <c r="CY73">
+        <f t="shared" si="22"/>
+        <v>0.40978658500000004</v>
+      </c>
+      <c r="CZ73">
+        <f t="shared" si="22"/>
+        <v>0.40404358500000004</v>
+      </c>
+      <c r="DA73">
+        <f t="shared" si="22"/>
+        <v>0.39830058500000004</v>
+      </c>
+      <c r="DB73">
+        <f t="shared" si="22"/>
+        <v>0.39255758500000004</v>
+      </c>
+      <c r="DC73">
+        <f t="shared" si="22"/>
+        <v>0.38681458500000004</v>
+      </c>
+      <c r="DD73">
+        <f t="shared" si="22"/>
+        <v>0.38107158500000005</v>
+      </c>
+      <c r="DE73">
+        <f t="shared" si="22"/>
+        <v>0.37532858500000005</v>
+      </c>
+      <c r="DF73">
+        <f t="shared" si="22"/>
+        <v>0.36958558500000005</v>
+      </c>
+      <c r="DG73">
+        <f t="shared" si="22"/>
+        <v>0.36384258500000005</v>
+      </c>
+      <c r="DH73">
+        <f t="shared" si="22"/>
+        <v>0.35809958500000005</v>
+      </c>
+      <c r="DI73">
+        <f t="shared" si="22"/>
+        <v>0.35235658500000006</v>
+      </c>
+      <c r="DJ73">
+        <f t="shared" si="22"/>
+        <v>0.34661358500000006</v>
+      </c>
+      <c r="DK73">
+        <f t="shared" si="22"/>
+        <v>0.34087058500000006</v>
+      </c>
+      <c r="DL73">
+        <f t="shared" si="22"/>
+        <v>0.33512758500000006</v>
+      </c>
+      <c r="DM73">
+        <f t="shared" si="22"/>
+        <v>0.32938458500000001</v>
+      </c>
+      <c r="DN73">
+        <f t="shared" si="22"/>
+        <v>0.32364158500000006</v>
+      </c>
+      <c r="DO73">
+        <f t="shared" si="22"/>
+        <v>0.31789858500000007</v>
+      </c>
+      <c r="DP73">
+        <f t="shared" si="22"/>
+        <v>0.31215558500000007</v>
+      </c>
+      <c r="DQ73">
+        <f t="shared" si="22"/>
+        <v>0.30641258500000007</v>
+      </c>
+      <c r="DR73">
+        <f t="shared" si="22"/>
+        <v>0.30066958500000007</v>
+      </c>
+      <c r="DS73">
+        <f t="shared" si="22"/>
+        <v>0.29492658500000002</v>
+      </c>
+      <c r="DT73">
+        <f t="shared" si="22"/>
+        <v>0.28918358500000002</v>
+      </c>
+      <c r="DU73">
+        <f t="shared" si="22"/>
+        <v>0.28344058500000002</v>
+      </c>
+      <c r="DV73">
+        <f t="shared" si="22"/>
+        <v>0.27769758500000002</v>
+      </c>
+      <c r="DW73">
+        <f t="shared" si="22"/>
+        <v>0.27195458500000003</v>
+      </c>
+      <c r="DX73">
+        <f t="shared" si="22"/>
+        <v>0.26621158500000003</v>
+      </c>
+      <c r="DY73">
+        <f t="shared" si="22"/>
+        <v>0.26046858500000003</v>
+      </c>
+      <c r="DZ73">
+        <f t="shared" si="22"/>
+        <v>0.25472558500000003</v>
+      </c>
+      <c r="EA73">
+        <f t="shared" si="22"/>
+        <v>0.24898258500000003</v>
+      </c>
+      <c r="EB73">
+        <f t="shared" si="22"/>
+        <v>0.24323958500000004</v>
+      </c>
+      <c r="EC73">
+        <f t="shared" si="22"/>
+        <v>0.23749658500000004</v>
+      </c>
+      <c r="ED73">
+        <f t="shared" si="22"/>
+        <v>0.23175358500000004</v>
+      </c>
+      <c r="EE73">
+        <f t="shared" si="22"/>
+        <v>0.22601058500000004</v>
+      </c>
+      <c r="EF73">
+        <f t="shared" si="22"/>
+        <v>0.22026758500000004</v>
+      </c>
+      <c r="EG73">
+        <f t="shared" si="22"/>
+        <v>0.21452458500000005</v>
+      </c>
+      <c r="EH73">
+        <f t="shared" si="22"/>
+        <v>0.20878158500000005</v>
+      </c>
+      <c r="EI73">
+        <f t="shared" si="22"/>
+        <v>0.20303858500000005</v>
+      </c>
+      <c r="EJ73">
+        <f t="shared" si="22"/>
+        <v>0.19729558500000005</v>
+      </c>
+      <c r="EK73">
+        <f t="shared" ref="EK72:EV73" si="23">-0.005743*(EK$1-2023)+$BW73</f>
+        <v>0.19155258500000005</v>
+      </c>
+      <c r="EL73">
+        <f t="shared" si="23"/>
+        <v>0.18580958500000005</v>
+      </c>
+      <c r="EM73">
+        <f t="shared" si="23"/>
+        <v>0.18006658500000006</v>
+      </c>
+      <c r="EN73">
+        <f t="shared" si="23"/>
+        <v>0.17432358500000006</v>
+      </c>
+      <c r="EO73">
+        <f t="shared" si="23"/>
+        <v>0.16858058500000006</v>
+      </c>
+      <c r="EP73">
+        <f t="shared" si="23"/>
+        <v>0.16283758500000006</v>
+      </c>
+      <c r="EQ73">
+        <f t="shared" si="23"/>
+        <v>0.15709458500000006</v>
+      </c>
+      <c r="ER73">
+        <f t="shared" si="23"/>
+        <v>0.15135158500000007</v>
+      </c>
+      <c r="ES73">
+        <f t="shared" si="23"/>
+        <v>0.14560858500000007</v>
+      </c>
+      <c r="ET73">
+        <f t="shared" si="23"/>
+        <v>0.13986558500000007</v>
+      </c>
+      <c r="EU73">
+        <f t="shared" si="23"/>
+        <v>0.13412258500000007</v>
+      </c>
+      <c r="EV73">
+        <f t="shared" si="23"/>
+        <v>0.12837958500000007</v>
+      </c>
     </row>
-    <row r="74" spans="1:75">
+    <row r="74" spans="1:152">
       <c r="A74" t="s">
         <v>179</v>
       </c>
@@ -25080,7 +28933,7 @@
         <v>0.68091048399999998</v>
       </c>
     </row>
-    <row r="75" spans="1:75">
+    <row r="75" spans="1:152">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -25268,7 +29121,7 @@
         <v>0.69568305600000002</v>
       </c>
     </row>
-    <row r="76" spans="1:75">
+    <row r="76" spans="1:152">
       <c r="A76" t="s">
         <v>181</v>
       </c>
@@ -25444,7 +29297,7 @@
         <v>0.70989705800000003</v>
       </c>
     </row>
-    <row r="77" spans="1:75">
+    <row r="77" spans="1:152">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -25623,7 +29476,7 @@
         <v>0.70359550900000001</v>
       </c>
     </row>
-    <row r="78" spans="1:75">
+    <row r="78" spans="1:152">
       <c r="A78" t="s">
         <v>183</v>
       </c>
@@ -25811,7 +29664,7 @@
         <v>0.67473506000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:75">
+    <row r="79" spans="1:152">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -25999,7 +29852,7 @@
         <v>0.62009837700000003</v>
       </c>
     </row>
-    <row r="80" spans="1:75">
+    <row r="80" spans="1:152">
       <c r="A80" t="s">
         <v>185</v>
       </c>
@@ -26186,8 +30039,116 @@
       <c r="BW80">
         <v>0.51701633599999997</v>
       </c>
+      <c r="BX80">
+        <f>0.003743*(BX$1-2023)+$BW80</f>
+        <v>0.52075933600000002</v>
+      </c>
+      <c r="BY80">
+        <f t="shared" ref="BY80:EJ81" si="24">0.003743*(BY$1-2023)+$BW80</f>
+        <v>0.52450233599999996</v>
+      </c>
+      <c r="BZ80">
+        <f t="shared" si="24"/>
+        <v>0.52824533600000001</v>
+      </c>
+      <c r="CA80">
+        <f t="shared" si="24"/>
+        <v>0.53198833599999995</v>
+      </c>
+      <c r="CB80">
+        <f t="shared" si="24"/>
+        <v>0.535731336</v>
+      </c>
+      <c r="CC80">
+        <f t="shared" si="24"/>
+        <v>0.53947433599999994</v>
+      </c>
+      <c r="CD80">
+        <f t="shared" si="24"/>
+        <v>0.543217336</v>
+      </c>
+      <c r="CE80">
+        <f t="shared" si="24"/>
+        <v>0.54696033599999994</v>
+      </c>
+      <c r="CF80">
+        <f t="shared" si="24"/>
+        <v>0.55070333599999999</v>
+      </c>
+      <c r="CG80">
+        <f t="shared" si="24"/>
+        <v>0.55444633599999993</v>
+      </c>
+      <c r="CH80">
+        <f t="shared" si="24"/>
+        <v>0.55818933599999998</v>
+      </c>
+      <c r="CI80">
+        <f t="shared" si="24"/>
+        <v>0.56193233599999992</v>
+      </c>
+      <c r="CJ80">
+        <f t="shared" si="24"/>
+        <v>0.56567533599999997</v>
+      </c>
+      <c r="CK80">
+        <f t="shared" si="24"/>
+        <v>0.56941833599999991</v>
+      </c>
+      <c r="CL80">
+        <f t="shared" si="24"/>
+        <v>0.57316133599999997</v>
+      </c>
+      <c r="CM80">
+        <f t="shared" si="24"/>
+        <v>0.57690433599999991</v>
+      </c>
+      <c r="CN80">
+        <f t="shared" si="24"/>
+        <v>0.58064733599999996</v>
+      </c>
+      <c r="CO80">
+        <f t="shared" si="24"/>
+        <v>0.58439033600000001</v>
+      </c>
+      <c r="CP80">
+        <f t="shared" si="24"/>
+        <v>0.58813333599999995</v>
+      </c>
+      <c r="CQ80">
+        <f t="shared" si="24"/>
+        <v>0.591876336</v>
+      </c>
+      <c r="CR80">
+        <f t="shared" si="24"/>
+        <v>0.59561933599999994</v>
+      </c>
+      <c r="CS80">
+        <f t="shared" si="24"/>
+        <v>0.599362336</v>
+      </c>
+      <c r="CT80">
+        <f t="shared" si="24"/>
+        <v>0.60310533599999994</v>
+      </c>
+      <c r="CU80">
+        <f t="shared" si="24"/>
+        <v>0.60684833599999999</v>
+      </c>
+      <c r="CV80">
+        <f t="shared" si="24"/>
+        <v>0.61059133599999993</v>
+      </c>
+      <c r="CW80">
+        <f t="shared" si="24"/>
+        <v>0.61433433599999998</v>
+      </c>
+      <c r="CX80">
+        <f t="shared" si="24"/>
+        <v>0.61807733599999992</v>
+      </c>
     </row>
-    <row r="81" spans="1:75">
+    <row r="81" spans="1:152">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -26374,8 +30335,284 @@
       <c r="BW81">
         <v>0.35884516700000002</v>
       </c>
+      <c r="BX81">
+        <f>0.003743*(BX$1-2023)+$BW81</f>
+        <v>0.36258816700000002</v>
+      </c>
+      <c r="BY81">
+        <f t="shared" si="24"/>
+        <v>0.36633116700000001</v>
+      </c>
+      <c r="BZ81">
+        <f t="shared" si="24"/>
+        <v>0.37007416700000001</v>
+      </c>
+      <c r="CA81">
+        <f t="shared" si="24"/>
+        <v>0.37381716700000001</v>
+      </c>
+      <c r="CB81">
+        <f t="shared" si="24"/>
+        <v>0.377560167</v>
+      </c>
+      <c r="CC81">
+        <f t="shared" si="24"/>
+        <v>0.381303167</v>
+      </c>
+      <c r="CD81">
+        <f t="shared" si="24"/>
+        <v>0.38504616699999999</v>
+      </c>
+      <c r="CE81">
+        <f t="shared" si="24"/>
+        <v>0.38878916699999999</v>
+      </c>
+      <c r="CF81">
+        <f t="shared" si="24"/>
+        <v>0.39253216700000004</v>
+      </c>
+      <c r="CG81">
+        <f t="shared" si="24"/>
+        <v>0.39627516700000004</v>
+      </c>
+      <c r="CH81">
+        <f t="shared" si="24"/>
+        <v>0.40001816700000004</v>
+      </c>
+      <c r="CI81">
+        <f t="shared" si="24"/>
+        <v>0.40376116700000003</v>
+      </c>
+      <c r="CJ81">
+        <f t="shared" si="24"/>
+        <v>0.40750416700000003</v>
+      </c>
+      <c r="CK81">
+        <f t="shared" si="24"/>
+        <v>0.41124716700000002</v>
+      </c>
+      <c r="CL81">
+        <f t="shared" si="24"/>
+        <v>0.41499016700000002</v>
+      </c>
+      <c r="CM81">
+        <f t="shared" si="24"/>
+        <v>0.41873316700000002</v>
+      </c>
+      <c r="CN81">
+        <f t="shared" si="24"/>
+        <v>0.42247616700000001</v>
+      </c>
+      <c r="CO81">
+        <f t="shared" si="24"/>
+        <v>0.42621916700000001</v>
+      </c>
+      <c r="CP81">
+        <f t="shared" si="24"/>
+        <v>0.42996216700000001</v>
+      </c>
+      <c r="CQ81">
+        <f t="shared" si="24"/>
+        <v>0.433705167</v>
+      </c>
+      <c r="CR81">
+        <f t="shared" si="24"/>
+        <v>0.437448167</v>
+      </c>
+      <c r="CS81">
+        <f t="shared" si="24"/>
+        <v>0.44119116700000005</v>
+      </c>
+      <c r="CT81">
+        <f t="shared" si="24"/>
+        <v>0.44493416699999999</v>
+      </c>
+      <c r="CU81">
+        <f t="shared" si="24"/>
+        <v>0.44867716700000004</v>
+      </c>
+      <c r="CV81">
+        <f t="shared" si="24"/>
+        <v>0.45242016699999998</v>
+      </c>
+      <c r="CW81">
+        <f t="shared" si="24"/>
+        <v>0.45616316700000004</v>
+      </c>
+      <c r="CX81">
+        <f t="shared" si="24"/>
+        <v>0.45990616700000003</v>
+      </c>
+      <c r="CY81">
+        <f t="shared" si="24"/>
+        <v>0.46364916700000003</v>
+      </c>
+      <c r="CZ81">
+        <f t="shared" si="24"/>
+        <v>0.46739216700000003</v>
+      </c>
+      <c r="DA81">
+        <f t="shared" si="24"/>
+        <v>0.47113516700000002</v>
+      </c>
+      <c r="DB81">
+        <f t="shared" si="24"/>
+        <v>0.47487816700000002</v>
+      </c>
+      <c r="DC81">
+        <f t="shared" si="24"/>
+        <v>0.47862116700000001</v>
+      </c>
+      <c r="DD81">
+        <f t="shared" si="24"/>
+        <v>0.48236416700000001</v>
+      </c>
+      <c r="DE81">
+        <f t="shared" si="24"/>
+        <v>0.48610716700000001</v>
+      </c>
+      <c r="DF81">
+        <f t="shared" si="24"/>
+        <v>0.489850167</v>
+      </c>
+      <c r="DG81">
+        <f t="shared" si="24"/>
+        <v>0.493593167</v>
+      </c>
+      <c r="DH81">
+        <f t="shared" si="24"/>
+        <v>0.49733616700000005</v>
+      </c>
+      <c r="DI81">
+        <f t="shared" si="24"/>
+        <v>0.50107916699999999</v>
+      </c>
+      <c r="DJ81">
+        <f t="shared" si="24"/>
+        <v>0.50482216700000004</v>
+      </c>
+      <c r="DK81">
+        <f t="shared" si="24"/>
+        <v>0.50856516699999998</v>
+      </c>
+      <c r="DL81">
+        <f t="shared" si="24"/>
+        <v>0.51230816700000004</v>
+      </c>
+      <c r="DM81">
+        <f t="shared" si="24"/>
+        <v>0.51605116699999998</v>
+      </c>
+      <c r="DN81">
+        <f t="shared" si="24"/>
+        <v>0.51979416700000003</v>
+      </c>
+      <c r="DO81">
+        <f t="shared" si="24"/>
+        <v>0.52353716699999997</v>
+      </c>
+      <c r="DP81">
+        <f t="shared" si="24"/>
+        <v>0.52728016700000002</v>
+      </c>
+      <c r="DQ81">
+        <f t="shared" si="24"/>
+        <v>0.53102316700000007</v>
+      </c>
+      <c r="DR81">
+        <f t="shared" si="24"/>
+        <v>0.53476616700000001</v>
+      </c>
+      <c r="DS81">
+        <f t="shared" si="24"/>
+        <v>0.53850916699999996</v>
+      </c>
+      <c r="DT81">
+        <f t="shared" si="24"/>
+        <v>0.54225216700000001</v>
+      </c>
+      <c r="DU81">
+        <f t="shared" si="24"/>
+        <v>0.54599516700000006</v>
+      </c>
+      <c r="DV81">
+        <f t="shared" si="24"/>
+        <v>0.549738167</v>
+      </c>
+      <c r="DW81">
+        <f t="shared" si="24"/>
+        <v>0.55348116699999994</v>
+      </c>
+      <c r="DX81">
+        <f t="shared" si="24"/>
+        <v>0.55722416699999999</v>
+      </c>
+      <c r="DY81">
+        <f t="shared" si="24"/>
+        <v>0.56096716700000004</v>
+      </c>
+      <c r="DZ81">
+        <f t="shared" si="24"/>
+        <v>0.56471016699999999</v>
+      </c>
+      <c r="EA81">
+        <f t="shared" si="24"/>
+        <v>0.56845316700000004</v>
+      </c>
+      <c r="EB81">
+        <f t="shared" si="24"/>
+        <v>0.57219616699999998</v>
+      </c>
+      <c r="EC81">
+        <f t="shared" si="24"/>
+        <v>0.57593916700000003</v>
+      </c>
+      <c r="ED81">
+        <f t="shared" si="24"/>
+        <v>0.57968216699999997</v>
+      </c>
+      <c r="EE81">
+        <f t="shared" si="24"/>
+        <v>0.58342516700000002</v>
+      </c>
+      <c r="EF81">
+        <f t="shared" si="24"/>
+        <v>0.58716816699999996</v>
+      </c>
+      <c r="EG81">
+        <f t="shared" si="24"/>
+        <v>0.59091116700000001</v>
+      </c>
+      <c r="EH81">
+        <f t="shared" si="24"/>
+        <v>0.59465416700000007</v>
+      </c>
+      <c r="EI81">
+        <f t="shared" si="24"/>
+        <v>0.59839716700000001</v>
+      </c>
+      <c r="EJ81">
+        <f t="shared" si="24"/>
+        <v>0.60214016699999995</v>
+      </c>
+      <c r="EK81">
+        <f t="shared" ref="EK80:EV81" si="25">0.003743*(EK$1-2023)+$BW81</f>
+        <v>0.605883167</v>
+      </c>
+      <c r="EL81">
+        <f t="shared" si="25"/>
+        <v>0.60962616700000005</v>
+      </c>
+      <c r="EM81">
+        <f t="shared" si="25"/>
+        <v>0.61336916699999999</v>
+      </c>
+      <c r="EN81">
+        <f t="shared" si="25"/>
+        <v>0.61711216699999993</v>
+      </c>
     </row>
-    <row r="82" spans="1:75">
+    <row r="82" spans="1:152">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -26601,8 +30838,164 @@
       <c r="BW82">
         <v>0.33622134599999998</v>
       </c>
+      <c r="BX82">
+        <f>-0.006039*(BX$1-2023)+$BW82</f>
+        <v>0.33018234599999996</v>
+      </c>
+      <c r="BY82">
+        <f t="shared" ref="BY82:EJ83" si="26">-0.006039*(BY$1-2023)+$BW82</f>
+        <v>0.324143346</v>
+      </c>
+      <c r="BZ82">
+        <f t="shared" si="26"/>
+        <v>0.31810434599999998</v>
+      </c>
+      <c r="CA82">
+        <f t="shared" si="26"/>
+        <v>0.31206534599999997</v>
+      </c>
+      <c r="CB82">
+        <f t="shared" si="26"/>
+        <v>0.306026346</v>
+      </c>
+      <c r="CC82">
+        <f t="shared" si="26"/>
+        <v>0.29998734599999999</v>
+      </c>
+      <c r="CD82">
+        <f t="shared" si="26"/>
+        <v>0.29394834599999997</v>
+      </c>
+      <c r="CE82">
+        <f t="shared" si="26"/>
+        <v>0.28790934599999995</v>
+      </c>
+      <c r="CF82">
+        <f t="shared" si="26"/>
+        <v>0.28187034599999999</v>
+      </c>
+      <c r="CG82">
+        <f t="shared" si="26"/>
+        <v>0.27583134599999998</v>
+      </c>
+      <c r="CH82">
+        <f t="shared" si="26"/>
+        <v>0.26979234599999996</v>
+      </c>
+      <c r="CI82">
+        <f t="shared" si="26"/>
+        <v>0.263753346</v>
+      </c>
+      <c r="CJ82">
+        <f t="shared" si="26"/>
+        <v>0.25771434599999998</v>
+      </c>
+      <c r="CK82">
+        <f t="shared" si="26"/>
+        <v>0.25167534599999997</v>
+      </c>
+      <c r="CL82">
+        <f t="shared" si="26"/>
+        <v>0.24563634599999998</v>
+      </c>
+      <c r="CM82">
+        <f t="shared" si="26"/>
+        <v>0.23959734599999999</v>
+      </c>
+      <c r="CN82">
+        <f t="shared" si="26"/>
+        <v>0.23355834599999997</v>
+      </c>
+      <c r="CO82">
+        <f t="shared" si="26"/>
+        <v>0.22751934599999996</v>
+      </c>
+      <c r="CP82">
+        <f t="shared" si="26"/>
+        <v>0.22148034599999999</v>
+      </c>
+      <c r="CQ82">
+        <f t="shared" si="26"/>
+        <v>0.21544134599999998</v>
+      </c>
+      <c r="CR82">
+        <f t="shared" si="26"/>
+        <v>0.20940234599999996</v>
+      </c>
+      <c r="CS82">
+        <f t="shared" si="26"/>
+        <v>0.20336334599999997</v>
+      </c>
+      <c r="CT82">
+        <f t="shared" si="26"/>
+        <v>0.19732434599999998</v>
+      </c>
+      <c r="CU82">
+        <f t="shared" si="26"/>
+        <v>0.19128534599999997</v>
+      </c>
+      <c r="CV82">
+        <f t="shared" si="26"/>
+        <v>0.18524634599999998</v>
+      </c>
+      <c r="CW82">
+        <f t="shared" si="26"/>
+        <v>0.17920734599999996</v>
+      </c>
+      <c r="CX82">
+        <f t="shared" si="26"/>
+        <v>0.17316834599999997</v>
+      </c>
+      <c r="CY82">
+        <f t="shared" si="26"/>
+        <v>0.16712934599999998</v>
+      </c>
+      <c r="CZ82">
+        <f t="shared" si="26"/>
+        <v>0.16109034599999997</v>
+      </c>
+      <c r="DA82">
+        <f t="shared" si="26"/>
+        <v>0.15505134599999998</v>
+      </c>
+      <c r="DB82">
+        <f t="shared" si="26"/>
+        <v>0.14901234599999996</v>
+      </c>
+      <c r="DC82">
+        <f t="shared" si="26"/>
+        <v>0.14297334599999997</v>
+      </c>
+      <c r="DD82">
+        <f t="shared" si="26"/>
+        <v>0.13693434599999998</v>
+      </c>
+      <c r="DE82">
+        <f t="shared" si="26"/>
+        <v>0.13089534599999997</v>
+      </c>
+      <c r="DF82">
+        <f t="shared" si="26"/>
+        <v>0.12485634599999998</v>
+      </c>
+      <c r="DG82">
+        <f t="shared" si="26"/>
+        <v>0.11881734599999996</v>
+      </c>
+      <c r="DH82">
+        <f t="shared" si="26"/>
+        <v>0.11277834599999997</v>
+      </c>
+      <c r="DI82">
+        <f t="shared" si="26"/>
+        <v>0.10673934599999998</v>
+      </c>
+      <c r="DJ82">
+        <f t="shared" si="26"/>
+        <v>0.10070034599999997</v>
+      </c>
     </row>
-    <row r="83" spans="1:75">
+    <row r="83" spans="1:152">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -26828,8 +31221,316 @@
       <c r="BW83">
         <v>0.71361667600000001</v>
       </c>
+      <c r="BX83">
+        <f>-0.006039*(BX$1-2023)+$BW83</f>
+        <v>0.70757767599999999</v>
+      </c>
+      <c r="BY83">
+        <f t="shared" si="26"/>
+        <v>0.70153867599999997</v>
+      </c>
+      <c r="BZ83">
+        <f t="shared" si="26"/>
+        <v>0.69549967599999996</v>
+      </c>
+      <c r="CA83">
+        <f t="shared" si="26"/>
+        <v>0.68946067600000005</v>
+      </c>
+      <c r="CB83">
+        <f t="shared" si="26"/>
+        <v>0.68342167600000003</v>
+      </c>
+      <c r="CC83">
+        <f t="shared" si="26"/>
+        <v>0.67738267600000002</v>
+      </c>
+      <c r="CD83">
+        <f t="shared" si="26"/>
+        <v>0.671343676</v>
+      </c>
+      <c r="CE83">
+        <f t="shared" si="26"/>
+        <v>0.66530467599999998</v>
+      </c>
+      <c r="CF83">
+        <f t="shared" si="26"/>
+        <v>0.65926567599999997</v>
+      </c>
+      <c r="CG83">
+        <f t="shared" si="26"/>
+        <v>0.65322667600000006</v>
+      </c>
+      <c r="CH83">
+        <f t="shared" si="26"/>
+        <v>0.64718767600000005</v>
+      </c>
+      <c r="CI83">
+        <f t="shared" si="26"/>
+        <v>0.64114867600000003</v>
+      </c>
+      <c r="CJ83">
+        <f t="shared" si="26"/>
+        <v>0.63510967600000001</v>
+      </c>
+      <c r="CK83">
+        <f t="shared" si="26"/>
+        <v>0.629070676</v>
+      </c>
+      <c r="CL83">
+        <f t="shared" si="26"/>
+        <v>0.62303167599999998</v>
+      </c>
+      <c r="CM83">
+        <f t="shared" si="26"/>
+        <v>0.61699267599999996</v>
+      </c>
+      <c r="CN83">
+        <f t="shared" si="26"/>
+        <v>0.61095367600000006</v>
+      </c>
+      <c r="CO83">
+        <f t="shared" si="26"/>
+        <v>0.60491467600000004</v>
+      </c>
+      <c r="CP83">
+        <f t="shared" si="26"/>
+        <v>0.59887567600000002</v>
+      </c>
+      <c r="CQ83">
+        <f t="shared" si="26"/>
+        <v>0.59283667600000001</v>
+      </c>
+      <c r="CR83">
+        <f t="shared" si="26"/>
+        <v>0.58679767599999999</v>
+      </c>
+      <c r="CS83">
+        <f t="shared" si="26"/>
+        <v>0.58075867599999997</v>
+      </c>
+      <c r="CT83">
+        <f t="shared" si="26"/>
+        <v>0.57471967599999996</v>
+      </c>
+      <c r="CU83">
+        <f t="shared" si="26"/>
+        <v>0.56868067600000005</v>
+      </c>
+      <c r="CV83">
+        <f t="shared" si="26"/>
+        <v>0.56264167600000003</v>
+      </c>
+      <c r="CW83">
+        <f t="shared" si="26"/>
+        <v>0.55660267600000002</v>
+      </c>
+      <c r="CX83">
+        <f t="shared" si="26"/>
+        <v>0.550563676</v>
+      </c>
+      <c r="CY83">
+        <f t="shared" si="26"/>
+        <v>0.54452467599999999</v>
+      </c>
+      <c r="CZ83">
+        <f t="shared" si="26"/>
+        <v>0.53848567599999997</v>
+      </c>
+      <c r="DA83">
+        <f t="shared" si="26"/>
+        <v>0.53244667599999995</v>
+      </c>
+      <c r="DB83">
+        <f t="shared" si="26"/>
+        <v>0.52640767600000005</v>
+      </c>
+      <c r="DC83">
+        <f t="shared" si="26"/>
+        <v>0.52036867600000003</v>
+      </c>
+      <c r="DD83">
+        <f t="shared" si="26"/>
+        <v>0.51432967600000001</v>
+      </c>
+      <c r="DE83">
+        <f t="shared" si="26"/>
+        <v>0.508290676</v>
+      </c>
+      <c r="DF83">
+        <f t="shared" si="26"/>
+        <v>0.50225167599999998</v>
+      </c>
+      <c r="DG83">
+        <f t="shared" si="26"/>
+        <v>0.49621267599999996</v>
+      </c>
+      <c r="DH83">
+        <f t="shared" si="26"/>
+        <v>0.490173676</v>
+      </c>
+      <c r="DI83">
+        <f t="shared" si="26"/>
+        <v>0.48413467600000004</v>
+      </c>
+      <c r="DJ83">
+        <f t="shared" si="26"/>
+        <v>0.47809567600000002</v>
+      </c>
+      <c r="DK83">
+        <f t="shared" si="26"/>
+        <v>0.47205667600000001</v>
+      </c>
+      <c r="DL83">
+        <f t="shared" si="26"/>
+        <v>0.46601767599999999</v>
+      </c>
+      <c r="DM83">
+        <f t="shared" si="26"/>
+        <v>0.45997867599999998</v>
+      </c>
+      <c r="DN83">
+        <f t="shared" si="26"/>
+        <v>0.45393967600000001</v>
+      </c>
+      <c r="DO83">
+        <f t="shared" si="26"/>
+        <v>0.447900676</v>
+      </c>
+      <c r="DP83">
+        <f t="shared" si="26"/>
+        <v>0.44186167599999998</v>
+      </c>
+      <c r="DQ83">
+        <f t="shared" si="26"/>
+        <v>0.43582267600000002</v>
+      </c>
+      <c r="DR83">
+        <f t="shared" si="26"/>
+        <v>0.429783676</v>
+      </c>
+      <c r="DS83">
+        <f t="shared" si="26"/>
+        <v>0.42374467599999999</v>
+      </c>
+      <c r="DT83">
+        <f t="shared" si="26"/>
+        <v>0.41770567600000003</v>
+      </c>
+      <c r="DU83">
+        <f t="shared" si="26"/>
+        <v>0.41166667600000001</v>
+      </c>
+      <c r="DV83">
+        <f t="shared" si="26"/>
+        <v>0.40562767599999999</v>
+      </c>
+      <c r="DW83">
+        <f t="shared" si="26"/>
+        <v>0.39958867599999998</v>
+      </c>
+      <c r="DX83">
+        <f t="shared" si="26"/>
+        <v>0.39354967600000001</v>
+      </c>
+      <c r="DY83">
+        <f t="shared" si="26"/>
+        <v>0.387510676</v>
+      </c>
+      <c r="DZ83">
+        <f t="shared" si="26"/>
+        <v>0.38147167599999998</v>
+      </c>
+      <c r="EA83">
+        <f t="shared" si="26"/>
+        <v>0.37543267600000002</v>
+      </c>
+      <c r="EB83">
+        <f t="shared" si="26"/>
+        <v>0.369393676</v>
+      </c>
+      <c r="EC83">
+        <f t="shared" si="26"/>
+        <v>0.36335467599999999</v>
+      </c>
+      <c r="ED83">
+        <f t="shared" si="26"/>
+        <v>0.35731567600000003</v>
+      </c>
+      <c r="EE83">
+        <f t="shared" si="26"/>
+        <v>0.35127667600000001</v>
+      </c>
+      <c r="EF83">
+        <f t="shared" si="26"/>
+        <v>0.34523767599999999</v>
+      </c>
+      <c r="EG83">
+        <f t="shared" si="26"/>
+        <v>0.33919867599999998</v>
+      </c>
+      <c r="EH83">
+        <f t="shared" si="26"/>
+        <v>0.33315967600000002</v>
+      </c>
+      <c r="EI83">
+        <f t="shared" si="26"/>
+        <v>0.327120676</v>
+      </c>
+      <c r="EJ83">
+        <f t="shared" si="26"/>
+        <v>0.32108167599999998</v>
+      </c>
+      <c r="EK83">
+        <f t="shared" ref="EK82:EV83" si="27">-0.006039*(EK$1-2023)+$BW83</f>
+        <v>0.31504267600000002</v>
+      </c>
+      <c r="EL83">
+        <f t="shared" si="27"/>
+        <v>0.309003676</v>
+      </c>
+      <c r="EM83">
+        <f t="shared" si="27"/>
+        <v>0.30296467599999999</v>
+      </c>
+      <c r="EN83">
+        <f t="shared" si="27"/>
+        <v>0.29692567599999997</v>
+      </c>
+      <c r="EO83">
+        <f t="shared" si="27"/>
+        <v>0.29088667600000001</v>
+      </c>
+      <c r="EP83">
+        <f t="shared" si="27"/>
+        <v>0.28484767599999999</v>
+      </c>
+      <c r="EQ83">
+        <f t="shared" si="27"/>
+        <v>0.27880867599999998</v>
+      </c>
+      <c r="ER83">
+        <f t="shared" si="27"/>
+        <v>0.27276967600000002</v>
+      </c>
+      <c r="ES83">
+        <f t="shared" si="27"/>
+        <v>0.266730676</v>
+      </c>
+      <c r="ET83">
+        <f t="shared" si="27"/>
+        <v>0.26069167599999998</v>
+      </c>
+      <c r="EU83">
+        <f t="shared" si="27"/>
+        <v>0.25465267600000002</v>
+      </c>
+      <c r="EV83">
+        <f t="shared" si="27"/>
+        <v>0.24861367600000001</v>
+      </c>
     </row>
-    <row r="84" spans="1:75">
+    <row r="84" spans="1:152">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -27029,7 +31730,7 @@
         <v>0.87986238999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:75">
+    <row r="85" spans="1:152">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -27226,7 +31927,7 @@
         <v>0.91600418100000003</v>
       </c>
     </row>
-    <row r="86" spans="1:75">
+    <row r="86" spans="1:152">
       <c r="A86" t="s">
         <v>191</v>
       </c>
@@ -27423,7 +32124,7 @@
         <v>0.91991399399999996</v>
       </c>
     </row>
-    <row r="87" spans="1:75">
+    <row r="87" spans="1:152">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -27620,7 +32321,7 @@
         <v>0.91795486999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:75">
+    <row r="88" spans="1:152">
       <c r="A88" t="s">
         <v>193</v>
       </c>
@@ -27817,7 +32518,7 @@
         <v>0.91237805800000005</v>
       </c>
     </row>
-    <row r="89" spans="1:75">
+    <row r="89" spans="1:152">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -28017,7 +32718,7 @@
         <v>0.88517451000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:75">
+    <row r="90" spans="1:152">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -28214,7 +32915,7 @@
         <v>0.82853536000000005</v>
       </c>
     </row>
-    <row r="91" spans="1:75">
+    <row r="91" spans="1:152">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -28411,7 +33112,7 @@
         <v>0.62873266900000002</v>
       </c>
     </row>
-    <row r="92" spans="1:75">
+    <row r="92" spans="1:152">
       <c r="A92" t="s">
         <v>197</v>
       </c>
@@ -28637,8 +33338,168 @@
       <c r="BW92">
         <v>0.33258969999999999</v>
       </c>
+      <c r="BX92">
+        <f>-0.005743*(BX$1-2023)+$BW92</f>
+        <v>0.32684669999999999</v>
+      </c>
+      <c r="BY92">
+        <f t="shared" ref="BY92:EJ93" si="28">-0.005743*(BY$1-2023)+$BW92</f>
+        <v>0.32110369999999999</v>
+      </c>
+      <c r="BZ92">
+        <f t="shared" si="28"/>
+        <v>0.31536069999999999</v>
+      </c>
+      <c r="CA92">
+        <f t="shared" si="28"/>
+        <v>0.3096177</v>
+      </c>
+      <c r="CB92">
+        <f t="shared" si="28"/>
+        <v>0.3038747</v>
+      </c>
+      <c r="CC92">
+        <f t="shared" si="28"/>
+        <v>0.2981317</v>
+      </c>
+      <c r="CD92">
+        <f t="shared" si="28"/>
+        <v>0.2923887</v>
+      </c>
+      <c r="CE92">
+        <f t="shared" si="28"/>
+        <v>0.2866457</v>
+      </c>
+      <c r="CF92">
+        <f t="shared" si="28"/>
+        <v>0.28090270000000001</v>
+      </c>
+      <c r="CG92">
+        <f t="shared" si="28"/>
+        <v>0.27515970000000001</v>
+      </c>
+      <c r="CH92">
+        <f t="shared" si="28"/>
+        <v>0.26941670000000001</v>
+      </c>
+      <c r="CI92">
+        <f t="shared" si="28"/>
+        <v>0.26367370000000001</v>
+      </c>
+      <c r="CJ92">
+        <f t="shared" si="28"/>
+        <v>0.25793069999999996</v>
+      </c>
+      <c r="CK92">
+        <f t="shared" si="28"/>
+        <v>0.25218770000000001</v>
+      </c>
+      <c r="CL92">
+        <f t="shared" si="28"/>
+        <v>0.24644469999999999</v>
+      </c>
+      <c r="CM92">
+        <f t="shared" si="28"/>
+        <v>0.24070169999999999</v>
+      </c>
+      <c r="CN92">
+        <f t="shared" si="28"/>
+        <v>0.23495869999999999</v>
+      </c>
+      <c r="CO92">
+        <f t="shared" si="28"/>
+        <v>0.22921569999999999</v>
+      </c>
+      <c r="CP92">
+        <f t="shared" si="28"/>
+        <v>0.2234727</v>
+      </c>
+      <c r="CQ92">
+        <f t="shared" si="28"/>
+        <v>0.2177297</v>
+      </c>
+      <c r="CR92">
+        <f t="shared" si="28"/>
+        <v>0.21198669999999997</v>
+      </c>
+      <c r="CS92">
+        <f t="shared" si="28"/>
+        <v>0.2062437</v>
+      </c>
+      <c r="CT92">
+        <f t="shared" si="28"/>
+        <v>0.2005007</v>
+      </c>
+      <c r="CU92">
+        <f t="shared" si="28"/>
+        <v>0.19475769999999998</v>
+      </c>
+      <c r="CV92">
+        <f t="shared" si="28"/>
+        <v>0.18901469999999998</v>
+      </c>
+      <c r="CW92">
+        <f t="shared" si="28"/>
+        <v>0.18327169999999998</v>
+      </c>
+      <c r="CX92">
+        <f t="shared" si="28"/>
+        <v>0.17752869999999998</v>
+      </c>
+      <c r="CY92">
+        <f t="shared" si="28"/>
+        <v>0.17178569999999999</v>
+      </c>
+      <c r="CZ92">
+        <f t="shared" si="28"/>
+        <v>0.16604269999999999</v>
+      </c>
+      <c r="DA92">
+        <f t="shared" si="28"/>
+        <v>0.16029969999999999</v>
+      </c>
+      <c r="DB92">
+        <f t="shared" si="28"/>
+        <v>0.15455669999999999</v>
+      </c>
+      <c r="DC92">
+        <f t="shared" si="28"/>
+        <v>0.14881369999999999</v>
+      </c>
+      <c r="DD92">
+        <f t="shared" si="28"/>
+        <v>0.1430707</v>
+      </c>
+      <c r="DE92">
+        <f t="shared" si="28"/>
+        <v>0.1373277</v>
+      </c>
+      <c r="DF92">
+        <f t="shared" si="28"/>
+        <v>0.1315847</v>
+      </c>
+      <c r="DG92">
+        <f t="shared" si="28"/>
+        <v>0.1258417</v>
+      </c>
+      <c r="DH92">
+        <f t="shared" si="28"/>
+        <v>0.1200987</v>
+      </c>
+      <c r="DI92">
+        <f t="shared" si="28"/>
+        <v>0.1143557</v>
+      </c>
+      <c r="DJ92">
+        <f t="shared" si="28"/>
+        <v>0.10861270000000001</v>
+      </c>
+      <c r="DK92">
+        <f t="shared" si="28"/>
+        <v>0.10286970000000001</v>
+      </c>
     </row>
-    <row r="93" spans="1:75">
+    <row r="93" spans="1:152">
       <c r="A93" t="s">
         <v>198</v>
       </c>
@@ -28864,8 +33725,316 @@
       <c r="BW93">
         <v>0.674720757</v>
       </c>
+      <c r="BX93">
+        <f>-0.005743*(BX$1-2023)+$BW93</f>
+        <v>0.66897775699999995</v>
+      </c>
+      <c r="BY93">
+        <f t="shared" si="28"/>
+        <v>0.66323475700000001</v>
+      </c>
+      <c r="BZ93">
+        <f t="shared" si="28"/>
+        <v>0.65749175699999995</v>
+      </c>
+      <c r="CA93">
+        <f t="shared" si="28"/>
+        <v>0.65174875700000001</v>
+      </c>
+      <c r="CB93">
+        <f t="shared" si="28"/>
+        <v>0.64600575699999996</v>
+      </c>
+      <c r="CC93">
+        <f t="shared" si="28"/>
+        <v>0.64026275700000002</v>
+      </c>
+      <c r="CD93">
+        <f t="shared" si="28"/>
+        <v>0.63451975699999996</v>
+      </c>
+      <c r="CE93">
+        <f t="shared" si="28"/>
+        <v>0.62877675700000002</v>
+      </c>
+      <c r="CF93">
+        <f t="shared" si="28"/>
+        <v>0.62303375699999997</v>
+      </c>
+      <c r="CG93">
+        <f t="shared" si="28"/>
+        <v>0.61729075700000002</v>
+      </c>
+      <c r="CH93">
+        <f t="shared" si="28"/>
+        <v>0.61154775699999997</v>
+      </c>
+      <c r="CI93">
+        <f t="shared" si="28"/>
+        <v>0.60580475700000003</v>
+      </c>
+      <c r="CJ93">
+        <f t="shared" si="28"/>
+        <v>0.60006175699999997</v>
+      </c>
+      <c r="CK93">
+        <f t="shared" si="28"/>
+        <v>0.59431875700000003</v>
+      </c>
+      <c r="CL93">
+        <f t="shared" si="28"/>
+        <v>0.58857575699999998</v>
+      </c>
+      <c r="CM93">
+        <f t="shared" si="28"/>
+        <v>0.58283275700000003</v>
+      </c>
+      <c r="CN93">
+        <f t="shared" si="28"/>
+        <v>0.57708975699999998</v>
+      </c>
+      <c r="CO93">
+        <f t="shared" si="28"/>
+        <v>0.57134675700000004</v>
+      </c>
+      <c r="CP93">
+        <f t="shared" si="28"/>
+        <v>0.56560375699999998</v>
+      </c>
+      <c r="CQ93">
+        <f t="shared" si="28"/>
+        <v>0.55986075700000004</v>
+      </c>
+      <c r="CR93">
+        <f t="shared" si="28"/>
+        <v>0.55411775699999999</v>
+      </c>
+      <c r="CS93">
+        <f t="shared" si="28"/>
+        <v>0.54837475700000005</v>
+      </c>
+      <c r="CT93">
+        <f t="shared" si="28"/>
+        <v>0.54263175699999999</v>
+      </c>
+      <c r="CU93">
+        <f t="shared" si="28"/>
+        <v>0.53688875700000005</v>
+      </c>
+      <c r="CV93">
+        <f t="shared" si="28"/>
+        <v>0.531145757</v>
+      </c>
+      <c r="CW93">
+        <f t="shared" si="28"/>
+        <v>0.52540275699999994</v>
+      </c>
+      <c r="CX93">
+        <f t="shared" si="28"/>
+        <v>0.519659757</v>
+      </c>
+      <c r="CY93">
+        <f t="shared" si="28"/>
+        <v>0.51391675700000006</v>
+      </c>
+      <c r="CZ93">
+        <f t="shared" si="28"/>
+        <v>0.508173757</v>
+      </c>
+      <c r="DA93">
+        <f t="shared" si="28"/>
+        <v>0.50243075699999995</v>
+      </c>
+      <c r="DB93">
+        <f t="shared" si="28"/>
+        <v>0.49668775700000001</v>
+      </c>
+      <c r="DC93">
+        <f t="shared" si="28"/>
+        <v>0.49094475700000001</v>
+      </c>
+      <c r="DD93">
+        <f t="shared" si="28"/>
+        <v>0.48520175700000001</v>
+      </c>
+      <c r="DE93">
+        <f t="shared" si="28"/>
+        <v>0.47945875700000001</v>
+      </c>
+      <c r="DF93">
+        <f t="shared" si="28"/>
+        <v>0.47371575700000002</v>
+      </c>
+      <c r="DG93">
+        <f t="shared" si="28"/>
+        <v>0.46797275700000002</v>
+      </c>
+      <c r="DH93">
+        <f t="shared" si="28"/>
+        <v>0.46222975700000002</v>
+      </c>
+      <c r="DI93">
+        <f t="shared" si="28"/>
+        <v>0.45648675700000002</v>
+      </c>
+      <c r="DJ93">
+        <f t="shared" si="28"/>
+        <v>0.45074375700000002</v>
+      </c>
+      <c r="DK93">
+        <f t="shared" si="28"/>
+        <v>0.44500075700000002</v>
+      </c>
+      <c r="DL93">
+        <f t="shared" si="28"/>
+        <v>0.43925775700000003</v>
+      </c>
+      <c r="DM93">
+        <f t="shared" si="28"/>
+        <v>0.43351475699999997</v>
+      </c>
+      <c r="DN93">
+        <f t="shared" si="28"/>
+        <v>0.42777175700000003</v>
+      </c>
+      <c r="DO93">
+        <f t="shared" si="28"/>
+        <v>0.42202875700000003</v>
+      </c>
+      <c r="DP93">
+        <f t="shared" si="28"/>
+        <v>0.41628575700000003</v>
+      </c>
+      <c r="DQ93">
+        <f t="shared" si="28"/>
+        <v>0.41054275700000004</v>
+      </c>
+      <c r="DR93">
+        <f t="shared" si="28"/>
+        <v>0.40479975700000004</v>
+      </c>
+      <c r="DS93">
+        <f t="shared" si="28"/>
+        <v>0.39905675699999998</v>
+      </c>
+      <c r="DT93">
+        <f t="shared" si="28"/>
+        <v>0.39331375699999999</v>
+      </c>
+      <c r="DU93">
+        <f t="shared" si="28"/>
+        <v>0.38757075699999999</v>
+      </c>
+      <c r="DV93">
+        <f t="shared" si="28"/>
+        <v>0.38182775699999999</v>
+      </c>
+      <c r="DW93">
+        <f t="shared" si="28"/>
+        <v>0.37608475699999999</v>
+      </c>
+      <c r="DX93">
+        <f t="shared" si="28"/>
+        <v>0.37034175699999999</v>
+      </c>
+      <c r="DY93">
+        <f t="shared" si="28"/>
+        <v>0.364598757</v>
+      </c>
+      <c r="DZ93">
+        <f t="shared" si="28"/>
+        <v>0.358855757</v>
+      </c>
+      <c r="EA93">
+        <f t="shared" si="28"/>
+        <v>0.353112757</v>
+      </c>
+      <c r="EB93">
+        <f t="shared" si="28"/>
+        <v>0.347369757</v>
+      </c>
+      <c r="EC93">
+        <f t="shared" si="28"/>
+        <v>0.341626757</v>
+      </c>
+      <c r="ED93">
+        <f t="shared" si="28"/>
+        <v>0.33588375700000001</v>
+      </c>
+      <c r="EE93">
+        <f t="shared" si="28"/>
+        <v>0.33014075700000001</v>
+      </c>
+      <c r="EF93">
+        <f t="shared" si="28"/>
+        <v>0.32439775700000001</v>
+      </c>
+      <c r="EG93">
+        <f t="shared" si="28"/>
+        <v>0.31865475700000001</v>
+      </c>
+      <c r="EH93">
+        <f t="shared" si="28"/>
+        <v>0.31291175700000001</v>
+      </c>
+      <c r="EI93">
+        <f t="shared" si="28"/>
+        <v>0.30716875700000001</v>
+      </c>
+      <c r="EJ93">
+        <f t="shared" si="28"/>
+        <v>0.30142575700000002</v>
+      </c>
+      <c r="EK93">
+        <f t="shared" ref="EK92:EV93" si="29">-0.005743*(EK$1-2023)+$BW93</f>
+        <v>0.29568275700000002</v>
+      </c>
+      <c r="EL93">
+        <f t="shared" si="29"/>
+        <v>0.28993975700000002</v>
+      </c>
+      <c r="EM93">
+        <f t="shared" si="29"/>
+        <v>0.28419675700000002</v>
+      </c>
+      <c r="EN93">
+        <f t="shared" si="29"/>
+        <v>0.27845375700000002</v>
+      </c>
+      <c r="EO93">
+        <f t="shared" si="29"/>
+        <v>0.27271075700000003</v>
+      </c>
+      <c r="EP93">
+        <f t="shared" si="29"/>
+        <v>0.26696775700000003</v>
+      </c>
+      <c r="EQ93">
+        <f t="shared" si="29"/>
+        <v>0.26122475700000003</v>
+      </c>
+      <c r="ER93">
+        <f t="shared" si="29"/>
+        <v>0.25548175700000003</v>
+      </c>
+      <c r="ES93">
+        <f t="shared" si="29"/>
+        <v>0.24973875700000003</v>
+      </c>
+      <c r="ET93">
+        <f t="shared" si="29"/>
+        <v>0.24399575700000004</v>
+      </c>
+      <c r="EU93">
+        <f t="shared" si="29"/>
+        <v>0.23825275700000004</v>
+      </c>
+      <c r="EV93">
+        <f t="shared" si="29"/>
+        <v>0.23250975700000004</v>
+      </c>
     </row>
-    <row r="94" spans="1:75">
+    <row r="94" spans="1:152">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -29065,7 +34234,7 @@
         <v>0.79720496100000005</v>
       </c>
     </row>
-    <row r="95" spans="1:75">
+    <row r="95" spans="1:152">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -29262,7 +34431,7 @@
         <v>0.80542066400000001</v>
       </c>
     </row>
-    <row r="96" spans="1:75">
+    <row r="96" spans="1:152">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -29459,7 +34628,7 @@
         <v>0.80159196499999996</v>
       </c>
     </row>
-    <row r="97" spans="1:75">
+    <row r="97" spans="1:152">
       <c r="A97" t="s">
         <v>202</v>
       </c>
@@ -29656,7 +34825,7 @@
         <v>0.80784983600000004</v>
       </c>
     </row>
-    <row r="98" spans="1:75">
+    <row r="98" spans="1:152">
       <c r="A98" t="s">
         <v>203</v>
       </c>
@@ -29853,7 +35022,7 @@
         <v>0.81220305599999998</v>
       </c>
     </row>
-    <row r="99" spans="1:75">
+    <row r="99" spans="1:152">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -30053,7 +35222,7 @@
         <v>0.784566227</v>
       </c>
     </row>
-    <row r="100" spans="1:75">
+    <row r="100" spans="1:152">
       <c r="A100" t="s">
         <v>205</v>
       </c>
@@ -30250,7 +35419,7 @@
         <v>0.71756063800000003</v>
       </c>
     </row>
-    <row r="101" spans="1:75">
+    <row r="101" spans="1:152">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -30446,8 +35615,116 @@
       <c r="BW101">
         <v>0.51700536399999997</v>
       </c>
+      <c r="BX101">
+        <f>0.003743*(BX$1-2023)+$BW101</f>
+        <v>0.52074836400000002</v>
+      </c>
+      <c r="BY101">
+        <f t="shared" ref="BY100:EJ101" si="30">0.003743*(BY$1-2023)+$BW101</f>
+        <v>0.52449136399999996</v>
+      </c>
+      <c r="BZ101">
+        <f t="shared" si="30"/>
+        <v>0.52823436400000001</v>
+      </c>
+      <c r="CA101">
+        <f t="shared" si="30"/>
+        <v>0.53197736399999995</v>
+      </c>
+      <c r="CB101">
+        <f t="shared" si="30"/>
+        <v>0.535720364</v>
+      </c>
+      <c r="CC101">
+        <f t="shared" si="30"/>
+        <v>0.53946336399999995</v>
+      </c>
+      <c r="CD101">
+        <f t="shared" si="30"/>
+        <v>0.543206364</v>
+      </c>
+      <c r="CE101">
+        <f t="shared" si="30"/>
+        <v>0.54694936399999994</v>
+      </c>
+      <c r="CF101">
+        <f t="shared" si="30"/>
+        <v>0.55069236399999999</v>
+      </c>
+      <c r="CG101">
+        <f t="shared" si="30"/>
+        <v>0.55443536399999993</v>
+      </c>
+      <c r="CH101">
+        <f t="shared" si="30"/>
+        <v>0.55817836399999998</v>
+      </c>
+      <c r="CI101">
+        <f t="shared" si="30"/>
+        <v>0.56192136399999992</v>
+      </c>
+      <c r="CJ101">
+        <f t="shared" si="30"/>
+        <v>0.56566436399999998</v>
+      </c>
+      <c r="CK101">
+        <f t="shared" si="30"/>
+        <v>0.56940736399999992</v>
+      </c>
+      <c r="CL101">
+        <f t="shared" si="30"/>
+        <v>0.57315036399999997</v>
+      </c>
+      <c r="CM101">
+        <f t="shared" si="30"/>
+        <v>0.57689336400000002</v>
+      </c>
+      <c r="CN101">
+        <f t="shared" si="30"/>
+        <v>0.58063636399999996</v>
+      </c>
+      <c r="CO101">
+        <f t="shared" si="30"/>
+        <v>0.5843793639999999</v>
+      </c>
+      <c r="CP101">
+        <f t="shared" si="30"/>
+        <v>0.58812236399999995</v>
+      </c>
+      <c r="CQ101">
+        <f t="shared" si="30"/>
+        <v>0.591865364</v>
+      </c>
+      <c r="CR101">
+        <f t="shared" si="30"/>
+        <v>0.59560836399999995</v>
+      </c>
+      <c r="CS101">
+        <f t="shared" si="30"/>
+        <v>0.599351364</v>
+      </c>
+      <c r="CT101">
+        <f t="shared" si="30"/>
+        <v>0.60309436399999994</v>
+      </c>
+      <c r="CU101">
+        <f t="shared" si="30"/>
+        <v>0.60683736399999999</v>
+      </c>
+      <c r="CV101">
+        <f t="shared" si="30"/>
+        <v>0.61058036399999993</v>
+      </c>
+      <c r="CW101">
+        <f t="shared" si="30"/>
+        <v>0.61432336399999998</v>
+      </c>
+      <c r="CX101">
+        <f t="shared" si="30"/>
+        <v>0.61806636399999992</v>
+      </c>
     </row>
-    <row r="102" spans="1:75">
+    <row r="102" spans="1:152">
       <c r="A102" t="s">
         <v>207</v>
       </c>
@@ -30577,8 +35854,116 @@
       <c r="BW102">
         <v>0.26561602600000001</v>
       </c>
+      <c r="BX102">
+        <f>-0.006039*(BX$1-2023)+$BW102</f>
+        <v>0.25957702599999999</v>
+      </c>
+      <c r="BY102">
+        <f t="shared" ref="BY102:EJ103" si="31">-0.006039*(BY$1-2023)+$BW102</f>
+        <v>0.25353802600000003</v>
+      </c>
+      <c r="BZ102">
+        <f t="shared" si="31"/>
+        <v>0.24749902600000001</v>
+      </c>
+      <c r="CA102">
+        <f t="shared" si="31"/>
+        <v>0.24146002599999999</v>
+      </c>
+      <c r="CB102">
+        <f t="shared" si="31"/>
+        <v>0.23542102600000001</v>
+      </c>
+      <c r="CC102">
+        <f t="shared" si="31"/>
+        <v>0.22938202600000002</v>
+      </c>
+      <c r="CD102">
+        <f t="shared" si="31"/>
+        <v>0.223343026</v>
+      </c>
+      <c r="CE102">
+        <f t="shared" si="31"/>
+        <v>0.21730402600000001</v>
+      </c>
+      <c r="CF102">
+        <f t="shared" si="31"/>
+        <v>0.21126502599999999</v>
+      </c>
+      <c r="CG102">
+        <f t="shared" si="31"/>
+        <v>0.20522602600000001</v>
+      </c>
+      <c r="CH102">
+        <f t="shared" si="31"/>
+        <v>0.19918702599999999</v>
+      </c>
+      <c r="CI102">
+        <f t="shared" si="31"/>
+        <v>0.193148026</v>
+      </c>
+      <c r="CJ102">
+        <f t="shared" si="31"/>
+        <v>0.18710902600000001</v>
+      </c>
+      <c r="CK102">
+        <f t="shared" si="31"/>
+        <v>0.181070026</v>
+      </c>
+      <c r="CL102">
+        <f t="shared" si="31"/>
+        <v>0.17503102600000001</v>
+      </c>
+      <c r="CM102">
+        <f t="shared" si="31"/>
+        <v>0.16899202600000002</v>
+      </c>
+      <c r="CN102">
+        <f t="shared" si="31"/>
+        <v>0.162953026</v>
+      </c>
+      <c r="CO102">
+        <f t="shared" si="31"/>
+        <v>0.15691402599999998</v>
+      </c>
+      <c r="CP102">
+        <f t="shared" si="31"/>
+        <v>0.15087502600000002</v>
+      </c>
+      <c r="CQ102">
+        <f t="shared" si="31"/>
+        <v>0.14483602600000001</v>
+      </c>
+      <c r="CR102">
+        <f t="shared" si="31"/>
+        <v>0.13879702599999999</v>
+      </c>
+      <c r="CS102">
+        <f t="shared" si="31"/>
+        <v>0.132758026</v>
+      </c>
+      <c r="CT102">
+        <f t="shared" si="31"/>
+        <v>0.12671902600000001</v>
+      </c>
+      <c r="CU102">
+        <f t="shared" si="31"/>
+        <v>0.120680026</v>
+      </c>
+      <c r="CV102">
+        <f t="shared" si="31"/>
+        <v>0.11464102600000001</v>
+      </c>
+      <c r="CW102">
+        <f t="shared" si="31"/>
+        <v>0.10860202599999999</v>
+      </c>
+      <c r="CX102">
+        <f t="shared" si="31"/>
+        <v>0.102563026</v>
+      </c>
     </row>
-    <row r="103" spans="1:75">
+    <row r="103" spans="1:152">
       <c r="A103" t="s">
         <v>208</v>
       </c>
@@ -30708,8 +36093,316 @@
       <c r="BW103">
         <v>0.71173011399999997</v>
       </c>
+      <c r="BX103">
+        <f>-0.006039*(BX$1-2023)+$BW103</f>
+        <v>0.70569111399999995</v>
+      </c>
+      <c r="BY103">
+        <f t="shared" si="31"/>
+        <v>0.69965211399999994</v>
+      </c>
+      <c r="BZ103">
+        <f t="shared" si="31"/>
+        <v>0.69361311399999992</v>
+      </c>
+      <c r="CA103">
+        <f t="shared" si="31"/>
+        <v>0.68757411400000001</v>
+      </c>
+      <c r="CB103">
+        <f t="shared" si="31"/>
+        <v>0.681535114</v>
+      </c>
+      <c r="CC103">
+        <f t="shared" si="31"/>
+        <v>0.67549611399999998</v>
+      </c>
+      <c r="CD103">
+        <f t="shared" si="31"/>
+        <v>0.66945711399999996</v>
+      </c>
+      <c r="CE103">
+        <f t="shared" si="31"/>
+        <v>0.66341811399999995</v>
+      </c>
+      <c r="CF103">
+        <f t="shared" si="31"/>
+        <v>0.65737911399999993</v>
+      </c>
+      <c r="CG103">
+        <f t="shared" si="31"/>
+        <v>0.65134011399999991</v>
+      </c>
+      <c r="CH103">
+        <f t="shared" si="31"/>
+        <v>0.64530111400000001</v>
+      </c>
+      <c r="CI103">
+        <f t="shared" si="31"/>
+        <v>0.63926211399999999</v>
+      </c>
+      <c r="CJ103">
+        <f t="shared" si="31"/>
+        <v>0.63322311399999998</v>
+      </c>
+      <c r="CK103">
+        <f t="shared" si="31"/>
+        <v>0.62718411399999996</v>
+      </c>
+      <c r="CL103">
+        <f t="shared" si="31"/>
+        <v>0.62114511399999994</v>
+      </c>
+      <c r="CM103">
+        <f t="shared" si="31"/>
+        <v>0.61510611399999993</v>
+      </c>
+      <c r="CN103">
+        <f t="shared" si="31"/>
+        <v>0.60906711399999991</v>
+      </c>
+      <c r="CO103">
+        <f t="shared" si="31"/>
+        <v>0.603028114</v>
+      </c>
+      <c r="CP103">
+        <f t="shared" si="31"/>
+        <v>0.59698911399999999</v>
+      </c>
+      <c r="CQ103">
+        <f t="shared" si="31"/>
+        <v>0.59095011399999997</v>
+      </c>
+      <c r="CR103">
+        <f t="shared" si="31"/>
+        <v>0.58491111399999995</v>
+      </c>
+      <c r="CS103">
+        <f t="shared" si="31"/>
+        <v>0.57887211399999994</v>
+      </c>
+      <c r="CT103">
+        <f t="shared" si="31"/>
+        <v>0.57283311400000003</v>
+      </c>
+      <c r="CU103">
+        <f t="shared" si="31"/>
+        <v>0.5667941139999999</v>
+      </c>
+      <c r="CV103">
+        <f t="shared" si="31"/>
+        <v>0.560755114</v>
+      </c>
+      <c r="CW103">
+        <f t="shared" si="31"/>
+        <v>0.55471611399999998</v>
+      </c>
+      <c r="CX103">
+        <f t="shared" si="31"/>
+        <v>0.54867711399999997</v>
+      </c>
+      <c r="CY103">
+        <f t="shared" si="31"/>
+        <v>0.54263811399999995</v>
+      </c>
+      <c r="CZ103">
+        <f t="shared" si="31"/>
+        <v>0.53659911399999993</v>
+      </c>
+      <c r="DA103">
+        <f t="shared" si="31"/>
+        <v>0.53056011400000003</v>
+      </c>
+      <c r="DB103">
+        <f t="shared" si="31"/>
+        <v>0.5245211139999999</v>
+      </c>
+      <c r="DC103">
+        <f t="shared" si="31"/>
+        <v>0.51848211399999999</v>
+      </c>
+      <c r="DD103">
+        <f t="shared" si="31"/>
+        <v>0.51244311399999998</v>
+      </c>
+      <c r="DE103">
+        <f t="shared" si="31"/>
+        <v>0.50640411399999996</v>
+      </c>
+      <c r="DF103">
+        <f t="shared" si="31"/>
+        <v>0.50036511399999994</v>
+      </c>
+      <c r="DG103">
+        <f t="shared" si="31"/>
+        <v>0.49432611399999993</v>
+      </c>
+      <c r="DH103">
+        <f t="shared" si="31"/>
+        <v>0.48828711399999997</v>
+      </c>
+      <c r="DI103">
+        <f t="shared" si="31"/>
+        <v>0.48224811400000001</v>
+      </c>
+      <c r="DJ103">
+        <f t="shared" si="31"/>
+        <v>0.47620911399999999</v>
+      </c>
+      <c r="DK103">
+        <f t="shared" si="31"/>
+        <v>0.47017011399999997</v>
+      </c>
+      <c r="DL103">
+        <f t="shared" si="31"/>
+        <v>0.46413111399999996</v>
+      </c>
+      <c r="DM103">
+        <f t="shared" si="31"/>
+        <v>0.45809211399999994</v>
+      </c>
+      <c r="DN103">
+        <f t="shared" si="31"/>
+        <v>0.45205311399999998</v>
+      </c>
+      <c r="DO103">
+        <f t="shared" si="31"/>
+        <v>0.44601411399999996</v>
+      </c>
+      <c r="DP103">
+        <f t="shared" si="31"/>
+        <v>0.43997511399999994</v>
+      </c>
+      <c r="DQ103">
+        <f t="shared" si="31"/>
+        <v>0.43393611399999998</v>
+      </c>
+      <c r="DR103">
+        <f t="shared" si="31"/>
+        <v>0.42789711399999997</v>
+      </c>
+      <c r="DS103">
+        <f t="shared" si="31"/>
+        <v>0.42185811399999995</v>
+      </c>
+      <c r="DT103">
+        <f t="shared" si="31"/>
+        <v>0.41581911399999999</v>
+      </c>
+      <c r="DU103">
+        <f t="shared" si="31"/>
+        <v>0.40978011399999997</v>
+      </c>
+      <c r="DV103">
+        <f t="shared" si="31"/>
+        <v>0.40374111399999996</v>
+      </c>
+      <c r="DW103">
+        <f t="shared" si="31"/>
+        <v>0.39770211399999994</v>
+      </c>
+      <c r="DX103">
+        <f t="shared" si="31"/>
+        <v>0.39166311399999998</v>
+      </c>
+      <c r="DY103">
+        <f t="shared" si="31"/>
+        <v>0.38562411399999996</v>
+      </c>
+      <c r="DZ103">
+        <f t="shared" si="31"/>
+        <v>0.37958511399999995</v>
+      </c>
+      <c r="EA103">
+        <f t="shared" si="31"/>
+        <v>0.37354611399999998</v>
+      </c>
+      <c r="EB103">
+        <f t="shared" si="31"/>
+        <v>0.36750711399999997</v>
+      </c>
+      <c r="EC103">
+        <f t="shared" si="31"/>
+        <v>0.36146811399999995</v>
+      </c>
+      <c r="ED103">
+        <f t="shared" si="31"/>
+        <v>0.35542911399999999</v>
+      </c>
+      <c r="EE103">
+        <f t="shared" si="31"/>
+        <v>0.34939011399999997</v>
+      </c>
+      <c r="EF103">
+        <f t="shared" si="31"/>
+        <v>0.34335111399999996</v>
+      </c>
+      <c r="EG103">
+        <f t="shared" si="31"/>
+        <v>0.33731211399999994</v>
+      </c>
+      <c r="EH103">
+        <f t="shared" si="31"/>
+        <v>0.33127311399999998</v>
+      </c>
+      <c r="EI103">
+        <f t="shared" si="31"/>
+        <v>0.32523411399999996</v>
+      </c>
+      <c r="EJ103">
+        <f t="shared" si="31"/>
+        <v>0.31919511399999995</v>
+      </c>
+      <c r="EK103">
+        <f t="shared" ref="EK102:EV103" si="32">-0.006039*(EK$1-2023)+$BW103</f>
+        <v>0.31315611399999999</v>
+      </c>
+      <c r="EL103">
+        <f t="shared" si="32"/>
+        <v>0.30711711399999997</v>
+      </c>
+      <c r="EM103">
+        <f t="shared" si="32"/>
+        <v>0.30107811399999995</v>
+      </c>
+      <c r="EN103">
+        <f t="shared" si="32"/>
+        <v>0.29503911399999994</v>
+      </c>
+      <c r="EO103">
+        <f t="shared" si="32"/>
+        <v>0.28900011399999997</v>
+      </c>
+      <c r="EP103">
+        <f t="shared" si="32"/>
+        <v>0.28296111399999996</v>
+      </c>
+      <c r="EQ103">
+        <f t="shared" si="32"/>
+        <v>0.27692211399999994</v>
+      </c>
+      <c r="ER103">
+        <f t="shared" si="32"/>
+        <v>0.27088311399999998</v>
+      </c>
+      <c r="ES103">
+        <f t="shared" si="32"/>
+        <v>0.26484411399999996</v>
+      </c>
+      <c r="ET103">
+        <f t="shared" si="32"/>
+        <v>0.25880511399999995</v>
+      </c>
+      <c r="EU103">
+        <f t="shared" si="32"/>
+        <v>0.25276611399999999</v>
+      </c>
+      <c r="EV103">
+        <f t="shared" si="32"/>
+        <v>0.24672711399999997</v>
+      </c>
     </row>
-    <row r="104" spans="1:75">
+    <row r="104" spans="1:152">
       <c r="A104" t="s">
         <v>209</v>
       </c>
@@ -30837,7 +36530,7 @@
         <v>0.91742864899999998</v>
       </c>
     </row>
-    <row r="105" spans="1:75">
+    <row r="105" spans="1:152">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -30968,7 +36661,7 @@
         <v>0.94649900600000003</v>
       </c>
     </row>
-    <row r="106" spans="1:75">
+    <row r="106" spans="1:152">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -31090,7 +36783,7 @@
         <v>0.95314973400000003</v>
       </c>
     </row>
-    <row r="107" spans="1:75">
+    <row r="107" spans="1:152">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -31209,7 +36902,7 @@
         <v>0.94537629000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:75">
+    <row r="108" spans="1:152">
       <c r="A108" t="s">
         <v>213</v>
       </c>
@@ -31337,7 +37030,7 @@
         <v>0.938117125</v>
       </c>
     </row>
-    <row r="109" spans="1:75">
+    <row r="109" spans="1:152">
       <c r="A109" t="s">
         <v>214</v>
       </c>
@@ -31468,7 +37161,7 @@
         <v>0.90948699499999996</v>
       </c>
     </row>
-    <row r="110" spans="1:75">
+    <row r="110" spans="1:152">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -31599,7 +37292,7 @@
         <v>0.85604586500000002</v>
       </c>
     </row>
-    <row r="111" spans="1:75">
+    <row r="111" spans="1:152">
       <c r="A111" t="s">
         <v>216</v>
       </c>
@@ -31730,7 +37423,7 @@
         <v>0.66620240200000003</v>
       </c>
     </row>
-    <row r="112" spans="1:75">
+    <row r="112" spans="1:152">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -31860,8 +37553,52 @@
       <c r="BW112">
         <v>0.16829421999999999</v>
       </c>
+      <c r="BX112">
+        <f>-0.005743*(BX$1-2023)+$BW112</f>
+        <v>0.16255122</v>
+      </c>
+      <c r="BY112">
+        <f t="shared" ref="BY112:EJ113" si="33">-0.005743*(BY$1-2023)+$BW112</f>
+        <v>0.15680822</v>
+      </c>
+      <c r="BZ112">
+        <f t="shared" si="33"/>
+        <v>0.15106522</v>
+      </c>
+      <c r="CA112">
+        <f t="shared" si="33"/>
+        <v>0.14532222</v>
+      </c>
+      <c r="CB112">
+        <f t="shared" si="33"/>
+        <v>0.13957922</v>
+      </c>
+      <c r="CC112">
+        <f t="shared" si="33"/>
+        <v>0.13383622000000001</v>
+      </c>
+      <c r="CD112">
+        <f t="shared" si="33"/>
+        <v>0.12809322000000001</v>
+      </c>
+      <c r="CE112">
+        <f t="shared" si="33"/>
+        <v>0.12235022</v>
+      </c>
+      <c r="CF112">
+        <f t="shared" si="33"/>
+        <v>0.11660722</v>
+      </c>
+      <c r="CG112">
+        <f t="shared" si="33"/>
+        <v>0.11086422</v>
+      </c>
+      <c r="CH112">
+        <f t="shared" si="33"/>
+        <v>0.10512122</v>
+      </c>
     </row>
-    <row r="113" spans="1:75">
+    <row r="113" spans="1:135">
       <c r="A113" t="s">
         <v>218</v>
       </c>
@@ -31991,8 +37728,236 @@
       <c r="BW113">
         <v>0.43043114399999999</v>
       </c>
+      <c r="BX113">
+        <f>-0.005743*(BX$1-2023)+$BW113</f>
+        <v>0.42468814399999999</v>
+      </c>
+      <c r="BY113">
+        <f t="shared" si="33"/>
+        <v>0.41894514399999999</v>
+      </c>
+      <c r="BZ113">
+        <f t="shared" si="33"/>
+        <v>0.41320214399999999</v>
+      </c>
+      <c r="CA113">
+        <f t="shared" si="33"/>
+        <v>0.407459144</v>
+      </c>
+      <c r="CB113">
+        <f t="shared" si="33"/>
+        <v>0.401716144</v>
+      </c>
+      <c r="CC113">
+        <f t="shared" si="33"/>
+        <v>0.395973144</v>
+      </c>
+      <c r="CD113">
+        <f t="shared" si="33"/>
+        <v>0.390230144</v>
+      </c>
+      <c r="CE113">
+        <f t="shared" si="33"/>
+        <v>0.384487144</v>
+      </c>
+      <c r="CF113">
+        <f t="shared" si="33"/>
+        <v>0.378744144</v>
+      </c>
+      <c r="CG113">
+        <f t="shared" si="33"/>
+        <v>0.37300114400000001</v>
+      </c>
+      <c r="CH113">
+        <f t="shared" si="33"/>
+        <v>0.36725814400000001</v>
+      </c>
+      <c r="CI113">
+        <f t="shared" si="33"/>
+        <v>0.36151514399999995</v>
+      </c>
+      <c r="CJ113">
+        <f t="shared" si="33"/>
+        <v>0.35577214400000001</v>
+      </c>
+      <c r="CK113">
+        <f t="shared" si="33"/>
+        <v>0.35002914399999996</v>
+      </c>
+      <c r="CL113">
+        <f t="shared" si="33"/>
+        <v>0.34428614400000002</v>
+      </c>
+      <c r="CM113">
+        <f t="shared" si="33"/>
+        <v>0.33854314399999996</v>
+      </c>
+      <c r="CN113">
+        <f t="shared" si="33"/>
+        <v>0.33280014400000002</v>
+      </c>
+      <c r="CO113">
+        <f t="shared" si="33"/>
+        <v>0.32705714399999997</v>
+      </c>
+      <c r="CP113">
+        <f t="shared" si="33"/>
+        <v>0.32131414400000002</v>
+      </c>
+      <c r="CQ113">
+        <f t="shared" si="33"/>
+        <v>0.31557114399999997</v>
+      </c>
+      <c r="CR113">
+        <f t="shared" si="33"/>
+        <v>0.30982814399999997</v>
+      </c>
+      <c r="CS113">
+        <f t="shared" si="33"/>
+        <v>0.30408514399999997</v>
+      </c>
+      <c r="CT113">
+        <f t="shared" si="33"/>
+        <v>0.29834214400000003</v>
+      </c>
+      <c r="CU113">
+        <f t="shared" si="33"/>
+        <v>0.29259914399999998</v>
+      </c>
+      <c r="CV113">
+        <f t="shared" si="33"/>
+        <v>0.28685614399999998</v>
+      </c>
+      <c r="CW113">
+        <f t="shared" si="33"/>
+        <v>0.28111314399999998</v>
+      </c>
+      <c r="CX113">
+        <f t="shared" si="33"/>
+        <v>0.27537014399999998</v>
+      </c>
+      <c r="CY113">
+        <f t="shared" si="33"/>
+        <v>0.26962714399999999</v>
+      </c>
+      <c r="CZ113">
+        <f t="shared" si="33"/>
+        <v>0.26388414399999999</v>
+      </c>
+      <c r="DA113">
+        <f t="shared" si="33"/>
+        <v>0.25814114399999999</v>
+      </c>
+      <c r="DB113">
+        <f t="shared" si="33"/>
+        <v>0.25239814399999999</v>
+      </c>
+      <c r="DC113">
+        <f t="shared" si="33"/>
+        <v>0.24665514399999999</v>
+      </c>
+      <c r="DD113">
+        <f t="shared" si="33"/>
+        <v>0.24091214399999999</v>
+      </c>
+      <c r="DE113">
+        <f t="shared" si="33"/>
+        <v>0.235169144</v>
+      </c>
+      <c r="DF113">
+        <f t="shared" si="33"/>
+        <v>0.229426144</v>
+      </c>
+      <c r="DG113">
+        <f t="shared" si="33"/>
+        <v>0.223683144</v>
+      </c>
+      <c r="DH113">
+        <f t="shared" si="33"/>
+        <v>0.217940144</v>
+      </c>
+      <c r="DI113">
+        <f t="shared" si="33"/>
+        <v>0.212197144</v>
+      </c>
+      <c r="DJ113">
+        <f t="shared" si="33"/>
+        <v>0.20645414400000001</v>
+      </c>
+      <c r="DK113">
+        <f t="shared" si="33"/>
+        <v>0.20071114400000001</v>
+      </c>
+      <c r="DL113">
+        <f t="shared" si="33"/>
+        <v>0.19496814399999998</v>
+      </c>
+      <c r="DM113">
+        <f t="shared" si="33"/>
+        <v>0.18922514399999998</v>
+      </c>
+      <c r="DN113">
+        <f t="shared" si="33"/>
+        <v>0.18348214399999999</v>
+      </c>
+      <c r="DO113">
+        <f t="shared" si="33"/>
+        <v>0.17773914400000002</v>
+      </c>
+      <c r="DP113">
+        <f t="shared" si="33"/>
+        <v>0.17199614400000002</v>
+      </c>
+      <c r="DQ113">
+        <f t="shared" si="33"/>
+        <v>0.16625314400000002</v>
+      </c>
+      <c r="DR113">
+        <f t="shared" si="33"/>
+        <v>0.16051014400000002</v>
+      </c>
+      <c r="DS113">
+        <f t="shared" si="33"/>
+        <v>0.15476714399999997</v>
+      </c>
+      <c r="DT113">
+        <f t="shared" si="33"/>
+        <v>0.14902414399999997</v>
+      </c>
+      <c r="DU113">
+        <f t="shared" si="33"/>
+        <v>0.14328114399999997</v>
+      </c>
+      <c r="DV113">
+        <f t="shared" si="33"/>
+        <v>0.13753814399999997</v>
+      </c>
+      <c r="DW113">
+        <f t="shared" si="33"/>
+        <v>0.13179514399999998</v>
+      </c>
+      <c r="DX113">
+        <f t="shared" si="33"/>
+        <v>0.12605214399999998</v>
+      </c>
+      <c r="DY113">
+        <f t="shared" si="33"/>
+        <v>0.12030914399999998</v>
+      </c>
+      <c r="DZ113">
+        <f t="shared" si="33"/>
+        <v>0.11456614399999998</v>
+      </c>
+      <c r="EA113">
+        <f t="shared" si="33"/>
+        <v>0.10882314399999998</v>
+      </c>
+      <c r="EB113">
+        <f t="shared" si="33"/>
+        <v>0.10308014399999998</v>
+      </c>
     </row>
-    <row r="114" spans="1:75">
+    <row r="114" spans="1:135">
       <c r="A114" t="s">
         <v>219</v>
       </c>
@@ -32120,7 +38085,7 @@
         <v>0.54014657300000002</v>
       </c>
     </row>
-    <row r="115" spans="1:75">
+    <row r="115" spans="1:135">
       <c r="A115" t="s">
         <v>220</v>
       </c>
@@ -32251,7 +38216,7 @@
         <v>0.58867808300000002</v>
       </c>
     </row>
-    <row r="116" spans="1:75">
+    <row r="116" spans="1:135">
       <c r="A116" t="s">
         <v>221</v>
       </c>
@@ -32373,7 +38338,7 @@
         <v>0.63777510599999998</v>
       </c>
     </row>
-    <row r="117" spans="1:75">
+    <row r="117" spans="1:135">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -32492,7 +38457,7 @@
         <v>0.65715652400000002</v>
       </c>
     </row>
-    <row r="118" spans="1:75">
+    <row r="118" spans="1:135">
       <c r="A118" t="s">
         <v>223</v>
       </c>
@@ -32620,7 +38585,7 @@
         <v>0.65371141499999996</v>
       </c>
     </row>
-    <row r="119" spans="1:75">
+    <row r="119" spans="1:135">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -32751,7 +38716,7 @@
         <v>0.62578538500000003</v>
       </c>
     </row>
-    <row r="120" spans="1:75">
+    <row r="120" spans="1:135">
       <c r="A120" t="s">
         <v>225</v>
       </c>
@@ -32881,8 +38846,72 @@
       <c r="BW120">
         <v>0.55771958099999996</v>
       </c>
+      <c r="BX120">
+        <f>0.003743*(BX$1-2023)+$BW120</f>
+        <v>0.56146258100000002</v>
+      </c>
+      <c r="BY120">
+        <f t="shared" ref="BY120:EJ121" si="34">0.003743*(BY$1-2023)+$BW120</f>
+        <v>0.56520558099999996</v>
+      </c>
+      <c r="BZ120">
+        <f t="shared" si="34"/>
+        <v>0.56894858100000001</v>
+      </c>
+      <c r="CA120">
+        <f t="shared" si="34"/>
+        <v>0.57269158099999995</v>
+      </c>
+      <c r="CB120">
+        <f t="shared" si="34"/>
+        <v>0.576434581</v>
+      </c>
+      <c r="CC120">
+        <f t="shared" si="34"/>
+        <v>0.58017758099999994</v>
+      </c>
+      <c r="CD120">
+        <f t="shared" si="34"/>
+        <v>0.58392058099999999</v>
+      </c>
+      <c r="CE120">
+        <f t="shared" si="34"/>
+        <v>0.58766358099999993</v>
+      </c>
+      <c r="CF120">
+        <f t="shared" si="34"/>
+        <v>0.59140658099999999</v>
+      </c>
+      <c r="CG120">
+        <f t="shared" si="34"/>
+        <v>0.59514958099999993</v>
+      </c>
+      <c r="CH120">
+        <f t="shared" si="34"/>
+        <v>0.59889258099999998</v>
+      </c>
+      <c r="CI120">
+        <f t="shared" si="34"/>
+        <v>0.60263558099999992</v>
+      </c>
+      <c r="CJ120">
+        <f t="shared" si="34"/>
+        <v>0.60637858099999997</v>
+      </c>
+      <c r="CK120">
+        <f t="shared" si="34"/>
+        <v>0.61012158099999991</v>
+      </c>
+      <c r="CL120">
+        <f t="shared" si="34"/>
+        <v>0.61386458099999996</v>
+      </c>
+      <c r="CM120">
+        <f t="shared" si="34"/>
+        <v>0.61760758099999991</v>
+      </c>
     </row>
-    <row r="121" spans="1:75">
+    <row r="121" spans="1:135">
       <c r="A121" t="s">
         <v>226</v>
       </c>
@@ -33011,6 +39040,246 @@
       </c>
       <c r="BW121">
         <v>0.39438433099999998</v>
+      </c>
+      <c r="BX121">
+        <f>0.003743*(BX$1-2023)+$BW121</f>
+        <v>0.39812733099999997</v>
+      </c>
+      <c r="BY121">
+        <f t="shared" si="34"/>
+        <v>0.40187033099999997</v>
+      </c>
+      <c r="BZ121">
+        <f t="shared" si="34"/>
+        <v>0.40561333099999997</v>
+      </c>
+      <c r="CA121">
+        <f t="shared" si="34"/>
+        <v>0.40935633099999996</v>
+      </c>
+      <c r="CB121">
+        <f t="shared" si="34"/>
+        <v>0.41309933099999996</v>
+      </c>
+      <c r="CC121">
+        <f t="shared" si="34"/>
+        <v>0.41684233099999995</v>
+      </c>
+      <c r="CD121">
+        <f t="shared" si="34"/>
+        <v>0.42058533099999995</v>
+      </c>
+      <c r="CE121">
+        <f t="shared" si="34"/>
+        <v>0.424328331</v>
+      </c>
+      <c r="CF121">
+        <f t="shared" si="34"/>
+        <v>0.42807133099999994</v>
+      </c>
+      <c r="CG121">
+        <f t="shared" si="34"/>
+        <v>0.431814331</v>
+      </c>
+      <c r="CH121">
+        <f t="shared" si="34"/>
+        <v>0.43555733099999999</v>
+      </c>
+      <c r="CI121">
+        <f t="shared" si="34"/>
+        <v>0.43930033099999999</v>
+      </c>
+      <c r="CJ121">
+        <f t="shared" si="34"/>
+        <v>0.44304333099999998</v>
+      </c>
+      <c r="CK121">
+        <f t="shared" si="34"/>
+        <v>0.44678633099999998</v>
+      </c>
+      <c r="CL121">
+        <f t="shared" si="34"/>
+        <v>0.45052933099999998</v>
+      </c>
+      <c r="CM121">
+        <f t="shared" si="34"/>
+        <v>0.45427233099999997</v>
+      </c>
+      <c r="CN121">
+        <f t="shared" si="34"/>
+        <v>0.45801533099999997</v>
+      </c>
+      <c r="CO121">
+        <f t="shared" si="34"/>
+        <v>0.46175833099999997</v>
+      </c>
+      <c r="CP121">
+        <f t="shared" si="34"/>
+        <v>0.46550133099999996</v>
+      </c>
+      <c r="CQ121">
+        <f t="shared" si="34"/>
+        <v>0.46924433099999996</v>
+      </c>
+      <c r="CR121">
+        <f t="shared" si="34"/>
+        <v>0.47298733099999996</v>
+      </c>
+      <c r="CS121">
+        <f t="shared" si="34"/>
+        <v>0.47673033099999995</v>
+      </c>
+      <c r="CT121">
+        <f t="shared" si="34"/>
+        <v>0.480473331</v>
+      </c>
+      <c r="CU121">
+        <f t="shared" si="34"/>
+        <v>0.48421633099999994</v>
+      </c>
+      <c r="CV121">
+        <f t="shared" si="34"/>
+        <v>0.487959331</v>
+      </c>
+      <c r="CW121">
+        <f t="shared" si="34"/>
+        <v>0.49170233099999994</v>
+      </c>
+      <c r="CX121">
+        <f t="shared" si="34"/>
+        <v>0.49544533099999999</v>
+      </c>
+      <c r="CY121">
+        <f t="shared" si="34"/>
+        <v>0.49918833099999999</v>
+      </c>
+      <c r="CZ121">
+        <f t="shared" si="34"/>
+        <v>0.50293133099999998</v>
+      </c>
+      <c r="DA121">
+        <f t="shared" si="34"/>
+        <v>0.50667433099999992</v>
+      </c>
+      <c r="DB121">
+        <f t="shared" si="34"/>
+        <v>0.51041733099999997</v>
+      </c>
+      <c r="DC121">
+        <f t="shared" si="34"/>
+        <v>0.51416033100000003</v>
+      </c>
+      <c r="DD121">
+        <f t="shared" si="34"/>
+        <v>0.51790333099999997</v>
+      </c>
+      <c r="DE121">
+        <f t="shared" si="34"/>
+        <v>0.52164633099999991</v>
+      </c>
+      <c r="DF121">
+        <f t="shared" si="34"/>
+        <v>0.52538933099999996</v>
+      </c>
+      <c r="DG121">
+        <f t="shared" si="34"/>
+        <v>0.52913233100000001</v>
+      </c>
+      <c r="DH121">
+        <f t="shared" si="34"/>
+        <v>0.53287533099999995</v>
+      </c>
+      <c r="DI121">
+        <f t="shared" si="34"/>
+        <v>0.536618331</v>
+      </c>
+      <c r="DJ121">
+        <f t="shared" si="34"/>
+        <v>0.54036133099999994</v>
+      </c>
+      <c r="DK121">
+        <f t="shared" si="34"/>
+        <v>0.544104331</v>
+      </c>
+      <c r="DL121">
+        <f t="shared" si="34"/>
+        <v>0.54784733099999994</v>
+      </c>
+      <c r="DM121">
+        <f t="shared" si="34"/>
+        <v>0.55159033099999999</v>
+      </c>
+      <c r="DN121">
+        <f t="shared" si="34"/>
+        <v>0.55533333099999993</v>
+      </c>
+      <c r="DO121">
+        <f t="shared" si="34"/>
+        <v>0.55907633099999998</v>
+      </c>
+      <c r="DP121">
+        <f t="shared" si="34"/>
+        <v>0.56281933100000003</v>
+      </c>
+      <c r="DQ121">
+        <f t="shared" si="34"/>
+        <v>0.56656233099999997</v>
+      </c>
+      <c r="DR121">
+        <f t="shared" si="34"/>
+        <v>0.57030533099999992</v>
+      </c>
+      <c r="DS121">
+        <f t="shared" si="34"/>
+        <v>0.57404833099999997</v>
+      </c>
+      <c r="DT121">
+        <f t="shared" si="34"/>
+        <v>0.57779133100000002</v>
+      </c>
+      <c r="DU121">
+        <f t="shared" si="34"/>
+        <v>0.58153433099999996</v>
+      </c>
+      <c r="DV121">
+        <f t="shared" si="34"/>
+        <v>0.5852773309999999</v>
+      </c>
+      <c r="DW121">
+        <f t="shared" si="34"/>
+        <v>0.58902033099999995</v>
+      </c>
+      <c r="DX121">
+        <f t="shared" si="34"/>
+        <v>0.592763331</v>
+      </c>
+      <c r="DY121">
+        <f t="shared" si="34"/>
+        <v>0.59650633099999995</v>
+      </c>
+      <c r="DZ121">
+        <f t="shared" si="34"/>
+        <v>0.600249331</v>
+      </c>
+      <c r="EA121">
+        <f t="shared" si="34"/>
+        <v>0.60399233099999994</v>
+      </c>
+      <c r="EB121">
+        <f t="shared" si="34"/>
+        <v>0.60773533099999999</v>
+      </c>
+      <c r="EC121">
+        <f t="shared" si="34"/>
+        <v>0.61147833099999993</v>
+      </c>
+      <c r="ED121">
+        <f t="shared" si="34"/>
+        <v>0.61522133099999998</v>
+      </c>
+      <c r="EE121">
+        <f t="shared" si="34"/>
+        <v>0.61896433099999992</v>
       </c>
     </row>
   </sheetData>
@@ -33026,9 +39295,9 @@
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -33161,11 +39430,11 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15:H215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="108" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="108" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:206">
@@ -39856,7 +46125,7 @@
         <v>84368700000000</v>
       </c>
     </row>
-    <row r="14" spans="1:206" s="3" customFormat="1" ht="120">
+    <row r="14" spans="1:206" s="3" customFormat="1" ht="114.15">
       <c r="A14" s="3" t="s">
         <v>227</v>
       </c>
@@ -45724,13 +51993,13 @@
   <dimension ref="A1:BB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="36" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54">
@@ -48268,10 +54537,10 @@
       <selection pane="bottomRight" activeCell="BB1" sqref="BB1:BB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="36" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="36" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -52370,7 +58639,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
@@ -55139,7 +61408,7 @@
       <selection activeCell="BE15" sqref="BE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
